--- a/GAUSS_SKEWED/jump_freq_800/Simulation_Spectra_Avg/800Hz_simulation_15sigma_lognormal_skewed5.xlsx
+++ b/GAUSS_SKEWED/jump_freq_800/Simulation_Spectra_Avg/800Hz_simulation_15sigma_lognormal_skewed5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbhatia/Ninja/Sabyasachi_Sen/Files/GAUSS_SKEWED/jump_freq_800/Simulation_Spectra_Avg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493687BA-E3CC-D341-A03C-5231E9E6E4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C812CC-DF00-0C40-8085-D42F1418DE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="460" windowWidth="23040" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="460" windowWidth="23040" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="213k_simulation_spectra_sigma_0" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
   <dimension ref="A1:O1367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1142,7 @@
         <v>405</v>
       </c>
       <c r="G4" s="11">
-        <v>1235</v>
+        <v>1215</v>
       </c>
       <c r="H4" s="11">
         <v>405</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="M4" s="11">
         <f>SUM(B4:L4)</f>
-        <v>2445</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G5" s="11">
         <f>G3*G4</f>
-        <v>0.61421382967351579</v>
+        <v>0.60426704700673817</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" ref="H5:L5" si="2">H3*H4</f>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="N7" s="2">
         <f>(B7*B$5+C7*C$5+D7*D$5+E7*E$5+F7*F$5+G7*G$5+H7*H$5+I7*I$5+J7*J$5+K7*K$5+L7*L$5)/SUM(B$5:L$5)</f>
-        <v>9.4341830730429229E-3</v>
+        <v>9.4327841545896931E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" ref="N8:N71" si="3">(B8*B$5+C8*C$5+D8*D$5+E8*E$5+F8*F$5+G8*G$5+H8*H$5+I8*I$5+J8*J$5+K8*K$5+L8*L$5)/SUM(B$5:L$5)</f>
-        <v>9.4696206107393877E-3</v>
+        <v>9.4682159966786635E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="3"/>
-        <v>9.5052616582867004E-3</v>
+        <v>9.5038513127757348E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="3"/>
-        <v>9.5411077991931319E-3</v>
+        <v>9.5396916860834291E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="N11" s="2">
         <f t="shared" si="3"/>
-        <v>9.5771606325657406E-3</v>
+        <v>9.5757387153997675E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="N12" s="2">
         <f t="shared" si="3"/>
-        <v>9.6134217732964881E-3</v>
+        <v>9.6119940153043554E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="3"/>
-        <v>9.6498928522509783E-3</v>
+        <v>9.6484592163470825E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="3"/>
-        <v>9.6865755164598794E-3</v>
+        <v>9.6851359652394883E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="3"/>
-        <v>9.7234714293129611E-3</v>
+        <v>9.7220259250487689E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="3"/>
-        <v>9.7605822707559336E-3</v>
+        <v>9.7591307753945675E-3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="N17" s="2">
         <f t="shared" si="3"/>
-        <v>9.7979097374900556E-3</v>
+        <v>9.7964522126485227E-3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="N18" s="2">
         <f t="shared" si="3"/>
-        <v>9.8354555431745105E-3</v>
+        <v>9.8339919501366328E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="3"/>
-        <v>9.8732214186318997E-3</v>
+        <v>9.8717517183446579E-3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="3"/>
-        <v>9.9112091120560578E-3</v>
+        <v>9.9097332651259303E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="3"/>
-        <v>9.9494203892236885E-3</v>
+        <v>9.947938355912905E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="N22" s="2">
         <f t="shared" si="3"/>
-        <v>9.9878570337081987E-3</v>
+        <v>9.986368773930979E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="N23" s="2">
         <f t="shared" si="3"/>
-        <v>1.0026520847097101E-2</v>
+        <v>1.0025026320415818E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="N24" s="2">
         <f t="shared" si="3"/>
-        <v>1.0065413649212485E-2</v>
+        <v>1.0063912814833788E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="N25" s="2">
         <f t="shared" si="3"/>
-        <v>1.0104537278334295E-2</v>
+        <v>1.010303009510519E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="3"/>
-        <v>1.0143893591427347E-2</v>
+        <v>1.01423800178312E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="3"/>
-        <v>1.0183484464371053E-2</v>
+        <v>1.0181964458523573E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" si="3"/>
-        <v>1.0223311792193095E-2</v>
+        <v>1.0221785311838242E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="N29" s="2">
         <f t="shared" si="3"/>
-        <v>1.0263377489305883E-2</v>
+        <v>1.0261844491811722E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="N30" s="2">
         <f t="shared" si="3"/>
-        <v>1.0303683489746838E-2</v>
+        <v>1.0302143932101356E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="N31" s="2">
         <f t="shared" si="3"/>
-        <v>1.0344231747421953E-2</v>
+        <v>1.0342685586228792E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="N32" s="2">
         <f t="shared" si="3"/>
-        <v>1.0385024236353112E-2</v>
+        <v>1.0383471427827274E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" si="3"/>
-        <v>1.0426062950928674E-2</v>
+        <v>1.0424503450892145E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="3"/>
-        <v>1.0467349906158318E-2</v>
+        <v>1.0465783670035648E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="3"/>
-        <v>1.0508887137930708E-2</v>
+        <v>1.0507314120744529E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="3"/>
-        <v>1.0550676703276167E-2</v>
+        <v>1.0549096859642644E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="3"/>
-        <v>1.0592720680631924E-2</v>
+        <v>1.0591133964756151E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="3"/>
-        <v>1.0635021170112136E-2</v>
+        <v>1.0633427535783469E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="3"/>
-        <v>1.0677580293781802E-2</v>
+        <v>1.0675979694369123E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="3"/>
-        <v>1.0720400195934343E-2</v>
+        <v>1.0718792584381272E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="N41" s="2">
         <f t="shared" si="3"/>
-        <v>1.076348304337368E-2</v>
+        <v>1.0761868372193707E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="N42" s="2">
         <f t="shared" si="3"/>
-        <v>1.080683102570042E-2</v>
+        <v>1.0805209246971984E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="3"/>
-        <v>1.0850446355602167E-2</v>
+        <v>1.0848817420963653E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="N44" s="2">
         <f t="shared" si="3"/>
-        <v>1.0894331269148237E-2</v>
+        <v>1.089269512979292E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="N45" s="2">
         <f t="shared" si="3"/>
-        <v>1.0938488026088973E-2</v>
+        <v>1.0936844632759889E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="N46" s="2">
         <f t="shared" si="3"/>
-        <v>1.0982918910159487E-2</v>
+        <v>1.0981268213144218E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="N47" s="2">
         <f t="shared" si="3"/>
-        <v>1.1027626229387511E-2</v>
+        <v>1.1025968178512924E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="N48" s="2">
         <f t="shared" si="3"/>
-        <v>1.107261231640666E-2</v>
+        <v>1.1070946861033548E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="N49" s="2">
         <f t="shared" si="3"/>
-        <v>1.1117879528773817E-2</v>
+        <v>1.1116206617791486E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="N50" s="2">
         <f t="shared" si="3"/>
-        <v>1.1163430249291614E-2</v>
+        <v>1.1161749831112381E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="N51" s="2">
         <f t="shared" si="3"/>
-        <v>1.1209266886335625E-2</v>
+        <v>1.1207578908889251E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="N52" s="2">
         <f t="shared" si="3"/>
-        <v>1.1255391874186992E-2</v>
+        <v>1.1253696284915023E-2</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="N53" s="2">
         <f t="shared" si="3"/>
-        <v>1.1301807673369262E-2</v>
+        <v>1.1300104419219312E-2</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="N54" s="2">
         <f t="shared" si="3"/>
-        <v>1.1348516770991307E-2</v>
+        <v>1.1346805798411236E-2</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="N55" s="2">
         <f t="shared" si="3"/>
-        <v>1.1395521681094714E-2</v>
+        <v>1.1393802936026747E-2</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="N56" s="2">
         <f t="shared" si="3"/>
-        <v>1.1442824945007264E-2</v>
+        <v>1.1441098372882014E-2</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="N57" s="2">
         <f t="shared" si="3"/>
-        <v>1.1490429131700916E-2</v>
+        <v>1.1488694677431325E-2</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="N58" s="2">
         <f t="shared" si="3"/>
-        <v>1.1538336838156339E-2</v>
+        <v>1.1536594446131535E-2</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="N59" s="2">
         <f t="shared" si="3"/>
-        <v>1.1586550689732255E-2</v>
+        <v>1.158480030381133E-2</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="N60" s="2">
         <f t="shared" si="3"/>
-        <v>1.1635073340540749E-2</v>
+        <v>1.1633314904046435E-2</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="N61" s="2">
         <f t="shared" si="3"/>
-        <v>1.168390747382877E-2</v>
+        <v>1.1682140929541033E-2</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="N62" s="2">
         <f t="shared" si="3"/>
-        <v>1.1733055802364868E-2</v>
+        <v>1.1731281092514412E-2</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="N63" s="2">
         <f t="shared" si="3"/>
-        <v>1.1782521068832586E-2</v>
+        <v>1.1780738135094254E-2</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="N64" s="2">
         <f t="shared" si="3"/>
-        <v>1.1832306046229615E-2</v>
+        <v>1.183051482971572E-2</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="N65" s="2">
         <f t="shared" si="3"/>
-        <v>1.1882413538273434E-2</v>
+        <v>1.1880613979526965E-2</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="N66" s="2">
         <f t="shared" si="3"/>
-        <v>1.1932846379812932E-2</v>
+        <v>1.1931038418800678E-2</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="N67" s="2">
         <f t="shared" si="3"/>
-        <v>1.1983607437247145E-2</v>
+        <v>1.1981791013352727E-2</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="N68" s="2">
         <f t="shared" si="3"/>
-        <v>1.2034699608949966E-2</v>
+        <v>1.2032874660966756E-2</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="N69" s="2">
         <f t="shared" si="3"/>
-        <v>1.2086125825701696E-2</v>
+        <v>1.2084292291825635E-2</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="N70" s="2">
         <f t="shared" si="3"/>
-        <v>1.2137889051127776E-2</v>
+        <v>1.2136046868950097E-2</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="N71" s="2">
         <f t="shared" si="3"/>
-        <v>1.2189992282144112E-2</v>
+        <v>1.2188141388643948E-2</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="N72" s="2">
         <f t="shared" ref="N72:N135" si="4">(B72*B$5+C72*C$5+D72*D$5+E72*E$5+F72*F$5+G72*G$5+H72*H$5+I72*I$5+J72*J$5+K72*K$5+L72*L$5)/SUM(B$5:L$5)</f>
-        <v>1.2242438549409625E-2</v>
+        <v>1.2240578880946523E-2</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="N73" s="2">
         <f t="shared" si="4"/>
-        <v>1.2295230917785871E-2</v>
+        <v>1.2293362410092171E-2</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="N74" s="2">
         <f t="shared" si="4"/>
-        <v>1.2348372486804321E-2</v>
+        <v>1.2346495074977459E-2</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="N75" s="2">
         <f t="shared" si="4"/>
-        <v>1.2401866391140654E-2</v>
+        <v>1.2399980009635323E-2</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="4"/>
-        <v>1.2455715801097059E-2</v>
+        <v>1.2453820383717276E-2</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="N77" s="2">
         <f t="shared" si="4"/>
-        <v>1.2509923923092112E-2</v>
+        <v>1.2508019402983149E-2</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="N78" s="2">
         <f t="shared" si="4"/>
-        <v>1.2564494000158646E-2</v>
+        <v>1.2562580309798866E-2</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="N79" s="2">
         <f t="shared" si="4"/>
-        <v>1.2619429312449469E-2</v>
+        <v>1.2617506383642018E-2</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="N80" s="2">
         <f t="shared" si="4"/>
-        <v>1.2674733177751304E-2</v>
+        <v>1.26728009416157E-2</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="N81" s="2">
         <f t="shared" si="4"/>
-        <v>1.2730408952007589E-2</v>
+        <v>1.2728467338971169E-2</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="N82" s="2">
         <f t="shared" si="4"/>
-        <v>1.2786460029848574E-2</v>
+        <v>1.2784508969637828E-2</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="N83" s="2">
         <f t="shared" si="4"/>
-        <v>1.2842889845131751E-2</v>
+        <v>1.2840929266763532E-2</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="N84" s="2">
         <f t="shared" si="4"/>
-        <v>1.2899701871489434E-2</v>
+        <v>1.289773170326201E-2</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="N85" s="2">
         <f t="shared" si="4"/>
-        <v>1.2956899622886299E-2</v>
+        <v>1.2954919792370297E-2</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="N86" s="2">
         <f t="shared" si="4"/>
-        <v>1.3014486654185992E-2</v>
+        <v>1.3012497088215202E-2</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="N87" s="2">
         <f t="shared" si="4"/>
-        <v>1.3072466561726679E-2</v>
+        <v>1.3070467186388723E-2</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="N88" s="2">
         <f t="shared" si="4"/>
-        <v>1.3130842983906411E-2</v>
+        <v>1.3128833724533251E-2</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="N89" s="2">
         <f t="shared" si="4"/>
-        <v>1.3189619601777959E-2</v>
+        <v>1.3187600382936286E-2</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="N90" s="2">
         <f t="shared" si="4"/>
-        <v>1.3248800139653712E-2</v>
+        <v>1.3246770885135182E-2</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="N91" s="2">
         <f t="shared" si="4"/>
-        <v>1.3308388365720295E-2</v>
+        <v>1.3306348998531623E-2</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="N92" s="2">
         <f t="shared" si="4"/>
-        <v>1.3368388092663991E-2</v>
+        <v>1.3366338535016875E-2</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="N93" s="2">
         <f t="shared" si="4"/>
-        <v>1.3428803178305769E-2</v>
+        <v>1.3426743351606683E-2</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="N94" s="2">
         <f t="shared" si="4"/>
-        <v>1.3489637526247728E-2</v>
+        <v>1.3487567351087557E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="N95" s="2">
         <f t="shared" si="4"/>
-        <v>1.3550895086529747E-2</v>
+        <v>1.3548814482673257E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="N96" s="2">
         <f t="shared" si="4"/>
-        <v>1.3612579856297814E-2</v>
+        <v>1.3610488742672957E-2</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="N97" s="2">
         <f t="shared" si="4"/>
-        <v>1.3674695880482902E-2</v>
+        <v>1.3672594175169977E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="N98" s="2">
         <f t="shared" si="4"/>
-        <v>1.3737247252491811E-2</v>
+        <v>1.3735134872712435E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="N99" s="2">
         <f t="shared" si="4"/>
-        <v>1.3800238114909385E-2</v>
+        <v>1.3798114977015309E-2</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="N100" s="2">
         <f t="shared" si="4"/>
-        <v>1.3863672660212961E-2</v>
+        <v>1.3861538679674717E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="N101" s="2">
         <f t="shared" si="4"/>
-        <v>1.3927555131498784E-2</v>
+        <v>1.3925410222894135E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="N102" s="2">
         <f t="shared" si="4"/>
-        <v>1.3991889823220546E-2</v>
+        <v>1.3989733900222796E-2</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="N103" s="2">
         <f t="shared" si="4"/>
-        <v>1.405668108194116E-2</v>
+        <v>1.4054514057307238E-2</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="N104" s="2">
         <f t="shared" si="4"/>
-        <v>1.4121933307096631E-2</v>
+        <v>1.4119755092655022E-2</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="N105" s="2">
         <f t="shared" si="4"/>
-        <v>1.418765095177372E-2</v>
+        <v>1.4185461458412197E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="N106" s="2">
         <f t="shared" si="4"/>
-        <v>1.4253838523500654E-2</v>
+        <v>1.4251637661153824E-2</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="N107" s="2">
         <f t="shared" si="4"/>
-        <v>1.4320500585051408E-2</v>
+        <v>1.4318288262688052E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="N108" s="2">
         <f t="shared" si="4"/>
-        <v>1.4387641755264179E-2</v>
+        <v>1.4385417880874401E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="N109" s="2">
         <f t="shared" si="4"/>
-        <v>1.4455266709873731E-2</v>
+        <v>1.4453031190455917E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="N110" s="2">
         <f t="shared" si="4"/>
-        <v>1.4523380182358292E-2</v>
+        <v>1.4521132923905842E-2</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="N111" s="2">
         <f t="shared" si="4"/>
-        <v>1.4591986964801337E-2</v>
+        <v>1.4589727872289203E-2</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="N112" s="2">
         <f t="shared" si="4"/>
-        <v>1.466109190876832E-2</v>
+        <v>1.4658820886139321E-2</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="N113" s="2">
         <f t="shared" si="4"/>
-        <v>1.4730699926198559E-2</v>
+        <v>1.4728416876349494E-2</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="N114" s="2">
         <f t="shared" si="4"/>
-        <v>1.4800815990313217E-2</v>
+        <v>1.479852081508074E-2</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="N115" s="2">
         <f t="shared" si="4"/>
-        <v>1.4871445136538619E-2</v>
+        <v>1.4869137736684907E-2</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="N116" s="2">
         <f t="shared" si="4"/>
-        <v>1.4942592463446451E-2</v>
+        <v>1.4940272738644633E-2</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="N117" s="2">
         <f t="shared" si="4"/>
-        <v>1.5014263133710201E-2</v>
+        <v>1.5011930982529559E-2</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="N118" s="2">
         <f t="shared" si="4"/>
-        <v>1.5086462375078708E-2</v>
+        <v>1.5084117694969635E-2</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="N119" s="2">
         <f t="shared" si="4"/>
-        <v>1.5159195481366659E-2</v>
+        <v>1.5156838168645381E-2</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="N120" s="2">
         <f t="shared" si="4"/>
-        <v>1.5232467813463404E-2</v>
+        <v>1.5230097763296466E-2</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="N121" s="2">
         <f t="shared" si="4"/>
-        <v>1.5306284800359034E-2</v>
+        <v>1.5303901906747512E-2</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="N122" s="2">
         <f t="shared" si="4"/>
-        <v>1.538065194018905E-2</v>
+        <v>1.5378256095952529E-2</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="N123" s="2">
         <f t="shared" si="4"/>
-        <v>1.5455574801298224E-2</v>
+        <v>1.5453165898058516E-2</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="N124" s="2">
         <f t="shared" si="4"/>
-        <v>1.553105902332285E-2</v>
+        <v>1.5528636951487439E-2</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="N125" s="2">
         <f t="shared" si="4"/>
-        <v>1.5607110318292757E-2</v>
+        <v>1.5604674967037982E-2</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="N126" s="2">
         <f t="shared" si="4"/>
-        <v>1.568373447175371E-2</v>
+        <v>1.5681285729007673E-2</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="N127" s="2">
         <f t="shared" si="4"/>
-        <v>1.5760937343909348E-2</v>
+        <v>1.5758475096334532E-2</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="N128" s="2">
         <f t="shared" si="4"/>
-        <v>1.5838724870784391E-2</v>
+        <v>1.5836249003760024E-2</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="N129" s="2">
         <f t="shared" si="4"/>
-        <v>1.591710306540867E-2</v>
+        <v>1.5914613463012761E-2</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="N130" s="2">
         <f t="shared" si="4"/>
-        <v>1.5996078019023276E-2</v>
+        <v>1.5993574564014401E-2</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="N131" s="2">
         <f t="shared" si="4"/>
-        <v>1.6075655902308153E-2</v>
+        <v>1.6073138476106894E-2</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="N132" s="2">
         <f t="shared" si="4"/>
-        <v>1.6155842966632451E-2</v>
+        <v>1.6153311449302571E-2</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="N133" s="2">
         <f t="shared" si="4"/>
-        <v>1.6236645545328159E-2</v>
+        <v>1.6234099815557432E-2</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="N134" s="2">
         <f t="shared" si="4"/>
-        <v>1.6318070054986578E-2</v>
+        <v>1.6315509990067343E-2</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="N135" s="2">
         <f t="shared" si="4"/>
-        <v>1.6400122996779381E-2</v>
+        <v>1.6397548472588716E-2</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="N136" s="2">
         <f t="shared" ref="N136:N199" si="5">(B136*B$5+C136*C$5+D136*D$5+E136*E$5+F136*F$5+G136*G$5+H136*H$5+I136*I$5+J136*J$5+K136*K$5+L136*L$5)/SUM(B$5:L$5)</f>
-        <v>1.6482810957803691E-2</v>
+        <v>1.6480221848783318E-2</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="N137" s="2">
         <f t="shared" si="5"/>
-        <v>1.6566140612452439E-2</v>
+        <v>1.6563536791588264E-2</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="N138" s="2">
         <f t="shared" si="5"/>
-        <v>1.6650118723809833E-2</v>
+        <v>1.6647500062611138E-2</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="N139" s="2">
         <f t="shared" si="5"/>
-        <v>1.6734752145073459E-2</v>
+        <v>1.6732118513551764E-2</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="N140" s="2">
         <f t="shared" si="5"/>
-        <v>1.6820047821002423E-2</v>
+        <v>1.6817399087649992E-2</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="N141" s="2">
         <f t="shared" si="5"/>
-        <v>1.6906012789392914E-2</v>
+        <v>1.6903348821160881E-2</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="N142" s="2">
         <f t="shared" si="5"/>
-        <v>1.6992654182581588E-2</v>
+        <v>1.6989974844857741E-2</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="N143" s="2">
         <f t="shared" si="5"/>
-        <v>1.7079979228977027E-2</v>
+        <v>1.7077284385563211E-2</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="N144" s="2">
         <f t="shared" si="5"/>
-        <v>1.7167995254620521E-2</v>
+        <v>1.7165284767709659E-2</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="N145" s="2">
         <f t="shared" si="5"/>
-        <v>1.7256709684775898E-2</v>
+        <v>1.7253983414928589E-2</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="N146" s="2">
         <f t="shared" si="5"/>
-        <v>1.7346130045550318E-2</v>
+        <v>1.7343387851671103E-2</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="N147" s="2">
         <f t="shared" si="5"/>
-        <v>1.7436263965544929E-2</v>
+        <v>1.7433505704858115E-2</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="N148" s="2">
         <f t="shared" si="5"/>
-        <v>1.7527119177538117E-2</v>
+        <v>1.7524344705563178E-2</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="N149" s="2">
         <f t="shared" si="5"/>
-        <v>1.7618703520200268E-2</v>
+        <v>1.7615912690726866E-2</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
@@ -7263,7 +7263,7 @@
       </c>
       <c r="N150" s="2">
         <f t="shared" si="5"/>
-        <v>1.771102493984137E-2</v>
+        <v>1.77082176049039E-2</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="N151" s="2">
         <f t="shared" si="5"/>
-        <v>1.780409149219311E-2</v>
+        <v>1.7801267502044863E-2</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="N152" s="2">
         <f t="shared" si="5"/>
-        <v>1.7897911344224263E-2</v>
+        <v>1.7895070547311105E-2</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="N153" s="2">
         <f t="shared" si="5"/>
-        <v>1.7992492775991815E-2</v>
+        <v>1.7989635018925434E-2</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="N154" s="2">
         <f t="shared" si="5"/>
-        <v>1.8087844182528116E-2</v>
+        <v>1.8084969310058784E-2</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="N155" s="2">
         <f t="shared" si="5"/>
-        <v>1.8183974075764182E-2</v>
+        <v>1.8181081930753098E-2</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="N156" s="2">
         <f t="shared" si="5"/>
-        <v>1.828089108649093E-2</v>
+        <v>1.827798150988201E-2</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="N157" s="2">
         <f t="shared" si="5"/>
-        <v>1.8378603966358598E-2</v>
+        <v>1.8375676797149864E-2</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="N158" s="2">
         <f t="shared" si="5"/>
-        <v>1.8477121589915376E-2</v>
+        <v>1.8474176665129766E-2</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="N159" s="2">
         <f t="shared" si="5"/>
-        <v>1.8576452956686192E-2</v>
+        <v>1.8573490111341916E-2</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="N160" s="2">
         <f t="shared" si="5"/>
-        <v>1.8676607193292047E-2</v>
+        <v>1.8673626260372403E-2</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="N161" s="2">
         <f t="shared" si="5"/>
-        <v>1.8777593555611947E-2</v>
+        <v>1.8774594366034618E-2</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="N162" s="2">
         <f t="shared" si="5"/>
-        <v>1.8879421430986792E-2</v>
+        <v>1.8876403813572609E-2</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="N163" s="2">
         <f t="shared" si="5"/>
-        <v>1.8982100340467715E-2</v>
+        <v>1.8979064121908858E-2</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="N164" s="2">
         <f t="shared" si="5"/>
-        <v>1.9085639941108949E-2</v>
+        <v>1.9082584945936606E-2</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="N165" s="2">
         <f t="shared" si="5"/>
-        <v>1.9190050028306187E-2</v>
+        <v>1.9186976078857644E-2</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="N166" s="2">
         <f t="shared" si="5"/>
-        <v>1.9295340538182319E-2</v>
+        <v>1.9292247454567438E-2</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="N167" s="2">
         <f t="shared" si="5"/>
-        <v>1.940152155002052E-2</v>
+        <v>1.9398409150087687E-2</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="N168" s="2">
         <f t="shared" si="5"/>
-        <v>1.9508603288746536E-2</v>
+        <v>1.9505471388047937E-2</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="N169" s="2">
         <f t="shared" si="5"/>
-        <v>1.9616596127461108E-2</v>
+        <v>1.9613444539217449E-2</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="N170" s="2">
         <f t="shared" si="5"/>
-        <v>1.9725510590023396E-2</v>
+        <v>1.9722339125087949E-2</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="N171" s="2">
         <f t="shared" si="5"/>
-        <v>1.9835357353687084E-2</v>
+        <v>1.9832165820509118E-2</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -8187,7 +8187,7 @@
       </c>
       <c r="N172" s="2">
         <f t="shared" si="5"/>
-        <v>1.9946147251789937E-2</v>
+        <v>1.99429354563775E-2</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="N173" s="2">
         <f t="shared" si="5"/>
-        <v>2.0057891276498083E-2</v>
+        <v>2.0054659022380114E-2</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="N174" s="2">
         <f t="shared" si="5"/>
-        <v>2.0170600581606756E-2</v>
+        <v>2.0167347669794507E-2</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="N175" s="2">
         <f t="shared" si="5"/>
-        <v>2.0284286485398151E-2</v>
+        <v>2.0281012714345945E-2</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="N176" s="2">
         <f t="shared" si="5"/>
-        <v>2.039896047355802E-2</v>
+        <v>2.0395665639123269E-2</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="N177" s="2">
         <f t="shared" si="5"/>
-        <v>2.051463420215275E-2</v>
+        <v>2.0511318097555287E-2</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="N178" s="2">
         <f t="shared" si="5"/>
-        <v>2.0631319500667399E-2</v>
+        <v>2.0627981916448053E-2</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="N179" s="2">
         <f t="shared" si="5"/>
-        <v>2.0749028375107368E-2</v>
+        <v>2.0745669099085821E-2</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="N180" s="2">
         <f t="shared" si="5"/>
-        <v>2.0867773011163767E-2</v>
+        <v>2.0864391828395588E-2</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="N181" s="2">
         <f t="shared" si="5"/>
-        <v>2.0987565777445538E-2</v>
+        <v>2.0984162470178536E-2</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="N182" s="2">
         <f t="shared" si="5"/>
-        <v>2.1108419228778361E-2</v>
+        <v>2.1104993576408045E-2</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="N183" s="2">
         <f t="shared" si="5"/>
-        <v>2.1230346109573056E-2</v>
+        <v>2.1226897888597353E-2</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="N184" s="2">
         <f t="shared" si="5"/>
-        <v>2.1353359357264991E-2</v>
+        <v>2.1349888341238119E-2</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="N185" s="2">
         <f t="shared" si="5"/>
-        <v>2.1477472105825266E-2</v>
+        <v>2.1473978065310755E-2</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="N186" s="2">
         <f t="shared" si="5"/>
-        <v>2.1602697689346539E-2</v>
+        <v>2.1599180391869397E-2</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="N187" s="2">
         <f t="shared" si="5"/>
-        <v>2.1729049645704903E-2</v>
+        <v>2.1725508855702944E-2</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="N188" s="2">
         <f t="shared" si="5"/>
-        <v>2.1856541720298862E-2</v>
+        <v>2.185297719907308E-2</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="N189" s="2">
         <f t="shared" si="5"/>
-        <v>2.1985187869868743E-2</v>
+        <v>2.1981599375532831E-2</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="N190" s="2">
         <f t="shared" si="5"/>
-        <v>2.211500226639727E-2</v>
+        <v>2.2111389553826171E-2</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="N191" s="2">
         <f t="shared" si="5"/>
-        <v>2.2245999301093392E-2</v>
+        <v>2.2242362121870925E-2</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="N192" s="2">
         <f t="shared" si="5"/>
-        <v>2.2378193588462065E-2</v>
+        <v>2.2374531690827582E-2</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="N193" s="2">
         <f t="shared" si="5"/>
-        <v>2.2511599970461725E-2</v>
+        <v>2.2507913099255785E-2</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="N194" s="2">
         <f t="shared" si="5"/>
-        <v>2.2646233520750906E-2</v>
+        <v>2.264252141735993E-2</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
@@ -9153,7 +9153,7 @@
       </c>
       <c r="N195" s="2">
         <f t="shared" si="5"/>
-        <v>2.2782109549027433E-2</v>
+        <v>2.2778371951327366E-2</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
@@ -9195,7 +9195,7 @@
       </c>
       <c r="N196" s="2">
         <f t="shared" si="5"/>
-        <v>2.2919243605461551E-2</v>
+        <v>2.2915480247760418E-2</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="N197" s="2">
         <f t="shared" si="5"/>
-        <v>2.3057651485225386E-2</v>
+        <v>2.3053862098204873E-2</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="N198" s="2">
         <f t="shared" si="5"/>
-        <v>2.31973492331215E-2</v>
+        <v>2.3193533543777355E-2</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="N199" s="2">
         <f t="shared" si="5"/>
-        <v>2.3338353148312837E-2</v>
+        <v>2.3334510879894226E-2</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="N200" s="2">
         <f t="shared" ref="N200:N263" si="6">(B200*B$5+C200*C$5+D200*D$5+E200*E$5+F200*F$5+G200*G$5+H200*H$5+I200*I$5+J200*J$5+K200*K$5+L200*L$5)/SUM(B$5:L$5)</f>
-        <v>2.3480679789156089E-2</v>
+        <v>2.3476810661103787E-2</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="N201" s="2">
         <f t="shared" si="6"/>
-        <v>2.3624345978141909E-2</v>
+        <v>2.3620449706025358E-2</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="N202" s="2">
         <f t="shared" si="6"/>
-        <v>2.3769368806943622E-2</v>
+        <v>2.3765445102396799E-2</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="N203" s="2">
         <f t="shared" si="6"/>
-        <v>2.3915765641578393E-2</v>
+        <v>2.391181421223448E-2</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="N204" s="2">
         <f t="shared" si="6"/>
-        <v>2.4063554127682074E-2</v>
+        <v>2.4059574677106906E-2</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="N205" s="2">
         <f t="shared" si="6"/>
-        <v>2.4212752195902291E-2</v>
+        <v>2.4208744423526555E-2</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="N206" s="2">
         <f t="shared" si="6"/>
-        <v>2.4363378067411099E-2</v>
+        <v>2.4359341668461269E-2</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="N207" s="2">
         <f t="shared" si="6"/>
-        <v>2.4515450259541712E-2</v>
+        <v>2.4511384924969657E-2</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="N208" s="2">
         <f t="shared" si="6"/>
-        <v>2.4668987591551107E-2</v>
+        <v>2.4664893007962405E-2</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="N209" s="2">
         <f t="shared" si="6"/>
-        <v>2.4824009190512759E-2</v>
+        <v>2.4819885040093647E-2</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="N210" s="2">
         <f t="shared" si="6"/>
-        <v>2.4980534497342135E-2</v>
+        <v>2.497638045778508E-2</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="N211" s="2">
         <f t="shared" si="6"/>
-        <v>2.5138583272958624E-2</v>
+        <v>2.513439901738649E-2</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="N212" s="2">
         <f t="shared" si="6"/>
-        <v>2.5298175604587123E-2</v>
+        <v>2.5293960801475911E-2</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="N213" s="2">
         <f t="shared" si="6"/>
-        <v>2.5459331912203252E-2</v>
+        <v>2.5455086225303361E-2</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="N214" s="2">
         <f t="shared" si="6"/>
-        <v>2.5622072955125658E-2</v>
+        <v>2.5617796043381678E-2</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="N215" s="2">
         <f t="shared" si="6"/>
-        <v>2.5786419838758835E-2</v>
+        <v>2.5782111356227811E-2</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="N216" s="2">
         <f t="shared" si="6"/>
-        <v>2.5952394021491101E-2</v>
+        <v>2.5948053617259232E-2</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="N217" s="2">
         <f t="shared" si="6"/>
-        <v>2.6120017321750809E-2</v>
+        <v>2.6115644639848602E-2</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="N218" s="2">
         <f t="shared" si="6"/>
-        <v>2.6289311925226148E-2</v>
+        <v>2.628490660454192E-2</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="N219" s="2">
         <f t="shared" si="6"/>
-        <v>2.6460300392251165E-2</v>
+        <v>2.6455862066442938E-2</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="N220" s="2">
         <f t="shared" si="6"/>
-        <v>2.6633005665363831E-2</v>
+        <v>2.6628533962769523E-2</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="N221" s="2">
         <f t="shared" si="6"/>
-        <v>2.6807451077039409E-2</v>
+        <v>2.6802945620585338E-2</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="N222" s="2">
         <f t="shared" si="6"/>
-        <v>2.6983660357604973E-2</v>
+        <v>2.6979120764712594E-2</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="N223" s="2">
         <f t="shared" si="6"/>
-        <v>2.7161657643338628E-2</v>
+        <v>2.7157083525829542E-2</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="N224" s="2">
         <f t="shared" si="6"/>
-        <v>2.7341467484758842E-2</v>
+        <v>2.7336858448757956E-2</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="N225" s="2">
         <f t="shared" si="6"/>
-        <v>2.7523114855109148E-2</v>
+        <v>2.7518470500945986E-2</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="N226" s="2">
         <f t="shared" si="6"/>
-        <v>2.7706625159042923E-2</v>
+        <v>2.7701945081151091E-2</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="N227" s="2">
         <f t="shared" si="6"/>
-        <v>2.7892024241513269E-2</v>
+        <v>2.7887308028327999E-2</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="N228" s="2">
         <f t="shared" si="6"/>
-        <v>2.8079338396874726E-2</v>
+        <v>2.807458563072842E-2</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="N229" s="2">
         <f t="shared" si="6"/>
-        <v>2.8268594378200958E-2</v>
+        <v>2.8263804635216806E-2</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="N230" s="2">
         <f t="shared" si="6"/>
-        <v>2.8459819406824991E-2</v>
+        <v>2.8454992256808528E-2</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="N231" s="2">
         <f t="shared" si="6"/>
-        <v>2.8653041182107541E-2</v>
+        <v>2.8648176188436132E-2</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="N232" s="2">
         <f t="shared" si="6"/>
-        <v>2.8848287891440422E-2</v>
+        <v>2.8843384610950699E-2</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="N233" s="2">
         <f t="shared" si="6"/>
-        <v>2.9045588220490002E-2</v>
+        <v>2.9040646203363055E-2</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="N234" s="2">
         <f t="shared" si="6"/>
-        <v>2.9244971363688213E-2</v>
+        <v>2.9239990153332718E-2</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="N235" s="2">
         <f t="shared" si="6"/>
-        <v>2.9446467034977386E-2</v>
+        <v>2.9441446167910397E-2</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="N236" s="2">
         <f t="shared" si="6"/>
-        <v>2.9650105478816007E-2</v>
+        <v>2.9645044484541569E-2</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="N237" s="2">
         <f t="shared" si="6"/>
-        <v>2.9855917481451832E-2</v>
+        <v>2.9850815882337255E-2</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -10959,7 +10959,7 @@
       </c>
       <c r="N238" s="2">
         <f t="shared" si="6"/>
-        <v>3.0063934382471118E-2</v>
+        <v>3.0058791693620884E-2</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="N239" s="2">
         <f t="shared" si="6"/>
-        <v>3.0274188086629353E-2</v>
+        <v>3.0269003815756663E-2</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="N240" s="2">
         <f t="shared" si="6"/>
-        <v>3.0486711075973106E-2</v>
+        <v>3.048148472326899E-2</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="N241" s="2">
         <f t="shared" si="6"/>
-        <v>3.0701536422259867E-2</v>
+        <v>3.069626748025981E-2</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="N242" s="2">
         <f t="shared" si="6"/>
-        <v>3.0918697799684761E-2</v>
+        <v>3.0913385753132818E-2</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
@@ -11169,7 +11169,7 @@
       </c>
       <c r="N243" s="2">
         <f t="shared" si="6"/>
-        <v>3.1138229497921648E-2</v>
+        <v>3.1132873823631967E-2</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
@@ -11211,7 +11211,7 @@
       </c>
       <c r="N244" s="2">
         <f t="shared" si="6"/>
-        <v>3.1360166435488342E-2</v>
+        <v>3.1354766602204119E-2</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="N245" s="2">
         <f t="shared" si="6"/>
-        <v>3.1584544173444466E-2</v>
+        <v>3.1579099641694246E-2</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="N246" s="2">
         <f t="shared" si="6"/>
-        <v>3.1811398929430627E-2</v>
+        <v>3.1805909151381859E-2</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
@@ -11337,7 +11337,7 @@
       </c>
       <c r="N247" s="2">
         <f t="shared" si="6"/>
-        <v>3.2040767592059351E-2</v>
+        <v>3.2035232011369257E-2</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="N248" s="2">
         <f t="shared" si="6"/>
-        <v>3.2272687735667153E-2</v>
+        <v>3.2267105787330788E-2</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="N249" s="2">
         <f t="shared" si="6"/>
-        <v>3.2507197635437711E-2</v>
+        <v>3.2501568745633196E-2</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
@@ -11463,7 +11463,7 @@
       </c>
       <c r="N250" s="2">
         <f t="shared" si="6"/>
-        <v>3.2744336282906197E-2</v>
+        <v>3.2738659868837047E-2</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
@@ -11505,7 +11505,7 @@
       </c>
       <c r="N251" s="2">
         <f t="shared" si="6"/>
-        <v>3.2984143401856708E-2</v>
+        <v>3.2978418871591267E-2</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
@@ -11547,7 +11547,7 @@
       </c>
       <c r="N252" s="2">
         <f t="shared" si="6"/>
-        <v>3.322665946462254E-2</v>
+        <v>3.3220886216930451E-2</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="N253" s="2">
         <f t="shared" si="6"/>
-        <v>3.3471925708801052E-2</v>
+        <v>3.3466103132986667E-2</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="N254" s="2">
         <f t="shared" si="6"/>
-        <v>3.3719984154395255E-2</v>
+        <v>3.3714111630128045E-2</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="N255" s="2">
         <f t="shared" si="6"/>
-        <v>3.3970877621393607E-2</v>
+        <v>3.3964954518535422E-2</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="N256" s="2">
         <f t="shared" si="6"/>
-        <v>3.4224649747801004E-2</v>
+        <v>3.4218675426230201E-2</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="N257" s="2">
         <f t="shared" si="6"/>
-        <v>3.4481345008133012E-2</v>
+        <v>3.4475318817565381E-2</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="N258" s="2">
         <f t="shared" si="6"/>
-        <v>3.4741008732387758E-2</v>
+        <v>3.4734930012194215E-2</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="N259" s="2">
         <f t="shared" si="6"/>
-        <v>3.5003687125507825E-2</v>
+        <v>3.4997555204528845E-2</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="N260" s="2">
         <f t="shared" si="6"/>
-        <v>3.5269427287346715E-2</v>
+        <v>3.5263241483703377E-2</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="N261" s="2">
         <f t="shared" si="6"/>
-        <v>3.5538277233154968E-2</v>
+        <v>3.5532036854056676E-2</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="N262" s="2">
         <f t="shared" si="6"/>
-        <v>3.5810285914599768E-2</v>
+        <v>3.5803990256148624E-2</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="N263" s="2">
         <f t="shared" si="6"/>
-        <v>3.6085503241333985E-2</v>
+        <v>3.6079151588325573E-2</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="N264" s="2">
         <f t="shared" ref="N264:N327" si="7">(B264*B$5+C264*C$5+D264*D$5+E264*E$5+F264*F$5+G264*G$5+H264*H$5+I264*I$5+J264*J$5+K264*K$5+L264*L$5)/SUM(B$5:L$5)</f>
-        <v>3.6363980103130723E-2</v>
+        <v>3.6357571728851526E-2</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="N265" s="2">
         <f t="shared" si="7"/>
-        <v>3.6645768392599011E-2</v>
+        <v>3.6639302558620288E-2</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
@@ -12135,7 +12135,7 @@
       </c>
       <c r="N266" s="2">
         <f t="shared" si="7"/>
-        <v>3.6930921028498334E-2</v>
+        <v>3.6924396984466375E-2</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="N267" s="2">
         <f t="shared" si="7"/>
-        <v>3.7219491979668895E-2</v>
+        <v>3.7212908963091755E-2</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="N268" s="2">
         <f t="shared" si="7"/>
-        <v>3.7511536289595207E-2</v>
+        <v>3.7504893525625783E-2</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="N269" s="2">
         <f t="shared" si="7"/>
-        <v>3.7807110101622507E-2</v>
+        <v>3.7800406802837964E-2</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
@@ -12303,7 +12303,7 @@
       </c>
       <c r="N270" s="2">
         <f t="shared" si="7"/>
-        <v>3.8106270684843589E-2</v>
+        <v>3.8099506051021116E-2</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="N271" s="2">
         <f t="shared" si="7"/>
-        <v>3.8409076460677462E-2</v>
+        <v>3.84022496785663E-2</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="N272" s="2">
         <f t="shared" si="7"/>
-        <v>3.8715587030158337E-2</v>
+        <v>3.8708697273248098E-2</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="N273" s="2">
         <f t="shared" si="7"/>
-        <v>3.9025863201956945E-2</v>
+        <v>3.9018909630242189E-2</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="N274" s="2">
         <f t="shared" si="7"/>
-        <v>3.9339967021155262E-2</v>
+        <v>3.9332948780896299E-2</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="N275" s="2">
         <f t="shared" si="7"/>
-        <v>3.9657961798797277E-2</v>
+        <v>3.9650878022277181E-2</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
@@ -12555,7 +12555,7 @@
       </c>
       <c r="N276" s="2">
         <f t="shared" si="7"/>
-        <v>3.9979912142237735E-2</v>
+        <v>3.9972761947515624E-2</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="N277" s="2">
         <f t="shared" si="7"/>
-        <v>4.0305883986313761E-2</v>
+        <v>4.0298666476974283E-2</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="N278" s="2">
         <f t="shared" si="7"/>
-        <v>4.0635944625362998E-2</v>
+        <v>4.0628658890261966E-2</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
@@ -12681,7 +12681,7 @@
       </c>
       <c r="N279" s="2">
         <f t="shared" si="7"/>
-        <v>4.0970162746112752E-2</v>
+        <v>4.0962807859119106E-2</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="N280" s="2">
         <f t="shared" si="7"/>
-        <v>4.1308608461467423E-2</v>
+        <v>4.1301183481201383E-2</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="N281" s="2">
         <f t="shared" si="7"/>
-        <v>4.1651353345220167E-2</v>
+        <v>4.164385731478764E-2</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
@@ -12807,7 +12807,7 @@
       </c>
       <c r="N282" s="2">
         <f t="shared" si="7"/>
-        <v>4.1998470467716022E-2</v>
+        <v>4.1990902414439278E-2</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="N283" s="2">
         <f t="shared" si="7"/>
-        <v>4.2350034432495354E-2</v>
+        <v>4.2342393367640084E-2</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="N284" s="2">
         <f t="shared" si="7"/>
-        <v>4.2706121413946814E-2</v>
+        <v>4.2698406332445496E-2</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="N285" s="2">
         <f t="shared" si="7"/>
-        <v>4.3066809196000339E-2</v>
+        <v>4.3059019076172003E-2</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
       </c>
       <c r="N286" s="2">
         <f t="shared" si="7"/>
-        <v>4.3432177211889779E-2</v>
+        <v>4.34243110151563E-2</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="N287" s="2">
         <f t="shared" si="7"/>
-        <v>4.3802306585020261E-2</v>
+        <v>4.3794363255619126E-2</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
@@ -13059,7 +13059,7 @@
       </c>
       <c r="N288" s="2">
         <f t="shared" si="7"/>
-        <v>4.4177280170969828E-2</v>
+        <v>4.4169258635663546E-2</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
@@ -13101,7 +13101,7 @@
       </c>
       <c r="N289" s="2">
         <f t="shared" si="7"/>
-        <v>4.4557182600662222E-2</v>
+        <v>4.4549081768444444E-2</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="N290" s="2">
         <f t="shared" si="7"/>
-        <v>4.4942100324744556E-2</v>
+        <v>4.4933919086542963E-2</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="N291" s="2">
         <f t="shared" si="7"/>
-        <v>4.5332121659206817E-2</v>
+        <v>4.5323858887583029E-2</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="N292" s="2">
         <f t="shared" si="7"/>
-        <v>4.5727336832280363E-2</v>
+        <v>4.5718991381126776E-2</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="N293" s="2">
         <f t="shared" si="7"/>
-        <v>4.6127838032653801E-2</v>
+        <v>4.6119408736887725E-2</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="N294" s="2">
         <f t="shared" si="7"/>
-        <v>4.6533719459046094E-2</v>
+        <v>4.6525205134301188E-2</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="N295" s="2">
         <f t="shared" si="7"/>
-        <v>4.6945077371178714E-2</v>
+        <v>4.6936476813494006E-2</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="N296" s="2">
         <f t="shared" si="7"/>
-        <v>4.7362010142186883E-2</v>
+        <v>4.7353322127693498E-2</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="N297" s="2">
         <f t="shared" si="7"/>
-        <v>4.7784618312516514E-2</v>
+        <v>4.7775841597122358E-2</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="N298" s="2">
         <f t="shared" si="7"/>
-        <v>4.8213004645348737E-2</v>
+        <v>4.820413796442137E-2</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="N299" s="2">
         <f t="shared" si="7"/>
-        <v>4.8647274183599938E-2</v>
+        <v>4.8638316251647939E-2</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
@@ -13563,7 +13563,7 @@
       </c>
       <c r="N300" s="2">
         <f t="shared" si="7"/>
-        <v>4.9087534308544789E-2</v>
+        <v>4.9078483818897803E-2</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="N301" s="2">
         <f t="shared" si="7"/>
-        <v>4.9533894800110723E-2</v>
+        <v>4.9524750424598606E-2</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
@@ -13647,7 +13647,7 @@
       </c>
       <c r="N302" s="2">
         <f t="shared" si="7"/>
-        <v>4.9986467898894764E-2</v>
+        <v>4.9977228287526106E-2</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
@@ -13689,7 +13689,7 @@
       </c>
       <c r="N303" s="2">
         <f t="shared" si="7"/>
-        <v>5.0445368369954662E-2</v>
+        <v>5.043603215059507E-2</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="N304" s="2">
         <f t="shared" si="7"/>
-        <v>5.0910713568428176E-2</v>
+        <v>5.0901279346478735E-2</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
@@ -13773,7 +13773,7 @@
       </c>
       <c r="N305" s="2">
         <f t="shared" si="7"/>
-        <v>5.1382623507035347E-2</v>
+        <v>5.1373089865111646E-2</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
@@ -13815,7 +13815,7 @@
       </c>
       <c r="N306" s="2">
         <f t="shared" si="7"/>
-        <v>5.1861220925520438E-2</v>
+        <v>5.1851586423132749E-2</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="N307" s="2">
         <f t="shared" si="7"/>
-        <v>5.2346631362093304E-2</v>
+        <v>5.2336894535328284E-2</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
@@ -13899,7 +13899,7 @@
       </c>
       <c r="N308" s="2">
         <f t="shared" si="7"/>
-        <v>5.2838983226928364E-2</v>
+        <v>5.2829142588132899E-2</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="N309" s="2">
         <f t="shared" si="7"/>
-        <v>5.3338407877784252E-2</v>
+        <v>5.3328461915252104E-2</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="N310" s="2">
         <f t="shared" si="7"/>
-        <v>5.384503969780903E-2</v>
+        <v>5.3834986875470815E-2</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="N311" s="2">
         <f t="shared" si="7"/>
-        <v>5.4359016175593557E-2</v>
+        <v>5.4348854932710834E-2</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="N312" s="2">
         <f t="shared" si="7"/>
-        <v>5.4880477987543308E-2</v>
+        <v>5.487020673840752E-2</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="N313" s="2">
         <f t="shared" si="7"/>
-        <v>5.5409569082636445E-2</v>
+        <v>5.5399186216273454E-2</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="N314" s="2">
         <f t="shared" si="7"/>
-        <v>5.5946436769639563E-2</v>
+        <v>5.5935940649520802E-2</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="N315" s="2">
         <f t="shared" si="7"/>
-        <v>5.6491231806854218E-2</v>
+        <v>5.6480620770615171E-2</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
@@ -14235,7 +14235,7 @@
       </c>
       <c r="N316" s="2">
         <f t="shared" si="7"/>
-        <v>5.7044108494470329E-2</v>
+        <v>5.7033380853637621E-2</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
@@ -14277,7 +14277,7 @@
       </c>
       <c r="N317" s="2">
         <f t="shared" si="7"/>
-        <v>5.7605224769601983E-2</v>
+        <v>5.7594378809329883E-2</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="N318" s="2">
         <f t="shared" si="7"/>
-        <v>5.8174742304086369E-2</v>
+        <v>5.8163776282904082E-2</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="N319" s="2">
         <f t="shared" si="7"/>
-        <v>5.8752826605125784E-2</v>
+        <v>5.8741738754696668E-2</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="N320" s="2">
         <f t="shared" si="7"/>
-        <v>5.9339647118857912E-2</v>
+        <v>5.9328435643752064E-2</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
@@ -14445,7 +14445,7 @@
       </c>
       <c r="N321" s="2">
         <f t="shared" si="7"/>
-        <v>5.9935377336937837E-2</v>
+        <v>5.9924040414419184E-2</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
@@ -14487,7 +14487,7 @@
       </c>
       <c r="N322" s="2">
         <f t="shared" si="7"/>
-        <v>6.0540194906220229E-2</v>
+        <v>6.0528730686050178E-2</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="N323" s="2">
         <f t="shared" si="7"/>
-        <v>6.1154281741632364E-2</v>
+        <v>6.1142688345891164E-2</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="N324" s="2">
         <f t="shared" si="7"/>
-        <v>6.1777824142327874E-2</v>
+        <v>6.1766099665255675E-2</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="N325" s="2">
         <f t="shared" si="7"/>
-        <v>6.2411012911216382E-2</v>
+        <v>6.2399155419075959E-2</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="N326" s="2">
         <f t="shared" si="7"/>
-        <v>6.3054043477965893E-2</v>
+        <v>6.3042051008928832E-2</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="N327" s="2">
         <f t="shared" si="7"/>
-        <v>6.3707116025573884E-2</v>
+        <v>6.3694986589632491E-2</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
@@ -14739,7 +14739,7 @@
       </c>
       <c r="N328" s="2">
         <f t="shared" ref="N328:N391" si="8">(B328*B$5+C328*C$5+D328*D$5+E328*E$5+F328*F$5+G328*G$5+H328*H$5+I328*I$5+J328*J$5+K328*K$5+L328*L$5)/SUM(B$5:L$5)</f>
-        <v>6.4370435620609484E-2</v>
+        <v>6.4358167199516855E-2</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="N329" s="2">
         <f t="shared" si="8"/>
-        <v>6.504421234722664E-2</v>
+        <v>6.5031802894467153E-2</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="N330" s="2">
         <f t="shared" si="8"/>
-        <v>6.5728661445056402E-2</v>
+        <v>6.5716108885849445E-2</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
@@ -14865,7 +14865,7 @@
       </c>
       <c r="N331" s="2">
         <f t="shared" si="8"/>
-        <v>6.6424003451079683E-2</v>
+        <v>6.6411305682419236E-2</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="N332" s="2">
         <f t="shared" si="8"/>
-        <v>6.7130464345592306E-2</v>
+        <v>6.7117619236325615E-2</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="N333" s="2">
         <f t="shared" si="8"/>
-        <v>6.78482757023703E-2</v>
+        <v>6.7835281093318656E-2</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="N334" s="2">
         <f t="shared" si="8"/>
-        <v>6.8577674843147668E-2</v>
+        <v>6.8564528547272852E-2</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="N335" s="2">
         <f t="shared" si="8"/>
-        <v>6.9318904996518951E-2</v>
+        <v>6.9305604799139012E-2</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="N336" s="2">
         <f t="shared" si="8"/>
-        <v>7.0072215461382759E-2</v>
+        <v>7.0058759120440892E-2</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="N337" s="2">
         <f t="shared" si="8"/>
-        <v>7.0837861775039868E-2</v>
+        <v>7.0824247021430711E-2</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
@@ -15159,7 +15159,7 @@
       </c>
       <c r="N338" s="2">
         <f t="shared" si="8"/>
-        <v>7.1616105886064679E-2</v>
+        <v>7.160233042402242E-2</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
@@ -15201,7 +15201,7 @@
       </c>
       <c r="N339" s="2">
         <f t="shared" si="8"/>
-        <v>7.2407216332065899E-2</v>
+        <v>7.2393277839618797E-2</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="N340" s="2">
         <f t="shared" si="8"/>
-        <v>7.3211468422458126E-2</v>
+        <v>7.3197364551954844E-2</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="N341" s="2">
         <f t="shared" si="8"/>
-        <v>7.4029144426359411E-2</v>
+        <v>7.4014872805072088E-2</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
@@ -15327,7 +15327,7 @@
       </c>
       <c r="N342" s="2">
         <f t="shared" si="8"/>
-        <v>7.4860533765736287E-2</v>
+        <v>7.4846091996546391E-2</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="N343" s="2">
         <f t="shared" si="8"/>
-        <v>7.5705933213915041E-2</v>
+        <v>7.5691318876088112E-2</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="N344" s="2">
         <f t="shared" si="8"/>
-        <v>7.6565647099576598E-2</v>
+        <v>7.6550857749632106E-2</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="N345" s="2">
         <f t="shared" si="8"/>
-        <v>7.743998751635206E-2</v>
+        <v>7.7425020689035673E-2</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
@@ -15495,7 +15495,7 @@
       </c>
       <c r="N346" s="2">
         <f t="shared" si="8"/>
-        <v>7.8329274538138052E-2</v>
+        <v>7.8314127747503348E-2</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="N347" s="2">
         <f t="shared" si="8"/>
-        <v>7.9233836440240735E-2</v>
+        <v>7.9218507180848399E-2</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
@@ -15579,7 +15579,7 @@
       </c>
       <c r="N348" s="2">
         <f t="shared" si="8"/>
-        <v>8.0154009926464223E-2</v>
+        <v>8.0138495674707003E-2</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="N349" s="2">
         <f t="shared" si="8"/>
-        <v>8.1090140362250707E-2</v>
+        <v>8.1074438577813018E-2</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="N350" s="2">
         <f t="shared" si="8"/>
-        <v>8.2042582013976253E-2</v>
+        <v>8.2026690141437847E-2</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
@@ -15705,7 +15705,7 @@
       </c>
       <c r="N351" s="2">
         <f t="shared" si="8"/>
-        <v>8.3011698294503472E-2</v>
+        <v>8.2995613765097148E-2</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="N352" s="2">
         <f t="shared" si="8"/>
-        <v>8.3997862015085079E-2</v>
+        <v>8.3981582248619152E-2</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
@@ -15789,7 +15789,7 @@
       </c>
       <c r="N353" s="2">
         <f t="shared" si="8"/>
-        <v>8.5001455643708104E-2</v>
+        <v>8.498497805066503E-2</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="N354" s="2">
         <f t="shared" si="8"/>
-        <v>8.602287156995933E-2</v>
+        <v>8.6006193553782362E-2</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="N355" s="2">
         <f t="shared" si="8"/>
-        <v>8.7062512376483922E-2</v>
+        <v>8.7045631336064536E-2</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
@@ -15915,7 +15915,7 @@
       </c>
       <c r="N356" s="2">
         <f t="shared" si="8"/>
-        <v>8.8120791117104247E-2</v>
+        <v>8.8103704449484246E-2</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="N357" s="2">
         <f t="shared" si="8"/>
-        <v>8.9198131601646968E-2</v>
+        <v>8.9180836704949071E-2</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
@@ -15999,7 +15999,7 @@
       </c>
       <c r="N358" s="2">
         <f t="shared" si="8"/>
-        <v>9.0294968687520696E-2</v>
+        <v>9.027746296412352E-2</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="N359" s="2">
         <f t="shared" si="8"/>
-        <v>9.1411748578071939E-2</v>
+        <v>9.1394029438045088E-2</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="N360" s="2">
         <f t="shared" si="8"/>
-        <v>9.2548929127726776E-2</v>
+        <v>9.2530993992543373E-2</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
@@ -16125,7 +16125,7 @@
       </c>
       <c r="N361" s="2">
         <f t="shared" si="8"/>
-        <v>9.3706980153913169E-2</v>
+        <v>9.3688826460458077E-2</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
@@ -16167,7 +16167,7 @@
       </c>
       <c r="N362" s="2">
         <f t="shared" si="8"/>
-        <v>9.488638375573645E-2</v>
+        <v>9.4868008960629358E-2</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
@@ -16209,7 +16209,7 @@
       </c>
       <c r="N363" s="2">
         <f t="shared" si="8"/>
-        <v>9.6087634639360042E-2</v>
+        <v>9.6069036223613902E-2</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
@@ -16251,7 +16251,7 @@
       </c>
       <c r="N364" s="2">
         <f t="shared" si="8"/>
-        <v>9.7311240450016392E-2</v>
+        <v>9.72924159240528E-2</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
@@ -16293,7 +16293,7 @@
       </c>
       <c r="N365" s="2">
         <f t="shared" si="8"/>
-        <v>9.8557722110551207E-2</v>
+        <v>9.8538669019595571E-2</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="N366" s="2">
         <f t="shared" si="8"/>
-        <v>9.982761416636797E-2</v>
+        <v>9.9808330096248621E-2</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.2">
@@ -16377,7 +16377,7 @@
       </c>
       <c r="N367" s="2">
         <f t="shared" si="8"/>
-        <v>0.10112146513660873</v>
+        <v>0.10110194771998565</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.2">
@@ -16419,7 +16419,7 @@
       </c>
       <c r="N368" s="2">
         <f t="shared" si="8"/>
-        <v>0.10243983787137331</v>
+        <v>0.10242008479442344</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.2">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="N369" s="2">
         <f t="shared" si="8"/>
-        <v>0.10378330991473535</v>
+        <v>0.10376331892432282</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.2">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="N370" s="2">
         <f t="shared" si="8"/>
-        <v>0.10515247387327149</v>
+        <v>0.10513224278463325</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.2">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="N371" s="2">
         <f t="shared" si="8"/>
-        <v>0.10654793778976308</v>
+        <v>0.10652746449474122</v>
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.2">
@@ -16587,7 +16587,7 @@
       </c>
       <c r="N372" s="2">
         <f t="shared" si="8"/>
-        <v>0.10797032552169135</v>
+        <v>0.10794960799754599</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.2">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="N373" s="2">
         <f t="shared" si="8"/>
-        <v>0.10942027712407468</v>
+        <v>0.10939931344291241</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.2">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="N374" s="2">
         <f t="shared" si="8"/>
-        <v>0.11089844923613089</v>
+        <v>0.11087723757498594</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.2">
@@ -16713,7 +16713,7 @@
       </c>
       <c r="N375" s="2">
         <f t="shared" si="8"/>
-        <v>0.11240551547119647</v>
+        <v>0.11238405412280342</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.2">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="N376" s="2">
         <f t="shared" si="8"/>
-        <v>0.11394216680922468</v>
+        <v>0.11392045419352412</v>
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.2">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="N377" s="2">
         <f t="shared" si="8"/>
-        <v>0.11550911199113273</v>
+        <v>0.11548714666755239</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.2">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="N378" s="2">
         <f t="shared" si="8"/>
-        <v>0.11710707791415151</v>
+        <v>0.11708485859470825</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.2">
@@ -16881,7 +16881,7 @@
       </c>
       <c r="N379" s="2">
         <f t="shared" si="8"/>
-        <v>0.11873681002724955</v>
+        <v>0.11871433559051933</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
@@ -16923,7 +16923,7 @@
       </c>
       <c r="N380" s="2">
         <f t="shared" si="8"/>
-        <v>0.12039907272557417</v>
+        <v>0.12037634223157946</v>
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="N381" s="2">
         <f t="shared" si="8"/>
-        <v>0.12209464974275337</v>
+        <v>0.1220716624488196</v>
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.2">
@@ -17007,7 +17007,7 @@
       </c>
       <c r="N382" s="2">
         <f t="shared" si="8"/>
-        <v>0.12382434453975233</v>
+        <v>0.12380109991738723</v>
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
@@ -17049,7 +17049,7 @@
       </c>
       <c r="N383" s="2">
         <f t="shared" si="8"/>
-        <v>0.12558898068886207</v>
+        <v>0.12556547844171428</v>
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.2">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="N384" s="2">
         <f t="shared" si="8"/>
-        <v>0.12738940225121612</v>
+        <v>0.12736564233417094</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="N385" s="2">
         <f t="shared" si="8"/>
-        <v>0.12922647414608771</v>
+        <v>0.12920245678556128</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
@@ -17175,7 +17175,7 @@
       </c>
       <c r="N386" s="2">
         <f t="shared" si="8"/>
-        <v>0.1311010825100383</v>
+        <v>0.13107680822553228</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="N387" s="2">
         <f t="shared" si="8"/>
-        <v>0.1330141350437736</v>
+        <v>0.13298960467075618</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="N388" s="2">
         <f t="shared" si="8"/>
-        <v>0.1349665613443834</v>
+        <v>0.13494177605856286</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="N389" s="2">
         <f t="shared" si="8"/>
-        <v>0.13695931322039168</v>
+        <v>0.13693427456345178</v>
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
@@ -17343,7 +17343,7 @@
       </c>
       <c r="N390" s="2">
         <f t="shared" si="8"/>
-        <v>0.13899336498680512</v>
+        <v>0.13896807489367322</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.2">
@@ -17385,7 +17385,7 @@
       </c>
       <c r="N391" s="2">
         <f t="shared" si="8"/>
-        <v>0.1410697137370906</v>
+        <v>0.14104417456481044</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.2">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="N392" s="2">
         <f t="shared" ref="N392:N455" si="9">(B392*B$5+C392*C$5+D392*D$5+E392*E$5+F392*F$5+G392*G$5+H392*H$5+I392*I$5+J392*J$5+K392*K$5+L392*L$5)/SUM(B$5:L$5)</f>
-        <v>0.14318937958871542</v>
+        <v>0.14316359414699853</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.2">
@@ -17469,7 +17469,7 @@
       </c>
       <c r="N393" s="2">
         <f t="shared" si="9"/>
-        <v>0.14535340589858681</v>
+        <v>0.14532737748211716</v>
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="N394" s="2">
         <f t="shared" si="9"/>
-        <v>0.14756285944439679</v>
+        <v>0.14753659186696388</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
@@ -17553,7 +17553,7 @@
       </c>
       <c r="N395" s="2">
         <f t="shared" si="9"/>
-        <v>0.14981883056752252</v>
+        <v>0.14979232819805899</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="N396" s="2">
         <f t="shared" si="9"/>
-        <v>0.15212243327274749</v>
+        <v>0.15209570107334638</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
@@ -17637,7 +17637,7 @@
       </c>
       <c r="N397" s="2">
         <f t="shared" si="9"/>
-        <v>0.15447480527968227</v>
+        <v>0.15444784884566903</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="N398" s="2">
         <f t="shared" si="9"/>
-        <v>0.15687710802030366</v>
+        <v>0.1568499336224356</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
@@ -17721,7 +17721,7 @@
       </c>
       <c r="N399" s="2">
         <f t="shared" si="9"/>
-        <v>0.15933052657658395</v>
+        <v>0.15930314120544856</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="N400" s="2">
         <f t="shared" si="9"/>
-        <v>0.16183626955168678</v>
+        <v>0.16180868096436676</v>
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.2">
@@ -17805,7 +17805,7 @@
       </c>
       <c r="N401" s="2">
         <f t="shared" si="9"/>
-        <v>0.16439556886766307</v>
+        <v>0.16436778563673143</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.2">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="N402" s="2">
         <f t="shared" si="9"/>
-        <v>0.16700967948204667</v>
+        <v>0.16698171104695073</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.2">
@@ -17889,7 +17889,7 @@
       </c>
       <c r="N403" s="2">
         <f t="shared" si="9"/>
-        <v>0.16967987901512885</v>
+        <v>0.16965173573601425</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.2">
@@ -17931,7 +17931,7 @@
       </c>
       <c r="N404" s="2">
         <f t="shared" si="9"/>
-        <v>0.17240746727907422</v>
+        <v>0.17237916049309301</v>
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.2">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="N405" s="2">
         <f t="shared" si="9"/>
-        <v>0.17519376569938311</v>
+        <v>0.17516530777951911</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.2">
@@ -18015,7 +18015,7 @@
       </c>
       <c r="N406" s="2">
         <f t="shared" si="9"/>
-        <v>0.1780401166184806</v>
+        <v>0.17801152103491374</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.2">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="N407" s="2">
         <f t="shared" si="9"/>
-        <v>0.18094788247049828</v>
+        <v>0.18091916385451642</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.2">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="N408" s="2">
         <f t="shared" si="9"/>
-        <v>0.18391844481553532</v>
+        <v>0.1838896190259838</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.2">
@@ -18141,7 +18141,7 @@
       </c>
       <c r="N409" s="2">
         <f t="shared" si="9"/>
-        <v>0.18695320322087169</v>
+        <v>0.18692428741311418</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="N410" s="2">
         <f t="shared" si="9"/>
-        <v>0.19005357397576339</v>
+        <v>0.19002458667310354</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.2">
@@ -18225,7 +18225,7 @@
       </c>
       <c r="N411" s="2">
         <f t="shared" si="9"/>
-        <v>0.19322098862559889</v>
+        <v>0.19319194979308818</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.2">
@@ -18267,7 +18267,7 @@
       </c>
       <c r="N412" s="2">
         <f t="shared" si="9"/>
-        <v>0.19645689231026187</v>
+        <v>0.1964278234307896</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.2">
@@ -18309,7 +18309,7 @@
       </c>
       <c r="N413" s="2">
         <f t="shared" si="9"/>
-        <v>0.19976274189064044</v>
+        <v>0.19973366604316894</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.2">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="N414" s="2">
         <f t="shared" si="9"/>
-        <v>0.20314000384628189</v>
+        <v>0.20311094578605274</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.2">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="N415" s="2">
         <f t="shared" si="9"/>
-        <v>0.20659015192620167</v>
+        <v>0.20656113816669636</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.2">
@@ -18435,7 +18435,7 @@
       </c>
       <c r="N416" s="2">
         <f t="shared" si="9"/>
-        <v>0.21011466453392405</v>
+        <v>0.21008572343031559</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.2">
@@ -18477,7 +18477,7 @@
       </c>
       <c r="N417" s="2">
         <f t="shared" si="9"/>
-        <v>0.21371502182683497</v>
+        <v>0.21368618366061393</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.2">
@@ -18519,7 +18519,7 @@
       </c>
       <c r="N418" s="2">
         <f t="shared" si="9"/>
-        <v>0.21739270250900522</v>
+        <v>0.21736399957340385</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.2">
@@ -18561,7 +18561,7 @@
       </c>
       <c r="N419" s="2">
         <f t="shared" si="9"/>
-        <v>0.22114918029567349</v>
+        <v>0.22112064698144757</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.2">
@@ -18603,7 +18603,7 @@
       </c>
       <c r="N420" s="2">
         <f t="shared" si="9"/>
-        <v>0.22498592002673976</v>
+        <v>0.2249575929077941</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.2">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="N421" s="2">
         <f t="shared" si="9"/>
-        <v>0.22890437340575021</v>
+        <v>0.22887629132401377</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
@@ -18687,7 +18687,7 @@
       </c>
       <c r="N422" s="2">
         <f t="shared" si="9"/>
-        <v>0.23290597434012672</v>
+        <v>0.23287817848899703</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
@@ -18729,7 +18729,7 @@
       </c>
       <c r="N423" s="2">
         <f t="shared" si="9"/>
-        <v>0.23699213385773049</v>
+        <v>0.23696466786330986</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.2">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="N424" s="2">
         <f t="shared" si="9"/>
-        <v>0.24116423457435585</v>
+        <v>0.24113714457359772</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.2">
@@ -18813,7 +18813,7 @@
       </c>
       <c r="N425" s="2">
         <f t="shared" si="9"/>
-        <v>0.24542362468634893</v>
+        <v>0.24539695940112127</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.2">
@@ -18855,7 +18855,7 @@
       </c>
       <c r="N426" s="2">
         <f t="shared" si="9"/>
-        <v>0.24977161146242449</v>
+        <v>0.24974542226837262</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.2">
@@ -18897,7 +18897,7 @@
       </c>
       <c r="N427" s="2">
         <f t="shared" si="9"/>
-        <v>0.25420945420879165</v>
+        <v>0.25418379519775547</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.2">
@@ -18939,7 +18939,7 @@
       </c>
       <c r="N428" s="2">
         <f t="shared" si="9"/>
-        <v>0.25873835668207668</v>
+        <v>0.25871328471667482</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.2">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="N429" s="2">
         <f t="shared" si="9"/>
-        <v>0.2633594589251752</v>
+        <v>0.26333503368402261</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.2">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="N430" s="2">
         <f t="shared" si="9"/>
-        <v>0.26807382850225869</v>
+        <v>0.26805011251412814</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.2">
@@ -19065,7 +19065,7 @@
       </c>
       <c r="N431" s="2">
         <f t="shared" si="9"/>
-        <v>0.27288245111064086</v>
+        <v>0.2728595097757146</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.2">
@@ -19107,7 +19107,7 @@
       </c>
       <c r="N432" s="2">
         <f t="shared" si="9"/>
-        <v>0.27778622054923319</v>
+        <v>0.2777641221454244</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.2">
@@ -19149,7 +19149,7 @@
       </c>
       <c r="N433" s="2">
         <f t="shared" si="9"/>
-        <v>0.28278592802589819</v>
+        <v>0.28276474369804516</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.2">
@@ -19191,7 +19191,7 @@
       </c>
       <c r="N434" s="2">
         <f t="shared" si="9"/>
-        <v>0.28788225078927621</v>
+        <v>0.28786205451883867</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.2">
@@ -19233,7 +19233,7 @@
       </c>
       <c r="N435" s="2">
         <f t="shared" si="9"/>
-        <v>0.29307574007461823</v>
+        <v>0.29305660862732669</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.2">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="N436" s="2">
         <f t="shared" si="9"/>
-        <v>0.29836680835799345</v>
+        <v>0.29834882120672851</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.2">
@@ -19317,7 +19317,7 @@
       </c>
       <c r="N437" s="2">
         <f t="shared" si="9"/>
-        <v>0.30375571591894163</v>
+        <v>0.30373895513895249</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="N438" s="2">
         <f t="shared" si="9"/>
-        <v>0.30924255671838402</v>
+        <v>0.30922710685179505</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
@@ -19401,7 +19401,7 @@
       </c>
       <c r="N439" s="2">
         <f t="shared" si="9"/>
-        <v>0.31482724360640468</v>
+        <v>0.31481319149281745</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
@@ -19443,7 +19443,7 @@
       </c>
       <c r="N440" s="2">
         <f t="shared" si="9"/>
-        <v>0.32050949288354336</v>
+        <v>0.32049692745341579</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
@@ -19485,7 +19485,7 @@
       </c>
       <c r="N441" s="2">
         <f t="shared" si="9"/>
-        <v>0.32628880824951584</v>
+        <v>0.32627782027690555</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
@@ -19527,7 +19527,7 @@
       </c>
       <c r="N442" s="2">
         <f t="shared" si="9"/>
-        <v>0.33216446418490797</v>
+        <v>0.33215514599610119</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
@@ -19569,7 +19569,7 @@
       </c>
       <c r="N443" s="2">
         <f t="shared" si="9"/>
-        <v>0.33813548882444056</v>
+        <v>0.33812793395896923</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
@@ -19611,7 +19611,7 @@
       </c>
       <c r="N444" s="2">
         <f t="shared" si="9"/>
-        <v>0.34420064639494646</v>
+        <v>0.34419494921552379</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="N445" s="2">
         <f t="shared" si="9"/>
-        <v>0.35035841930719058</v>
+        <v>0.35035467455518443</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
@@ -19695,7 +19695,7 @@
       </c>
       <c r="N446" s="2">
         <f t="shared" si="9"/>
-        <v>0.35660699000821522</v>
+        <v>0.35660529230144045</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
@@ -19737,7 +19737,7 @@
       </c>
       <c r="N447" s="2">
         <f t="shared" si="9"/>
-        <v>0.36294422271990567</v>
+        <v>0.36294466598975378</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
@@ -19779,7 +19779,7 @@
       </c>
       <c r="N448" s="2">
         <f t="shared" si="9"/>
-        <v>0.36936764520980758</v>
+        <v>0.36937032207506804</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
@@ -19821,7 +19821,7 @@
       </c>
       <c r="N449" s="2">
         <f t="shared" si="9"/>
-        <v>0.37587443076195287</v>
+        <v>0.37587943183711509</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.2">
@@ -19863,7 +19863,7 @@
       </c>
       <c r="N450" s="2">
         <f t="shared" si="9"/>
-        <v>0.382461380538139</v>
+        <v>0.3824687936745147</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
@@ -19905,7 +19905,7 @@
       </c>
       <c r="N451" s="2">
         <f t="shared" si="9"/>
-        <v>0.38912490654369586</v>
+        <v>0.38913481600237593</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.2">
@@ -19947,7 +19947,7 @@
       </c>
       <c r="N452" s="2">
         <f t="shared" si="9"/>
-        <v>0.39586101543581842</v>
+        <v>0.39587350099229002</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.2">
@@ -19989,7 +19989,7 @@
       </c>
       <c r="N453" s="2">
         <f t="shared" si="9"/>
-        <v>0.40266529343663765</v>
+        <v>0.40268042941783333</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.2">
@@ -20031,7 +20031,7 @@
       </c>
       <c r="N454" s="2">
         <f t="shared" si="9"/>
-        <v>0.40953289263689918</v>
+        <v>0.4095507468925525</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
@@ -20073,7 +20073,7 @@
       </c>
       <c r="N455" s="2">
         <f t="shared" si="9"/>
-        <v>0.41645851899863884</v>
+        <v>0.41647915181006234</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.2">
@@ -20115,7 +20115,7 @@
       </c>
       <c r="N456" s="2">
         <f t="shared" ref="N456:N519" si="10">(B456*B$5+C456*C$5+D456*D$5+E456*E$5+F456*F$5+G456*G$5+H456*H$5+I456*I$5+J456*J$5+K456*K$5+L456*L$5)/SUM(B$5:L$5)</f>
-        <v>0.42343642238607898</v>
+        <v>0.42345988531687623</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.2">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="N457" s="2">
         <f t="shared" si="10"/>
-        <v>0.43046038897207611</v>
+        <v>0.4304867236668351</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.2">
@@ -20199,7 +20199,7 @@
       </c>
       <c r="N458" s="2">
         <f t="shared" si="10"/>
-        <v>0.43752373638203679</v>
+        <v>0.43755297332071369</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
@@ -20241,7 +20241,7 @@
       </c>
       <c r="N459" s="2">
         <f t="shared" si="10"/>
-        <v>0.44461931194721527</v>
+        <v>0.444651469164697</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.2">
@@ -20283,7 +20283,7 @@
       </c>
       <c r="N460" s="2">
         <f t="shared" si="10"/>
-        <v>0.45173949444363765</v>
+        <v>0.45177457622583034</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
@@ -20325,7 +20325,7 @@
       </c>
       <c r="N461" s="2">
         <f t="shared" si="10"/>
-        <v>0.45887619969037863</v>
+        <v>0.45891419526009092</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.2">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="N462" s="2">
         <f t="shared" si="10"/>
-        <v>0.46602089037047639</v>
+        <v>0.46606177257829307</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.2">
@@ -20409,7 +20409,7 @@
       </c>
       <c r="N463" s="2">
         <f t="shared" si="10"/>
-        <v>0.47316459041822745</v>
+        <v>0.47320831445546885</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
@@ -20451,7 +20451,7 @@
       </c>
       <c r="N464" s="2">
         <f t="shared" si="10"/>
-        <v>0.48029790428689023</v>
+        <v>0.48034440643955717</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
@@ -20493,7 +20493,7 @@
       </c>
       <c r="N465" s="2">
         <f t="shared" si="10"/>
-        <v>0.48741104137018332</v>
+        <v>0.48746023783443715</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
@@ -20535,7 +20535,7 @@
       </c>
       <c r="N466" s="2">
         <f t="shared" si="10"/>
-        <v>0.49449384579850442</v>
+        <v>0.4945456315796628</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
@@ -20577,7 +20577,7 @@
       </c>
       <c r="N467" s="2">
         <f t="shared" si="10"/>
-        <v>0.50153583176635652</v>
+        <v>0.50159007968451008</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="N468" s="2">
         <f t="shared" si="10"/>
-        <v>0.50852622447075824</v>
+        <v>0.50858278429687254</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
@@ -20661,7 +20661,7 @@
       </c>
       <c r="N469" s="2">
         <f t="shared" si="10"/>
-        <v>0.51545400665210861</v>
+        <v>0.5155127043987785</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
@@ -20703,7 +20703,7 @@
       </c>
       <c r="N470" s="2">
         <f t="shared" si="10"/>
-        <v>0.5223079706297471</v>
+        <v>0.52236860802055951</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
@@ -20745,7 +20745,7 @@
       </c>
       <c r="N471" s="2">
         <f t="shared" si="10"/>
-        <v>0.52907677561587974</v>
+        <v>0.52913912975653699</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="N472" s="2">
         <f t="shared" si="10"/>
-        <v>0.53574900997564712</v>
+        <v>0.53581283324857376</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="N473" s="2">
         <f t="shared" si="10"/>
-        <v>0.54231325798050756</v>
+        <v>0.5423782781825538</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
@@ -20871,7 +20871,7 @@
       </c>
       <c r="N474" s="2">
         <f t="shared" si="10"/>
-        <v>0.54875817047992492</v>
+        <v>0.54882409121999021</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
@@ -20913,7 +20913,7 @@
       </c>
       <c r="N475" s="2">
         <f t="shared" si="10"/>
-        <v>0.55507253879643692</v>
+        <v>0.55513904016636773</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
@@ -20955,7 +20955,7 @@
       </c>
       <c r="N476" s="2">
         <f t="shared" si="10"/>
-        <v>0.56124537103533167</v>
+        <v>0.56131211056333197</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
@@ -20997,7 +20997,7 @@
       </c>
       <c r="N477" s="2">
         <f t="shared" si="10"/>
-        <v>0.56726596989695688</v>
+        <v>0.5673325837880614</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
@@ -21039,7 +21039,7 @@
       </c>
       <c r="N478" s="2">
         <f t="shared" si="10"/>
-        <v>0.57312401099119692</v>
+        <v>0.57319011565417211</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
@@ -21081,7 +21081,7 @@
       </c>
       <c r="N479" s="2">
         <f t="shared" si="10"/>
-        <v>0.57880962058431018</v>
+        <v>0.57887481443880495</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
@@ -21123,7 +21123,7 @@
       </c>
       <c r="N480" s="2">
         <f t="shared" si="10"/>
-        <v>0.58431345166176074</v>
+        <v>0.58437731721375341</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="N481" s="2">
         <f t="shared" si="10"/>
-        <v>0.58962675717012436</v>
+        <v>0.5896888633378885</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="N482" s="2">
         <f t="shared" si="10"/>
-        <v>0.59474145930898159</v>
+        <v>0.59480136397608541</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
@@ -21249,7 +21249,7 @@
       </c>
       <c r="N483" s="2">
         <f t="shared" si="10"/>
-        <v>0.59965021378115524</v>
+        <v>0.5997074665476152</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
@@ -21291,7 +21291,7 @@
       </c>
       <c r="N484" s="2">
         <f t="shared" si="10"/>
-        <v>0.6043464679769559</v>
+        <v>0.60440061307476578</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
@@ -21333,7 +21333,7 @@
       </c>
       <c r="N485" s="2">
         <f t="shared" si="10"/>
-        <v>0.60882451216401767</v>
+        <v>0.60887509149904551</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
@@ -21375,7 +21375,7 @@
       </c>
       <c r="N486" s="2">
         <f t="shared" si="10"/>
-        <v>0.61307952287666811</v>
+        <v>0.6131260791555172</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="N487" s="2">
         <f t="shared" si="10"/>
-        <v>0.61710759784386937</v>
+        <v>0.61714967774185536</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
@@ -21459,7 +21459,7 @@
       </c>
       <c r="N488" s="2">
         <f t="shared" si="10"/>
-        <v>0.62090578195820001</v>
+        <v>0.62094293928320998</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="N489" s="2">
         <f t="shared" si="10"/>
-        <v>0.62447208396464926</v>
+        <v>0.6245038827713717</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
@@ -21543,7 +21543,7 @@
       </c>
       <c r="N490" s="2">
         <f t="shared" si="10"/>
-        <v>0.62780548373132694</v>
+        <v>0.6278315013411877</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
@@ -21585,7 +21585,7 @@
       </c>
       <c r="N491" s="2">
         <f t="shared" si="10"/>
-        <v>0.63090593014841001</v>
+        <v>0.63092576003248979</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
@@ -21627,7 +21627,7 @@
       </c>
       <c r="N492" s="2">
         <f t="shared" si="10"/>
-        <v>0.63377432988066906</v>
+        <v>0.63378758436584304</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
@@ -21669,7 +21669,7 @@
       </c>
       <c r="N493" s="2">
         <f t="shared" si="10"/>
-        <v>0.63641252736713094</v>
+        <v>0.63641884012955419</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
@@ -21711,7 +21711,7 @@
       </c>
       <c r="N494" s="2">
         <f t="shared" si="10"/>
-        <v>0.6388232766136881</v>
+        <v>0.63882230492840608</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
@@ -21753,7 +21753,7 @@
       </c>
       <c r="N495" s="2">
         <f t="shared" si="10"/>
-        <v>0.64101020545679521</v>
+        <v>0.64100163217753192</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
@@ -21795,7 +21795,7 @@
       </c>
       <c r="N496" s="2">
         <f t="shared" si="10"/>
-        <v>0.64297777308544513</v>
+        <v>0.64296130833432097</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
@@ -21837,7 +21837,7 @@
       </c>
       <c r="N497" s="2">
         <f t="shared" si="10"/>
-        <v>0.64473122169252828</v>
+        <v>0.64470660424541393</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="N498" s="2">
         <f t="shared" si="10"/>
-        <v>0.64627652318446838</v>
+        <v>0.64624352154368714</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
@@ -21921,7 +21921,7 @@
       </c>
       <c r="N499" s="2">
         <f t="shared" si="10"/>
-        <v>0.64762032190987018</v>
+        <v>0.64757873506185859</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
@@ -21963,7 +21963,7 @@
       </c>
       <c r="N500" s="2">
         <f t="shared" si="10"/>
-        <v>0.64876987437496381</v>
+        <v>0.64871953223611789</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
@@ -22005,7 +22005,7 @@
       </c>
       <c r="N501" s="2">
         <f t="shared" si="10"/>
-        <v>0.64973298689779624</v>
+        <v>0.64967375045693476</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
@@ -22047,7 +22047,7 @@
       </c>
       <c r="N502" s="2">
         <f t="shared" si="10"/>
-        <v>0.65051795211703634</v>
+        <v>0.65044971328759515</v>
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.2">
@@ -22089,7 +22089,7 @@
       </c>
       <c r="N503" s="2">
         <f t="shared" si="10"/>
-        <v>0.65113348521795278</v>
+        <v>0.65105616641708053</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.2">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="N504" s="2">
         <f t="shared" si="10"/>
-        <v>0.65158866067085308</v>
+        <v>0.65150221414598142</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.2">
@@ -22173,7 +22173,7 @@
       </c>
       <c r="N505" s="2">
         <f t="shared" si="10"/>
-        <v>0.65189285019951249</v>
+        <v>0.65179725712566328</v>
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.2">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="N506" s="2">
         <f t="shared" si="10"/>
-        <v>0.65205566261214942</v>
+        <v>0.65195093198523046</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.2">
@@ -22257,7 +22257,7 @@
       </c>
       <c r="N507" s="2">
         <f t="shared" si="10"/>
-        <v>0.65208688603840703</v>
+        <v>0.65197305339105227</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
@@ -22299,7 +22299,7 @@
       </c>
       <c r="N508" s="2">
         <f t="shared" si="10"/>
-        <v>0.65199643302553412</v>
+        <v>0.65187355899269428</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.2">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="N509" s="2">
         <f t="shared" si="10"/>
-        <v>0.65179428885786239</v>
+        <v>0.65166245761940855</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
@@ -22383,7 +22383,7 @@
       </c>
       <c r="N510" s="2">
         <f t="shared" si="10"/>
-        <v>0.6514904633779347</v>
+        <v>0.65134978100505936</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.2">
@@ -22425,7 +22425,7 @@
       </c>
       <c r="N511" s="2">
         <f t="shared" si="10"/>
-        <v>0.65109494650683863</v>
+        <v>0.65094553923810083</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.2">
@@ -22467,7 +22467,7 @@
       </c>
       <c r="N512" s="2">
         <f t="shared" si="10"/>
-        <v>0.65061766758674422</v>
+        <v>0.65045968005828114</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.2">
@@ -22509,7 +22509,7 @@
       </c>
       <c r="N513" s="2">
         <f t="shared" si="10"/>
-        <v>0.65006845860118179</v>
+        <v>0.64990205205397555</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.2">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="N514" s="2">
         <f t="shared" si="10"/>
-        <v>0.64945702126877281</v>
+        <v>0.6492823717539955</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.2">
@@ -22593,7 +22593,7 @@
       </c>
       <c r="N515" s="2">
         <f t="shared" si="10"/>
-        <v>0.64879289795412198</v>
+        <v>0.64861019455555224</v>
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.2">
@@ -22635,7 +22635,7 @@
       </c>
       <c r="N516" s="2">
         <f t="shared" si="10"/>
-        <v>0.64808544629545661</v>
+        <v>0.64789488938583173</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.2">
@@ -22677,7 +22677,7 @@
       </c>
       <c r="N517" s="2">
         <f t="shared" si="10"/>
-        <v>0.64734381741199032</v>
+        <v>0.64714561695799455</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.2">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="N518" s="2">
         <f t="shared" si="10"/>
-        <v>0.64657693752461942</v>
+        <v>0.64637131145305038</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.2">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="N519" s="2">
         <f t="shared" si="10"/>
-        <v>0.64579349280083509</v>
+        <v>0.64558066543639048</v>
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.2">
@@ -22803,7 +22803,7 @@
       </c>
       <c r="N520" s="2">
         <f t="shared" ref="N520:N583" si="11">(B520*B$5+C520*C$5+D520*D$5+E520*E$5+F520*F$5+G520*G$5+H520*H$5+I520*I$5+J520*J$5+K520*K$5+L520*L$5)/SUM(B$5:L$5)</f>
-        <v>0.64500191721808797</v>
+        <v>0.64478211780120764</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.2">
@@ -22845,7 +22845,7 @@
       </c>
       <c r="N521" s="2">
         <f t="shared" si="11"/>
-        <v>0.64421038322864166</v>
+        <v>0.64398384451994084</v>
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.2">
@@ -22887,7 +22887,7 @@
       </c>
       <c r="N522" s="2">
         <f t="shared" si="11"/>
-        <v>0.64342679500251221</v>
+        <v>0.64319375197859441</v>
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.2">
@@ -22929,7 +22929,7 @@
       </c>
       <c r="N523" s="2">
         <f t="shared" si="11"/>
-        <v>0.64265878402278853</v>
+        <v>0.64241947266661914</v>
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.2">
@@ -22971,7 +22971,7 @@
       </c>
       <c r="N524" s="2">
         <f t="shared" si="11"/>
-        <v>0.64191370680880966</v>
+        <v>0.64166836299639485</v>
       </c>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.2">
@@ -23013,7 +23013,7 @@
       </c>
       <c r="N525" s="2">
         <f t="shared" si="11"/>
-        <v>0.64119864454676379</v>
+        <v>0.640947503030601</v>
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.2">
@@ -23055,7 +23055,7 @@
       </c>
       <c r="N526" s="2">
         <f t="shared" si="11"/>
-        <v>0.64052040441368097</v>
+        <v>0.64026369790233573</v>
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.2">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="N527" s="2">
         <f t="shared" si="11"/>
-        <v>0.63988552238908025</v>
+        <v>0.63962348072129471</v>
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.2">
@@ -23139,7 +23139,7 @@
       </c>
       <c r="N528" s="2">
         <f t="shared" si="11"/>
-        <v>0.63930026735814427</v>
+        <v>0.63903311676908026</v>
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.2">
@@ -23181,7 +23181,7 @@
       </c>
       <c r="N529" s="2">
         <f t="shared" si="11"/>
-        <v>0.63877064632096714</v>
+        <v>0.63849860879753739</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.2">
@@ -23223,7 +23223,7 @@
       </c>
       <c r="N530" s="2">
         <f t="shared" si="11"/>
-        <v>0.63830241053368597</v>
+        <v>0.63802570325540298</v>
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.2">
@@ -23265,7 +23265,7 @@
       </c>
       <c r="N531" s="2">
         <f t="shared" si="11"/>
-        <v>0.63790106241893174</v>
+        <v>0.6376198972803091</v>
       </c>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.2">
@@ -23307,7 +23307,7 @@
       </c>
       <c r="N532" s="2">
         <f t="shared" si="11"/>
-        <v>0.63757186309476588</v>
+        <v>0.63728644630501941</v>
       </c>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.2">
@@ -23349,7 +23349,7 @@
       </c>
       <c r="N533" s="2">
         <f t="shared" si="11"/>
-        <v>0.63731984038286804</v>
+        <v>0.6370303721384788</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.2">
@@ -23391,7 +23391,7 @@
       </c>
       <c r="N534" s="2">
         <f t="shared" si="11"/>
-        <v>0.63714979716807296</v>
+        <v>0.63685647139367163</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.2">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="N535" s="2">
         <f t="shared" si="11"/>
-        <v>0.63706631999226049</v>
+        <v>0.63676932414526977</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.2">
@@ -23475,7 +23475,7 @@
       </c>
       <c r="N536" s="2">
         <f t="shared" si="11"/>
-        <v>0.63707378777598755</v>
+        <v>0.63677330271050026</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.2">
@@ -23517,7 +23517,7 @@
       </c>
       <c r="N537" s="2">
         <f t="shared" si="11"/>
-        <v>0.63717638057103909</v>
+        <v>0.6368725804565033</v>
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.2">
@@ -23559,7 +23559,7 @@
       </c>
       <c r="N538" s="2">
         <f t="shared" si="11"/>
-        <v>0.63737808825621334</v>
+        <v>0.63707114054663705</v>
       </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.2">
@@ -23601,7 +23601,7 @@
       </c>
       <c r="N539" s="2">
         <f t="shared" si="11"/>
-        <v>0.63768271909707608</v>
+        <v>0.63737278454663771</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.2">
@@ -23643,7 +23643,7 @@
       </c>
       <c r="N540" s="2">
         <f t="shared" si="11"/>
-        <v>0.63809390809818312</v>
+        <v>0.63778114081934434</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.2">
@@ -23685,7 +23685,7 @@
       </c>
       <c r="N541" s="2">
         <f t="shared" si="11"/>
-        <v>0.63861512508323282</v>
+        <v>0.63829967264367182</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.2">
@@ -23727,7 +23727,7 @@
       </c>
       <c r="N542" s="2">
         <f t="shared" si="11"/>
-        <v>0.63924968244496583</v>
+        <v>0.63893168599989225</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.2">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="N543" s="2">
         <f t="shared" si="11"/>
-        <v>0.6400007425121671</v>
+        <v>0.63968033696883364</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.2">
@@ -23811,7 +23811,7 @@
       </c>
       <c r="N544" s="2">
         <f t="shared" si="11"/>
-        <v>0.64087132448609829</v>
+        <v>0.6405486386975805</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.2">
@@ -23853,7 +23853,7 @@
       </c>
       <c r="N545" s="2">
         <f t="shared" si="11"/>
-        <v>0.64186431090290852</v>
+        <v>0.64153946788847971</v>
       </c>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.2">
@@ -23895,7 +23895,7 @@
       </c>
       <c r="N546" s="2">
         <f t="shared" si="11"/>
-        <v>0.6429824535822416</v>
+        <v>0.64265557077193181</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.2">
@@ -23937,7 +23937,7 @@
       </c>
       <c r="N547" s="2">
         <f t="shared" si="11"/>
-        <v>0.64422837902527952</v>
+        <v>0.64389956852645247</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.2">
@@ -23979,7 +23979,7 @@
       </c>
       <c r="N548" s="2">
         <f t="shared" si="11"/>
-        <v>0.64560459322797215</v>
+        <v>0.64527396211200116</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.2">
@@ -24021,7 +24021,7 @@
       </c>
       <c r="N549" s="2">
         <f t="shared" si="11"/>
-        <v>0.64711348587715833</v>
+        <v>0.64678113648451496</v>
       </c>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.2">
@@ -24063,7 +24063,7 @@
       </c>
       <c r="N550" s="2">
         <f t="shared" si="11"/>
-        <v>0.64875733389877255</v>
+        <v>0.64842336416106339</v>
       </c>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.2">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="N551" s="2">
         <f t="shared" si="11"/>
-        <v>0.6505383043283649</v>
+        <v>0.65020280810606268</v>
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.2">
@@ -24147,7 +24147,7 @@
       </c>
       <c r="N552" s="2">
         <f t="shared" si="11"/>
-        <v>0.65245845647481227</v>
+        <v>0.65212152390962108</v>
       </c>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.2">
@@ -24189,7 +24189,7 @@
       </c>
       <c r="N553" s="2">
         <f t="shared" si="11"/>
-        <v>0.65451974334833773</v>
+        <v>0.65418146122931431</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.2">
@@ -24231,7 +24231,7 @@
       </c>
       <c r="N554" s="2">
         <f t="shared" si="11"/>
-        <v>0.65672401232392219</v>
+        <v>0.65638446446663912</v>
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.2">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="N555" s="2">
         <f t="shared" si="11"/>
-        <v>0.65907300501082855</v>
+        <v>0.65873227264901257</v>
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.2">
@@ -24315,7 +24315,7 @@
       </c>
       <c r="N556" s="2">
         <f t="shared" si="11"/>
-        <v>0.66156835629838351</v>
+        <v>0.66122651848759229</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.2">
@@ -24357,7 +24357,7 @@
       </c>
       <c r="N557" s="2">
         <f t="shared" si="11"/>
-        <v>0.66421159254736184</v>
+        <v>0.66386872658037488</v>
       </c>
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.2">
@@ -24399,7 +24399,7 @@
       </c>
       <c r="N558" s="2">
         <f t="shared" si="11"/>
-        <v>0.6670041288953874</v>
+        <v>0.66666031072908016</v>
       </c>
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.2">
@@ -24441,7 +24441,7 @@
       </c>
       <c r="N559" s="2">
         <f t="shared" si="11"/>
-        <v>0.66994726564372897</v>
+        <v>0.66960257033727144</v>
       </c>
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.2">
@@ -24483,7 +24483,7 @@
       </c>
       <c r="N560" s="2">
         <f t="shared" si="11"/>
-        <v>0.67304218369174995</v>
+        <v>0.67269668585602194</v>
       </c>
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.2">
@@ -24525,7 +24525,7 @@
       </c>
       <c r="N561" s="2">
         <f t="shared" si="11"/>
-        <v>0.67628993898420131</v>
+        <v>0.67594371324235014</v>
       </c>
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.2">
@@ -24567,7 +24567,7 @@
       </c>
       <c r="N562" s="2">
         <f t="shared" si="11"/>
-        <v>0.67969145593550906</v>
+        <v>0.67934457739458021</v>
       </c>
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.2">
@@ -24609,7 +24609,7 @@
       </c>
       <c r="N563" s="2">
         <f t="shared" si="11"/>
-        <v>0.68324751979430065</v>
+        <v>0.68290006452785568</v>
       </c>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.2">
@@ -24651,7 +24651,7 @@
       </c>
       <c r="N564" s="2">
         <f t="shared" si="11"/>
-        <v>0.68695876791072474</v>
+        <v>0.68661081345231767</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.2">
@@ -24693,7 +24693,7 @@
       </c>
       <c r="N565" s="2">
         <f t="shared" si="11"/>
-        <v>0.69082567986868149</v>
+        <v>0.69047730571599875</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.2">
@@ -24735,7 +24735,7 @@
       </c>
       <c r="N566" s="2">
         <f t="shared" si="11"/>
-        <v>0.69484856644503146</v>
+        <v>0.694499854574396</v>
       </c>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.2">
@@ -24777,7 +24777,7 @@
       </c>
       <c r="N567" s="2">
         <f t="shared" si="11"/>
-        <v>0.69902755735824096</v>
+        <v>0.69867859274905819</v>
       </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.2">
@@ -24819,7 +24819,7 @@
       </c>
       <c r="N568" s="2">
         <f t="shared" si="11"/>
-        <v>0.70336258776987692</v>
+        <v>0.70301345893843392</v>
       </c>
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.2">
@@ -24861,7 +24861,7 @@
       </c>
       <c r="N569" s="2">
         <f t="shared" si="11"/>
-        <v>0.70785338350399585</v>
+        <v>0.70750418304583307</v>
       </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.2">
@@ -24903,7 +24903,7 @@
       </c>
       <c r="N570" s="2">
         <f t="shared" si="11"/>
-        <v>0.71249944495188733</v>
+        <v>0.7121502700917246</v>
       </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.2">
@@ -24945,7 +24945,7 @@
       </c>
       <c r="N571" s="2">
         <f t="shared" si="11"/>
-        <v>0.71730002963299899</v>
+        <v>0.71695098278093217</v>
       </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.2">
@@ -24987,7 +24987,7 @@
       </c>
       <c r="N572" s="2">
         <f t="shared" si="11"/>
-        <v>0.72225413338729438</v>
+        <v>0.72190532269965935</v>
       </c>
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.2">
@@ -25029,7 +25029,7 @@
       </c>
       <c r="N573" s="2">
         <f t="shared" si="11"/>
-        <v>0.72736047017994532</v>
+        <v>0.72701201012289873</v>
       </c>
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.2">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="N574" s="2">
         <f t="shared" si="11"/>
-        <v>0.73261745050635851</v>
+        <v>0.73226946241982049</v>
       </c>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.2">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="N575" s="2">
         <f t="shared" si="11"/>
-        <v>0.7380231583941369</v>
+        <v>0.73767577105329674</v>
       </c>
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.2">
@@ -25155,7 +25155,7 @@
       </c>
       <c r="N576" s="2">
         <f t="shared" si="11"/>
-        <v>0.74357532700904039</v>
+        <v>0.7432286771801383</v>
       </c>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.2">
@@ -25197,7 +25197,7 @@
       </c>
       <c r="N577" s="2">
         <f t="shared" si="11"/>
-        <v>0.74927131288435844</v>
+        <v>0.74892554587091509</v>
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.2">
@@ -25239,7 +25239,7 @@
       </c>
       <c r="N578" s="2">
         <f t="shared" si="11"/>
-        <v>0.75510806880769643</v>
+        <v>0.75476333898277848</v>
       </c>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.2">
@@ -25281,7 +25281,7 @@
       </c>
       <c r="N579" s="2">
         <f t="shared" si="11"/>
-        <v>0.76108211541609039</v>
+        <v>0.76073858673557504</v>
       </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.2">
@@ -25323,7 +25323,7 @@
       </c>
       <c r="N580" s="2">
         <f t="shared" si="11"/>
-        <v>0.76718951156992254</v>
+        <v>0.76684735806104942</v>
       </c>
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.2">
@@ -25365,7 +25365,7 @@
       </c>
       <c r="N581" s="2">
         <f t="shared" si="11"/>
-        <v>0.77342582359839174</v>
+        <v>0.77308522981718708</v>
       </c>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.2">
@@ -25407,7 +25407,7 @@
       </c>
       <c r="N582" s="2">
         <f t="shared" si="11"/>
-        <v>0.77978609353463058</v>
+        <v>0.7794472549850483</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.2">
@@ -25449,7 +25449,7 @@
       </c>
       <c r="N583" s="2">
         <f t="shared" si="11"/>
-        <v>0.78626480648693808</v>
+        <v>0.78592792999380412</v>
       </c>
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.2">
@@ -25491,7 +25491,7 @@
       </c>
       <c r="N584" s="2">
         <f t="shared" ref="N584:N647" si="12">(B584*B$5+C584*C$5+D584*D$5+E584*E$5+F584*F$5+G584*G$5+H584*H$5+I584*I$5+J584*J$5+K584*K$5+L584*L$5)/SUM(B$5:L$5)</f>
-        <v>0.79285585732440411</v>
+        <v>0.79252116135147554</v>
       </c>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.2">
@@ -25533,7 +25533,7 @@
       </c>
       <c r="N585" s="2">
         <f t="shared" si="12"/>
-        <v>0.799552516890216</v>
+        <v>0.7992202317938969</v>
       </c>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.2">
@@ -25575,7 +25575,7 @@
       </c>
       <c r="N586" s="2">
         <f t="shared" si="12"/>
-        <v>0.80634739799454824</v>
+        <v>0.80601776620305432</v>
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.2">
@@ -25617,7 +25617,7 @@
       </c>
       <c r="N587" s="2">
         <f t="shared" si="12"/>
-        <v>0.8132324214808293</v>
+        <v>0.8129056975878749</v>
       </c>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.2">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="N588" s="2">
         <f t="shared" si="12"/>
-        <v>0.82019878270441493</v>
+        <v>0.8198752334658489</v>
       </c>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.2">
@@ -25701,7 +25701,7 @@
       </c>
       <c r="N589" s="2">
         <f t="shared" si="12"/>
-        <v>0.82723691881100414</v>
+        <v>0.82691682303225489</v>
       </c>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.2">
@@ -25743,7 +25743,7 @@
       </c>
       <c r="N590" s="2">
         <f t="shared" si="12"/>
-        <v>0.83433647725314097</v>
+        <v>0.83402012555489013</v>
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.2">
@@ -25785,7 +25785,7 @@
       </c>
       <c r="N591" s="2">
         <f t="shared" si="12"/>
-        <v>0.84148628603644482</v>
+        <v>0.84117398048566283</v>
       </c>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.2">
@@ -25827,7 +25827,7 @@
       </c>
       <c r="N592" s="2">
         <f t="shared" si="12"/>
-        <v>0.84867432624199624</v>
+        <v>0.84836637983537555</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.2">
@@ -25869,7 +25869,7 @@
       </c>
       <c r="N593" s="2">
         <f t="shared" si="12"/>
-        <v>0.85588770742690123</v>
+        <v>0.85558444341387052</v>
       </c>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.2">
@@ -25911,7 +25911,7 @@
       </c>
       <c r="N594" s="2">
         <f t="shared" si="12"/>
-        <v>0.86311264656023212</v>
+        <v>0.86281439759314915</v>
       </c>
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.2">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="N595" s="2">
         <f t="shared" si="12"/>
-        <v>0.87033445120500763</v>
+        <v>0.87004155830487906</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.2">
@@ -25995,7 +25995,7 @@
       </c>
       <c r="N596" s="2">
         <f t="shared" si="12"/>
-        <v>0.87753750770717431</v>
+        <v>0.87725031903436146</v>
       </c>
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.2">
@@ -26037,7 +26037,7 @@
       </c>
       <c r="N597" s="2">
         <f t="shared" si="12"/>
-        <v>0.88470527519767284</v>
+        <v>0.88442414461857632</v>
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.2">
@@ -26079,7 +26079,7 @@
       </c>
       <c r="N598" s="2">
         <f t="shared" si="12"/>
-        <v>0.89182028625162613</v>
+        <v>0.89154557169432114</v>
       </c>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.2">
@@ -26121,7 +26121,7 @@
       </c>
       <c r="N599" s="2">
         <f t="shared" si="12"/>
-        <v>0.89886415507707296</v>
+        <v>0.89859621667134426</v>
       </c>
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.2">
@@ -26163,7 +26163,7 @@
       </c>
       <c r="N600" s="2">
         <f t="shared" si="12"/>
-        <v>0.9058175941218144</v>
+        <v>0.90555679212202211</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.2">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="N601" s="2">
         <f t="shared" si="12"/>
-        <v>0.91266043998814783</v>
+        <v>0.91240713248087657</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.2">
@@ -26247,7 +26247,7 @@
       </c>
       <c r="N602" s="2">
         <f t="shared" si="12"/>
-        <v>0.91937168952834614</v>
+        <v>0.91912622993082638</v>
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.2">
@@ -26289,7 +26289,7 @@
       </c>
       <c r="N603" s="2">
         <f t="shared" si="12"/>
-        <v>0.92592954695590579</v>
+        <v>0.92569228131575343</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.2">
@@ -26331,7 +26331,7 @@
       </c>
       <c r="N604" s="2">
         <f t="shared" si="12"/>
-        <v>0.93231148274560505</v>
+        <v>0.93208274685743209</v>
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.2">
@@ -26373,7 +26373,7 @@
       </c>
       <c r="N605" s="2">
         <f t="shared" si="12"/>
-        <v>0.93849430500649766</v>
+        <v>0.93827442136637274</v>
       </c>
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.2">
@@ -26415,7 +26415,7 @@
       </c>
       <c r="N606" s="2">
         <f t="shared" si="12"/>
-        <v>0.94445424389362587</v>
+        <v>0.94424351851807153</v>
       </c>
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.2">
@@ -26457,7 +26457,7 @@
       </c>
       <c r="N607" s="2">
         <f t="shared" si="12"/>
-        <v>0.95016704947427666</v>
+        <v>0.94996576861640325</v>
       </c>
     </row>
     <row r="608" spans="1:14" x14ac:dyDescent="0.2">
@@ -26499,7 +26499,7 @@
       </c>
       <c r="N608" s="2">
         <f t="shared" si="12"/>
-        <v>0.95560810328184342</v>
+        <v>0.95541653008314331</v>
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.2">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="N609" s="2">
         <f t="shared" si="12"/>
-        <v>0.96075254357413797</v>
+        <v>0.960570914696251</v>
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.2">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="N610" s="2">
         <f t="shared" si="12"/>
-        <v>0.96557540406421405</v>
+        <v>0.96540392635039296</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.2">
@@ -26625,7 +26625,7 @@
       </c>
       <c r="N611" s="2">
         <f t="shared" si="12"/>
-        <v>0.97005176561232609</v>
+        <v>0.96989061283317102</v>
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.2">
@@ -26667,7 +26667,7 @@
       </c>
       <c r="N612" s="2">
         <f t="shared" si="12"/>
-        <v>0.97415692006113319</v>
+        <v>0.97400622980316764</v>
       </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.2">
@@ -26709,7 +26709,7 @@
       </c>
       <c r="N613" s="2">
         <f t="shared" si="12"/>
-        <v>0.97786654506808968</v>
+        <v>0.97772641582668596</v>
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.2">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="N614" s="2">
         <f t="shared" si="12"/>
-        <v>0.9811568884460059</v>
+        <v>0.98102737698577835</v>
       </c>
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.2">
@@ -26793,7 +26793,7 @@
       </c>
       <c r="N615" s="2">
         <f t="shared" si="12"/>
-        <v>0.98400496017411787</v>
+        <v>0.98388607921997584</v>
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.2">
@@ -26835,7 +26835,7 @@
       </c>
       <c r="N616" s="2">
         <f t="shared" si="12"/>
-        <v>0.98638872989802706</v>
+        <v>0.98628044621842714</v>
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.2">
@@ -26877,7 +26877,7 @@
       </c>
       <c r="N617" s="2">
         <f t="shared" si="12"/>
-        <v>0.98828732740983427</v>
+        <v>0.98818956035023153</v>
       </c>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.2">
@@ -26919,7 +26919,7 @@
       </c>
       <c r="N618" s="2">
         <f t="shared" si="12"/>
-        <v>0.98968124330271368</v>
+        <v>0.98959386382174119</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.2">
@@ -26961,7 +26961,7 @@
       </c>
       <c r="N619" s="2">
         <f t="shared" si="12"/>
-        <v>0.99055252674105676</v>
+        <v>0.99047535699451472</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.2">
@@ -27003,7 +27003,7 @@
       </c>
       <c r="N620" s="2">
         <f t="shared" si="12"/>
-        <v>0.99088497709196299</v>
+        <v>0.99081779060037556</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.2">
@@ -27045,7 +27045,7 @@
       </c>
       <c r="N621" s="2">
         <f t="shared" si="12"/>
-        <v>0.99066432603949062</v>
+        <v>0.99060684846395908</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.2">
@@ -27087,7 +27087,7 @@
       </c>
       <c r="N622" s="2">
         <f t="shared" si="12"/>
-        <v>0.9898784067615215</v>
+        <v>0.98983031730010484</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.2">
@@ -27129,7 +27129,7 @@
       </c>
       <c r="N623" s="2">
         <f t="shared" si="12"/>
-        <v>0.98851730679961491</v>
+        <v>0.98847824020288177</v>
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.2">
@@ -27171,7 +27171,7 @@
       </c>
       <c r="N624" s="2">
         <f t="shared" si="12"/>
-        <v>0.98657350140137545</v>
+        <v>0.98654305059148184</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.2">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="N625" s="2">
         <f t="shared" si="12"/>
-        <v>0.98404196436501812</v>
+        <v>0.98401968362818981</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.2">
@@ -27255,7 +27255,7 @@
       </c>
       <c r="N626" s="2">
         <f t="shared" si="12"/>
-        <v>0.9809202537654016</v>
+        <v>0.98090566247353606</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.2">
@@ -27297,7 +27297,7 @@
       </c>
       <c r="N627" s="2">
         <f t="shared" si="12"/>
-        <v>0.97720857038335551</v>
+        <v>0.97720115718715972</v>
       </c>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.2">
@@ -27339,7 +27339,7 @@
       </c>
       <c r="N628" s="2">
         <f t="shared" si="12"/>
-        <v>0.97290978718478194</v>
+        <v>0.97290901460893076</v>
       </c>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.2">
@@ -27381,7 +27381,7 @@
       </c>
       <c r="N629" s="2">
         <f t="shared" si="12"/>
-        <v>0.96802944878731412</v>
+        <v>0.96803475814805162</v>
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.2">
@@ -27423,7 +27423,7 @@
       </c>
       <c r="N630" s="2">
         <f t="shared" si="12"/>
-        <v>0.96257574049133121</v>
+        <v>0.962586557049118</v>
       </c>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.2">
@@ -27465,7 +27465,7 @@
       </c>
       <c r="N631" s="2">
         <f t="shared" si="12"/>
-        <v>0.95655942711669062</v>
+        <v>0.95657516537126608</v>
       </c>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.2">
@@ -27507,7 +27507,7 @@
       </c>
       <c r="N632" s="2">
         <f t="shared" si="12"/>
-        <v>0.94999376255304158</v>
+        <v>0.95001383158579489</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.2">
@@ -27549,7 +27549,7 @@
       </c>
       <c r="N633" s="2">
         <f t="shared" si="12"/>
-        <v>0.94289437157558109</v>
+        <v>0.94291818034448893</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.2">
@@ -27591,7 +27591,7 @@
       </c>
       <c r="N634" s="2">
         <f t="shared" si="12"/>
-        <v>0.93527910607625497</v>
+        <v>0.93530606857179743</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.2">
@@ -27633,7 +27633,7 @@
       </c>
       <c r="N635" s="2">
         <f t="shared" si="12"/>
-        <v>0.92716787839116255</v>
+        <v>0.92719741856737992</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.2">
@@ -27675,7 +27675,7 @@
       </c>
       <c r="N636" s="2">
         <f t="shared" si="12"/>
-        <v>0.91858247485025424</v>
+        <v>0.91861403125318675</v>
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.2">
@@ -27717,7 +27717,7 @@
       </c>
       <c r="N637" s="2">
         <f t="shared" si="12"/>
-        <v>0.90954635302133124</v>
+        <v>0.90957938304707942</v>
       </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.2">
@@ -27759,7 +27759,7 @@
       </c>
       <c r="N638" s="2">
         <f t="shared" si="12"/>
-        <v>0.90008442635767894</v>
+        <v>0.90011841008382265</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.2">
@@ -27801,7 +27801,7 @@
       </c>
       <c r="N639" s="2">
         <f t="shared" si="12"/>
-        <v>0.89022284008342634</v>
+        <v>0.89025728363003298</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.2">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="N640" s="2">
         <f t="shared" si="12"/>
-        <v>0.87998874216395828</v>
+        <v>0.88002318055338713</v>
       </c>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.2">
@@ -27885,7 +27885,7 @@
       </c>
       <c r="N641" s="2">
         <f t="shared" si="12"/>
-        <v>0.86941005311623654</v>
+        <v>0.86944405261395341</v>
       </c>
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.2">
@@ -27927,7 +27927,7 @@
       </c>
       <c r="N642" s="2">
         <f t="shared" si="12"/>
-        <v>0.85851523822560616</v>
+        <v>0.85854839815676331</v>
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.2">
@@ -27969,7 +27969,7 @@
       </c>
       <c r="N643" s="2">
         <f t="shared" si="12"/>
-        <v>0.84733308546475739</v>
+        <v>0.84736503951301512</v>
       </c>
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.2">
@@ -28011,7 +28011,7 @@
       </c>
       <c r="N644" s="2">
         <f t="shared" si="12"/>
-        <v>0.83589249207268468</v>
+        <v>0.83592290907830358</v>
       </c>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.2">
@@ -28053,7 +28053,7 @@
       </c>
       <c r="N645" s="2">
         <f t="shared" si="12"/>
-        <v>0.82422226236332807</v>
+        <v>0.82425084664671588</v>
       </c>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.2">
@@ -28095,7 +28095,7 @@
       </c>
       <c r="N646" s="2">
         <f t="shared" si="12"/>
-        <v>0.8123509189126662</v>
+        <v>0.81237741015715448</v>
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.2">
@@ -28137,7 +28137,7 @@
       </c>
       <c r="N647" s="2">
         <f t="shared" si="12"/>
-        <v>0.80030652883590747</v>
+        <v>0.80033070156947583</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.2">
@@ -28179,7 +28179,7 @@
       </c>
       <c r="N648" s="2">
         <f t="shared" ref="N648:N711" si="13">(B648*B$5+C648*C$5+D648*D$5+E648*E$5+F648*F$5+G648*G$5+H648*H$5+I648*I$5+J648*J$5+K648*K$5+L648*L$5)/SUM(B$5:L$5)</f>
-        <v>0.78811654642868001</v>
+        <v>0.7881382091486413</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.2">
@@ -28221,7 +28221,7 @@
       </c>
       <c r="N649" s="2">
         <f t="shared" si="13"/>
-        <v>0.77580767302145037</v>
+        <v>0.77582666700881375</v>
       </c>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.2">
@@ -28263,7 +28263,7 @@
       </c>
       <c r="N650" s="2">
         <f t="shared" si="13"/>
-        <v>0.76340573449622739</v>
+        <v>0.76342193236767164</v>
       </c>
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.2">
@@ -28305,7 +28305,7 @@
       </c>
       <c r="N651" s="2">
         <f t="shared" si="13"/>
-        <v>0.75093557654817888</v>
+        <v>0.75094888059345621</v>
       </c>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.2">
@@ -28347,7 +28347,7 @@
       </c>
       <c r="N652" s="2">
         <f t="shared" si="13"/>
-        <v>0.73842097744844903</v>
+        <v>0.73843131779977844</v>
       </c>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.2">
@@ -28389,7 +28389,7 @@
       </c>
       <c r="N653" s="2">
         <f t="shared" si="13"/>
-        <v>0.72588457778263415</v>
+        <v>0.7258919104604149</v>
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.2">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="N654" s="2">
         <f t="shared" si="13"/>
-        <v>0.71334782640413097</v>
+        <v>0.71335213128033159</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.2">
@@ -28473,7 +28473,7 @@
       </c>
       <c r="N655" s="2">
         <f t="shared" si="13"/>
-        <v>0.70083094165273341</v>
+        <v>0.70083222036976522</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.2">
@@ -28515,7 +28515,7 @@
       </c>
       <c r="N656" s="2">
         <f t="shared" si="13"/>
-        <v>0.68835288674535189</v>
+        <v>0.68835116062431112</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.2">
@@ -28557,7 +28557,7 @@
       </c>
       <c r="N657" s="2">
         <f t="shared" si="13"/>
-        <v>0.67593135814445682</v>
+        <v>0.67592666611248586</v>
       </c>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.2">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="N658" s="2">
         <f t="shared" si="13"/>
-        <v>0.66358278564735595</v>
+        <v>0.66357518220966616</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.2">
@@ -28641,7 +28641,7 @@
       </c>
       <c r="N659" s="2">
         <f t="shared" si="13"/>
-        <v>0.65132234291129409</v>
+        <v>0.6513118961892479</v>
       </c>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.2">
@@ -28683,7 +28683,7 @@
       </c>
       <c r="N660" s="2">
         <f t="shared" si="13"/>
-        <v>0.6391639671309316</v>
+        <v>0.63915075698358492</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.2">
@@ -28725,7 +28725,7 @@
       </c>
       <c r="N661" s="2">
         <f t="shared" si="13"/>
-        <v>0.62712038661147562</v>
+        <v>0.62710450285422914</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.2">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="N662" s="2">
         <f t="shared" si="13"/>
-        <v>0.61520315502751355</v>
+        <v>0.61518469575804757</v>
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.2">
@@ -28809,7 +28809,7 @@
       </c>
       <c r="N663" s="2">
         <f t="shared" si="13"/>
-        <v>0.60342269122055747</v>
+        <v>0.60340176125909062</v>
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.2">
@@ -28851,7 +28851,7 @@
       </c>
       <c r="N664" s="2">
         <f t="shared" si="13"/>
-        <v>0.59178832346280597</v>
+        <v>0.59176503291092442</v>
       </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.2">
@@ -28893,7 +28893,7 @@
       </c>
       <c r="N665" s="2">
         <f t="shared" si="13"/>
-        <v>0.58030833719738739</v>
+        <v>0.58028280011726152</v>
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.2">
@@ -28935,7 +28935,7 @@
       </c>
       <c r="N666" s="2">
         <f t="shared" si="13"/>
-        <v>0.56899002535298837</v>
+        <v>0.56896235856670674</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.2">
@@ -28977,7 +28977,7 @@
       </c>
       <c r="N667" s="2">
         <f t="shared" si="13"/>
-        <v>0.55783974042049977</v>
+        <v>0.55781006242751319</v>
       </c>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.2">
@@ -29019,7 +29019,7 @@
       </c>
       <c r="N668" s="2">
         <f t="shared" si="13"/>
-        <v>0.54686294756896792</v>
+        <v>0.54683137757820677</v>
       </c>
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.2">
@@ -29061,7 +29061,7 @@
       </c>
       <c r="N669" s="2">
         <f t="shared" si="13"/>
-        <v>0.53606427816575475</v>
+        <v>0.53603093523785383</v>
       </c>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.2">
@@ -29103,7 +29103,7 @@
       </c>
       <c r="N670" s="2">
         <f t="shared" si="13"/>
-        <v>0.52544758314995577</v>
+        <v>0.52541258544415514</v>
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.2">
@@ -29145,7 +29145,7 @@
       </c>
       <c r="N671" s="2">
         <f t="shared" si="13"/>
-        <v>0.51501598578785401</v>
+        <v>0.51497944990751376</v>
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.2">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="N672" s="2">
         <f t="shared" si="13"/>
-        <v>0.50477193341340354</v>
+        <v>0.50473397384365071</v>
       </c>
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.2">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="N673" s="2">
         <f t="shared" si="13"/>
-        <v>0.49471724782540449</v>
+        <v>0.49467797645618483</v>
       </c>
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.2">
@@ -29271,7 +29271,7 @@
       </c>
       <c r="N674" s="2">
         <f t="shared" si="13"/>
-        <v>0.48485317407541523</v>
+        <v>0.48481269980312952</v>
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.2">
@@ -29313,7 +29313,7 @@
       </c>
       <c r="N675" s="2">
         <f t="shared" si="13"/>
-        <v>0.47518042743685768</v>
+        <v>0.47513885583779497</v>
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.2">
@@ -29355,7 +29355,7 @@
       </c>
       <c r="N676" s="2">
         <f t="shared" si="13"/>
-        <v>0.46569923839601968</v>
+        <v>0.46565667146493184</v>
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.2">
@@ -29397,7 +29397,7 @@
       </c>
       <c r="N677" s="2">
         <f t="shared" si="13"/>
-        <v>0.45640939555010002</v>
+        <v>0.45636593149747684</v>
       </c>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.2">
@@ -29439,7 +29439,7 @@
       </c>
       <c r="N678" s="2">
         <f t="shared" si="13"/>
-        <v>0.44731028633625314</v>
+        <v>0.4472660194381316</v>
       </c>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.2">
@@ -29481,7 +29481,7 @@
       </c>
       <c r="N679" s="2">
         <f t="shared" si="13"/>
-        <v>0.43840093554920406</v>
+        <v>0.43835595604366645</v>
       </c>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.2">
@@ -29523,7 +29523,7 @@
       </c>
       <c r="N680" s="2">
         <f t="shared" si="13"/>
-        <v>0.42968004163366086</v>
+        <v>0.4296344356585276</v>
       </c>
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.2">
@@ -29565,7 +29565,7 @@
       </c>
       <c r="N681" s="2">
         <f t="shared" si="13"/>
-        <v>0.42114601076210295</v>
+        <v>0.42109986032869773</v>
       </c>
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.2">
@@ -29607,7 +29607,7 @@
       </c>
       <c r="N682" s="2">
         <f t="shared" si="13"/>
-        <v>0.41279698872861387</v>
+        <v>0.41275037172685819</v>
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.2">
@@ -29649,7 +29649,7 @@
       </c>
       <c r="N683" s="2">
         <f t="shared" si="13"/>
-        <v>0.40463089070609393</v>
+        <v>0.40458388093656922</v>
       </c>
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.2">
@@ -29691,7 +29691,7 @@
       </c>
       <c r="N684" s="2">
         <f t="shared" si="13"/>
-        <v>0.39664542892743954</v>
+        <v>0.39659809615643243</v>
       </c>
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.2">
@@ -29733,7 +29733,7 @@
       </c>
       <c r="N685" s="2">
         <f t="shared" si="13"/>
-        <v>0.38883813836174508</v>
+        <v>0.38879054839565602</v>
       </c>
     </row>
     <row r="686" spans="1:14" x14ac:dyDescent="0.2">
@@ -29775,7 +29775,7 @@
       </c>
       <c r="N686" s="2">
         <f t="shared" si="13"/>
-        <v>0.38120640046454185</v>
+        <v>0.3811586152403878</v>
       </c>
     </row>
     <row r="687" spans="1:14" x14ac:dyDescent="0.2">
@@ -29817,7 +29817,7 @@
       </c>
       <c r="N687" s="2">
         <f t="shared" si="13"/>
-        <v>0.3737474650868281</v>
+        <v>0.37369954277590517</v>
       </c>
     </row>
     <row r="688" spans="1:14" x14ac:dyDescent="0.2">
@@ -29859,7 +29859,7 @@
       </c>
       <c r="N688" s="2">
         <f t="shared" si="13"/>
-        <v>0.36645847063156145</v>
+        <v>0.36641046575364739</v>
       </c>
     </row>
     <row r="689" spans="1:14" x14ac:dyDescent="0.2">
@@ -29901,7 +29901,7 @@
       </c>
       <c r="N689" s="2">
         <f t="shared" si="13"/>
-        <v>0.35933646254854423</v>
+        <v>0.35928842609431422</v>
       </c>
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.2">
@@ -29943,7 +29943,7 @@
       </c>
       <c r="N690" s="2">
         <f t="shared" si="13"/>
-        <v>0.35237841025963235</v>
+        <v>0.35233038981923648</v>
       </c>
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.2">
@@ -29985,7 +29985,7 @@
       </c>
       <c r="N691" s="2">
         <f t="shared" si="13"/>
-        <v>0.34558122260598872</v>
+        <v>0.34553326250198907</v>
       </c>
     </row>
     <row r="692" spans="1:14" x14ac:dyDescent="0.2">
@@ -30027,7 +30027,7 @@
       </c>
       <c r="N692" s="2">
         <f t="shared" si="13"/>
-        <v>0.33894176190800251</v>
+        <v>0.33889390333110031</v>
       </c>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.2">
@@ -30069,7 +30069,7 @@
       </c>
       <c r="N693" s="2">
         <f t="shared" si="13"/>
-        <v>0.33245685672670255</v>
+        <v>0.332409137872897</v>
       </c>
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.2">
@@ -30111,7 +30111,7 @@
       </c>
       <c r="N694" s="2">
         <f t="shared" si="13"/>
-        <v>0.32612331341300044</v>
+        <v>0.32607576962100926</v>
       </c>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.2">
@@ -30153,7 +30153,7 @@
       </c>
       <c r="N695" s="2">
         <f t="shared" si="13"/>
-        <v>0.31993792652823516</v>
+        <v>0.31989059041618312</v>
       </c>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.2">
@@ -30195,7 +30195,7 @@
       </c>
       <c r="N696" s="2">
         <f t="shared" si="13"/>
-        <v>0.3138974882162342</v>
+        <v>0.31385038981676672</v>
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.2">
@@ -30237,7 +30237,7 @@
       </c>
       <c r="N697" s="2">
         <f t="shared" si="13"/>
-        <v>0.30799879660361185</v>
+        <v>0.30795196349673232</v>
       </c>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.2">
@@ -30279,7 +30279,7 @@
       </c>
       <c r="N698" s="2">
         <f t="shared" si="13"/>
-        <v>0.30223866330138577</v>
+        <v>0.30219212074443669</v>
       </c>
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.2">
@@ -30321,7 +30321,7 @@
       </c>
       <c r="N699" s="2">
         <f t="shared" si="13"/>
-        <v>0.29661392007717918</v>
+        <v>0.29656769113149706</v>
       </c>
     </row>
     <row r="700" spans="1:14" x14ac:dyDescent="0.2">
@@ -30363,7 +30363,7 @@
       </c>
       <c r="N700" s="2">
         <f t="shared" si="13"/>
-        <v>0.29112142476357517</v>
+        <v>0.29107553041744438</v>
       </c>
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.2">
@@ -30405,7 +30405,7 @@
       </c>
       <c r="N701" s="2">
         <f t="shared" si="13"/>
-        <v>0.28575806646431445</v>
+        <v>0.28571252575193107</v>
       </c>
     </row>
     <row r="702" spans="1:14" x14ac:dyDescent="0.2">
@@ -30447,7 +30447,7 @@
       </c>
       <c r="N702" s="2">
         <f t="shared" si="13"/>
-        <v>0.2805207701163388</v>
+        <v>0.28047560023256662</v>
       </c>
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.2">
@@ -30489,7 +30489,7 @@
       </c>
       <c r="N703" s="2">
         <f t="shared" si="13"/>
-        <v>0.27540650046203724</v>
+        <v>0.27536171687280514</v>
       </c>
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.2">
@@ -30531,7 +30531,7 @@
       </c>
       <c r="N704" s="2">
         <f t="shared" si="13"/>
-        <v>0.27041226548245972</v>
+        <v>0.27036788203070128</v>
       </c>
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.2">
@@ -30573,7 +30573,7 @@
       </c>
       <c r="N705" s="2">
         <f t="shared" si="13"/>
-        <v>0.26553511933887586</v>
+        <v>0.26549114834596227</v>
       </c>
     </row>
     <row r="706" spans="1:14" x14ac:dyDescent="0.2">
@@ -30615,7 +30615,7 @@
       </c>
       <c r="N706" s="2">
         <f t="shared" si="13"/>
-        <v>0.26077216486673599</v>
+        <v>0.26072861722939139</v>
       </c>
     </row>
     <row r="707" spans="1:14" x14ac:dyDescent="0.2">
@@ -30657,7 +30657,7 @@
       </c>
       <c r="N707" s="2">
         <f t="shared" si="13"/>
-        <v>0.25612055566296671</v>
+        <v>0.25607744094569052</v>
       </c>
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.2">
@@ -30699,7 +30699,7 @@
       </c>
       <c r="N708" s="2">
         <f t="shared" si="13"/>
-        <v>0.2515774978045287</v>
+        <v>0.25153482432757696</v>
       </c>
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.2">
@@ -30741,7 +30741,7 @@
       </c>
       <c r="N709" s="2">
         <f t="shared" si="13"/>
-        <v>0.24714025123332134</v>
+        <v>0.24709802615632276</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.2">
@@ -30783,7 +30783,7 @@
       </c>
       <c r="N710" s="2">
         <f t="shared" si="13"/>
-        <v>0.24280613083986857</v>
+        <v>0.24276436024117123</v>
       </c>
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.2">
@@ -30825,7 +30825,7 @@
       </c>
       <c r="N711" s="2">
         <f t="shared" si="13"/>
-        <v>0.23857250727564905</v>
+        <v>0.23853119622750754</v>
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.2">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="N712" s="2">
         <f t="shared" ref="N712:N775" si="14">(B712*B$5+C712*C$5+D712*D$5+E712*E$5+F712*F$5+G712*G$5+H712*H$5+I712*I$5+J712*J$5+K712*K$5+L712*L$5)/SUM(B$5:L$5)</f>
-        <v>0.23443680752161372</v>
+        <v>0.23439596016134007</v>
       </c>
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.2">
@@ -30909,7 +30909,7 @@
       </c>
       <c r="N713" s="2">
         <f t="shared" si="14"/>
-        <v>0.23039651523817364</v>
+        <v>0.23035613483538314</v>
       </c>
     </row>
     <row r="714" spans="1:14" x14ac:dyDescent="0.2">
@@ -30951,7 +30951,7 @@
       </c>
       <c r="N714" s="2">
         <f t="shared" si="14"/>
-        <v>0.22644917091987748</v>
+        <v>0.22640925993997008</v>
       </c>
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.2">
@@ -30993,7 +30993,7 @@
       </c>
       <c r="N715" s="2">
         <f t="shared" si="14"/>
-        <v>0.22259237187607336</v>
+        <v>0.22255293204009238</v>
       </c>
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.2">
@@ -31035,7 +31035,7 @@
       </c>
       <c r="N716" s="2">
         <f t="shared" si="14"/>
-        <v>0.21882377205702788</v>
+        <v>0.21878480439804354</v>
       </c>
     </row>
     <row r="717" spans="1:14" x14ac:dyDescent="0.2">
@@ -31077,7 +31077,7 @@
       </c>
       <c r="N717" s="2">
         <f t="shared" si="14"/>
-        <v>0.21514108174330884</v>
+        <v>0.21510258665947427</v>
       </c>
     </row>
     <row r="718" spans="1:14" x14ac:dyDescent="0.2">
@@ -31119,7 +31119,7 @@
       </c>
       <c r="N718" s="2">
         <f t="shared" si="14"/>
-        <v>0.21154206711469273</v>
+        <v>0.21150404441912074</v>
       </c>
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.2">
@@ -31161,7 +31161,7 @@
       </c>
       <c r="N719" s="2">
         <f t="shared" si="14"/>
-        <v>0.20802454971339268</v>
+        <v>0.20798699868099924</v>
       </c>
     </row>
     <row r="720" spans="1:14" x14ac:dyDescent="0.2">
@@ -31203,7 +31203,7 @@
       </c>
       <c r="N720" s="2">
         <f t="shared" si="14"/>
-        <v>0.20458640581511151</v>
+        <v>0.20454932522657163</v>
       </c>
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.2">
@@ -31245,7 +31245,7 @@
       </c>
       <c r="N721" s="2">
         <f t="shared" si="14"/>
-        <v>0.20122556572014963</v>
+        <v>0.20118895390310756</v>
       </c>
     </row>
     <row r="722" spans="1:14" x14ac:dyDescent="0.2">
@@ -31287,7 +31287,7 @@
       </c>
       <c r="N722" s="2">
         <f t="shared" si="14"/>
-        <v>0.19794001297570754</v>
+        <v>0.19790386784338018</v>
       </c>
     </row>
     <row r="723" spans="1:14" x14ac:dyDescent="0.2">
@@ -31329,7 +31329,7 @@
       </c>
       <c r="N723" s="2">
         <f t="shared" si="14"/>
-        <v>0.19472778353944589</v>
+        <v>0.1946921026267544</v>
       </c>
     </row>
     <row r="724" spans="1:14" x14ac:dyDescent="0.2">
@@ -31371,7 +31371,7 @@
       </c>
       <c r="N724" s="2">
         <f t="shared" si="14"/>
-        <v>0.19158696489342336</v>
+        <v>0.1915517453907841</v>
       </c>
     </row>
     <row r="725" spans="1:14" x14ac:dyDescent="0.2">
@@ -31413,7 +31413,7 @@
       </c>
       <c r="N725" s="2">
         <f t="shared" si="14"/>
-        <v>0.18851569511664701</v>
+        <v>0.18848093390154849</v>
       </c>
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.2">
@@ -31455,7 +31455,7 @@
       </c>
       <c r="N726" s="2">
         <f t="shared" si="14"/>
-        <v>0.18551216192365352</v>
+        <v>0.18547785559014082</v>
       </c>
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.2">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="N727" s="2">
         <f t="shared" si="14"/>
-        <v>0.182574601675808</v>
+        <v>0.18254074656199212</v>
       </c>
     </row>
     <row r="728" spans="1:14" x14ac:dyDescent="0.2">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="N728" s="2">
         <f t="shared" si="14"/>
-        <v>0.17970129837131985</v>
+        <v>0.17966789058502444</v>
       </c>
     </row>
     <row r="729" spans="1:14" x14ac:dyDescent="0.2">
@@ -31581,7 +31581,7 @@
       </c>
       <c r="N729" s="2">
         <f t="shared" si="14"/>
-        <v>0.17689058261934854</v>
+        <v>0.17685761806200101</v>
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.2">
@@ -31623,7 +31623,7 @@
       </c>
       <c r="N730" s="2">
         <f t="shared" si="14"/>
-        <v>0.1741408306030261</v>
+        <v>0.17410830499189639</v>
       </c>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.2">
@@ -31665,7 +31665,7 @@
       </c>
       <c r="N731" s="2">
         <f t="shared" si="14"/>
-        <v>0.17145046303566686</v>
+        <v>0.17141837192455114</v>
       </c>
     </row>
     <row r="732" spans="1:14" x14ac:dyDescent="0.2">
@@ -31707,7 +31707,7 @@
       </c>
       <c r="N732" s="2">
         <f t="shared" si="14"/>
-        <v>0.16881794411400625</v>
+        <v>0.16878628291244893</v>
       </c>
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.2">
@@ -31749,7 +31749,7 @@
       </c>
       <c r="N733" s="2">
         <f t="shared" si="14"/>
-        <v>0.16624178047183688</v>
+        <v>0.16621054446297967</v>
       </c>
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.2">
@@ -31791,7 +31791,7 @@
       </c>
       <c r="N734" s="2">
         <f t="shared" si="14"/>
-        <v>0.16372052013705352</v>
+        <v>0.1636897044941949</v>
       </c>
     </row>
     <row r="735" spans="1:14" x14ac:dyDescent="0.2">
@@ -31833,7 +31833,7 @@
       </c>
       <c r="N735" s="2">
         <f t="shared" si="14"/>
-        <v>0.16125275149473473</v>
+        <v>0.16122235129668039</v>
       </c>
     </row>
     <row r="736" spans="1:14" x14ac:dyDescent="0.2">
@@ -31875,7 +31875,7 @@
       </c>
       <c r="N736" s="2">
         <f t="shared" si="14"/>
-        <v>0.15883710225858441</v>
+        <v>0.15880711250386328</v>
       </c>
     </row>
     <row r="737" spans="1:14" x14ac:dyDescent="0.2">
@@ -31917,7 +31917,7 @@
       </c>
       <c r="N737" s="2">
         <f t="shared" si="14"/>
-        <v>0.15647223845275285</v>
+        <v>0.15644265407277066</v>
       </c>
     </row>
     <row r="738" spans="1:14" x14ac:dyDescent="0.2">
@@ -31959,7 +31959,7 @@
       </c>
       <c r="N738" s="2">
         <f t="shared" si="14"/>
-        <v>0.15415686340579005</v>
+        <v>0.15412767927698753</v>
       </c>
     </row>
     <row r="739" spans="1:14" x14ac:dyDescent="0.2">
@@ -32001,7 +32001,7 @@
       </c>
       <c r="N739" s="2">
         <f t="shared" si="14"/>
-        <v>0.15188971675825169</v>
+        <v>0.15186092771333104</v>
       </c>
     </row>
     <row r="740" spans="1:14" x14ac:dyDescent="0.2">
@@ -32043,7 +32043,7 @@
       </c>
       <c r="N740" s="2">
         <f t="shared" si="14"/>
-        <v>0.14966957348525592</v>
+        <v>0.14964117432353621</v>
       </c>
     </row>
     <row r="741" spans="1:14" x14ac:dyDescent="0.2">
@@ -32085,7 +32085,7 @@
       </c>
       <c r="N741" s="2">
         <f t="shared" si="14"/>
-        <v>0.1474952429350857</v>
+        <v>0.14746722843204285</v>
       </c>
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.2">
@@ -32127,7 +32127,7 @@
       </c>
       <c r="N742" s="2">
         <f t="shared" si="14"/>
-        <v>0.14536556788476721</v>
+        <v>0.14533793280081295</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.2">
@@ -32169,7 +32169,7 @@
       </c>
       <c r="N743" s="2">
         <f t="shared" si="14"/>
-        <v>0.14327942361339252</v>
+        <v>0.14325216270194163</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.2">
@@ -32211,7 +32211,7 @@
       </c>
       <c r="N744" s="2">
         <f t="shared" si="14"/>
-        <v>0.14123571699379908</v>
+        <v>0.14120882500867302</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.2">
@@ -32253,7 +32253,7 @@
       </c>
       <c r="N745" s="2">
         <f t="shared" si="14"/>
-        <v>0.13923338560311063</v>
+        <v>0.13920685730532106</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.2">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="N746" s="2">
         <f t="shared" si="14"/>
-        <v>0.13727139685251299</v>
+        <v>0.13724522701646791</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.2">
@@ -32337,7 +32337,7 @@
       </c>
       <c r="N747" s="2">
         <f t="shared" si="14"/>
-        <v>0.13534874713654529</v>
+        <v>0.13532293055571604</v>
       </c>
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.2">
@@ -32379,7 +32379,7 @@
       </c>
       <c r="N748" s="2">
         <f t="shared" si="14"/>
-        <v>0.13346446100208767</v>
+        <v>0.13343899249417429</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.2">
@@ -32421,7 +32421,7 @@
       </c>
       <c r="N749" s="2">
         <f t="shared" si="14"/>
-        <v>0.13161759033715745</v>
+        <v>0.13159246474878655</v>
       </c>
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.2">
@@ -32463,7 +32463,7 @@
       </c>
       <c r="N750" s="2">
         <f t="shared" si="14"/>
-        <v>0.12980721357953778</v>
+        <v>0.12978242579052554</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.2">
@@ -32505,7 +32505,7 @@
       </c>
       <c r="N751" s="2">
         <f t="shared" si="14"/>
-        <v>0.12803243494521252</v>
+        <v>0.12800797987242277</v>
       </c>
     </row>
     <row r="752" spans="1:14" x14ac:dyDescent="0.2">
@@ -32547,7 +32547,7 @@
       </c>
       <c r="N752" s="2">
         <f t="shared" si="14"/>
-        <v>0.1262923836765231</v>
+        <v>0.12626825627734944</v>
       </c>
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.2">
@@ -32589,7 +32589,7 @@
       </c>
       <c r="N753" s="2">
         <f t="shared" si="14"/>
-        <v>0.12458621330989851</v>
+        <v>0.12456240858539663</v>
       </c>
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.2">
@@ -32631,7 +32631,7 @@
       </c>
       <c r="N754" s="2">
         <f t="shared" si="14"/>
-        <v>0.12291310096299737</v>
+        <v>0.12288961396069281</v>
       </c>
     </row>
     <row r="755" spans="1:14" x14ac:dyDescent="0.2">
@@ -32673,7 +32673,7 @@
       </c>
       <c r="N755" s="2">
         <f t="shared" si="14"/>
-        <v>0.12127224664102787</v>
+        <v>0.12124907245742239</v>
       </c>
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.2">
@@ -32715,7 +32715,7 @@
       </c>
       <c r="N756" s="2">
         <f t="shared" si="14"/>
-        <v>0.11966287256200783</v>
+        <v>0.11964000634480612</v>
       </c>
     </row>
     <row r="757" spans="1:14" x14ac:dyDescent="0.2">
@@ -32757,7 +32757,7 @@
       </c>
       <c r="N757" s="2">
         <f t="shared" si="14"/>
-        <v>0.11808422250068216</v>
+        <v>0.1180616594507596</v>
       </c>
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.2">
@@ -32799,7 +32799,7 @@
       </c>
       <c r="N758" s="2">
         <f t="shared" si="14"/>
-        <v>0.11653556115080065</v>
+        <v>0.11651329652393096</v>
       </c>
     </row>
     <row r="759" spans="1:14" x14ac:dyDescent="0.2">
@@ -32841,7 +32841,7 @@
       </c>
       <c r="N759" s="2">
         <f t="shared" si="14"/>
-        <v>0.11501617350543339</v>
+        <v>0.11499420261379407</v>
       </c>
     </row>
     <row r="760" spans="1:14" x14ac:dyDescent="0.2">
@@ -32883,7 +32883,7 @@
       </c>
       <c r="N760" s="2">
         <f t="shared" si="14"/>
-        <v>0.11352536425499145</v>
+        <v>0.11350368246846368</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.2">
@@ -32925,7 +32925,7 @@
       </c>
       <c r="N761" s="2">
         <f t="shared" si="14"/>
-        <v>0.11206245720259592</v>
+        <v>0.11204105994987429</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.2">
@@ -32967,7 +32967,7 @@
       </c>
       <c r="N762" s="2">
         <f t="shared" si="14"/>
-        <v>0.11062679469643835</v>
+        <v>0.11060567746596545</v>
       </c>
     </row>
     <row r="763" spans="1:14" x14ac:dyDescent="0.2">
@@ -33009,7 +33009,7 @@
       </c>
       <c r="N763" s="2">
         <f t="shared" si="14"/>
-        <v>0.10921773707876685</v>
+        <v>0.10919689541950557</v>
       </c>
     </row>
     <row r="764" spans="1:14" x14ac:dyDescent="0.2">
@@ -33051,7 +33051,7 @@
       </c>
       <c r="N764" s="2">
         <f t="shared" si="14"/>
-        <v>0.10783466215111247</v>
+        <v>0.10781409167316926</v>
       </c>
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.2">
@@ -33093,7 +33093,7 @@
       </c>
       <c r="N765" s="2">
         <f t="shared" si="14"/>
-        <v>0.10647696465538281</v>
+        <v>0.10645666103049337</v>
       </c>
     </row>
     <row r="766" spans="1:14" x14ac:dyDescent="0.2">
@@ -33135,7 +33135,7 @@
       </c>
       <c r="N766" s="2">
         <f t="shared" si="14"/>
-        <v>0.10514405577044318</v>
+        <v>0.10512401473233154</v>
       </c>
     </row>
     <row r="767" spans="1:14" x14ac:dyDescent="0.2">
@@ -33177,7 +33177,7 @@
       </c>
       <c r="N767" s="2">
         <f t="shared" si="14"/>
-        <v>0.10383536262378816</v>
+        <v>0.10381557996840982</v>
       </c>
     </row>
     <row r="768" spans="1:14" x14ac:dyDescent="0.2">
@@ -33219,7 +33219,7 @@
       </c>
       <c r="N768" s="2">
         <f t="shared" si="14"/>
-        <v>0.10255032781793486</v>
+        <v>0.10253079940361279</v>
       </c>
     </row>
     <row r="769" spans="1:14" x14ac:dyDescent="0.2">
@@ -33261,7 +33261,7 @@
       </c>
       <c r="N769" s="2">
         <f t="shared" si="14"/>
-        <v>0.1012884089711478</v>
+        <v>0.10126913071861111</v>
       </c>
     </row>
     <row r="770" spans="1:14" x14ac:dyDescent="0.2">
@@ -33303,7 +33303,7 @@
       </c>
       <c r="N770" s="2">
         <f t="shared" si="14"/>
-        <v>0.10004907827211151</v>
+        <v>0.10003004616444425</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.2">
@@ -33345,7 +33345,7 @@
       </c>
       <c r="N771" s="2">
         <f t="shared" si="14"/>
-        <v>9.8831822048186621E-2</v>
+        <v>9.8813032130694894E-2</v>
       </c>
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.2">
@@ -33387,7 +33387,7 @@
       </c>
       <c r="N772" s="2">
         <f t="shared" si="14"/>
-        <v>9.7636140346860412E-2</v>
+        <v>9.7617588726864879E-2</v>
       </c>
     </row>
     <row r="773" spans="1:14" x14ac:dyDescent="0.2">
@@ -33429,7 +33429,7 @@
       </c>
       <c r="N773" s="2">
         <f t="shared" si="14"/>
-        <v>9.6461546530037912E-2</v>
+        <v>9.6443229376598202E-2</v>
       </c>
     </row>
     <row r="774" spans="1:14" x14ac:dyDescent="0.2">
@@ -33471,7 +33471,7 @@
       </c>
       <c r="N774" s="2">
         <f t="shared" si="14"/>
-        <v>9.5307566880802691E-2</v>
+        <v>9.528948042438018E-2</v>
       </c>
     </row>
     <row r="775" spans="1:14" x14ac:dyDescent="0.2">
@@ -33513,7 +33513,7 @@
       </c>
       <c r="N775" s="2">
         <f t="shared" si="14"/>
-        <v>9.4173740222291552E-2</v>
+        <v>9.4155880754356075E-2</v>
       </c>
     </row>
     <row r="776" spans="1:14" x14ac:dyDescent="0.2">
@@ -33555,7 +33555,7 @@
       </c>
       <c r="N776" s="2">
         <f t="shared" ref="N776:N839" si="15">(B776*B$5+C776*C$5+D776*D$5+E776*E$5+F776*F$5+G776*G$5+H776*H$5+I776*I$5+J776*J$5+K776*K$5+L776*L$5)/SUM(B$5:L$5)</f>
-        <v>9.3059617548334889E-2</v>
+        <v>9.3041981420920683E-2</v>
       </c>
     </row>
     <row r="777" spans="1:14" x14ac:dyDescent="0.2">
@@ -33597,7 +33597,7 @@
       </c>
       <c r="N777" s="2">
         <f t="shared" si="15"/>
-        <v>9.1964761665514178E-2</v>
+        <v>9.1947345290730342E-2</v>
       </c>
     </row>
     <row r="778" spans="1:14" x14ac:dyDescent="0.2">
@@ -33639,7 +33639,7 @@
       </c>
       <c r="N778" s="2">
         <f t="shared" si="15"/>
-        <v>9.0888746846303575E-2</v>
+        <v>9.087154669580319E-2</v>
       </c>
     </row>
     <row r="779" spans="1:14" x14ac:dyDescent="0.2">
@@ -33681,7 +33681,7 @@
       </c>
       <c r="N779" s="2">
         <f t="shared" si="15"/>
-        <v>8.9831158492962429E-2</v>
+        <v>8.9814171097375189E-2</v>
       </c>
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.2">
@@ -33723,7 +33723,7 @@
       </c>
       <c r="N780" s="2">
         <f t="shared" si="15"/>
-        <v>8.8791592811855127E-2</v>
+        <v>8.877481476018681E-2</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.2">
@@ -33765,7 +33765,7 @@
       </c>
       <c r="N781" s="2">
         <f t="shared" si="15"/>
-        <v>8.7769656497884901E-2</v>
+        <v>8.775308443688791E-2</v>
       </c>
     </row>
     <row r="782" spans="1:14" x14ac:dyDescent="0.2">
@@ -33807,7 +33807,7 @@
       </c>
       <c r="N782" s="2">
         <f t="shared" si="15"/>
-        <v>8.6764966428731133E-2</v>
+        <v>8.6748597062249161E-2</v>
       </c>
     </row>
     <row r="783" spans="1:14" x14ac:dyDescent="0.2">
@@ -33849,7 +33849,7 @@
       </c>
       <c r="N783" s="2">
         <f t="shared" si="15"/>
-        <v>8.5777149368589836E-2</v>
+        <v>8.5760979456879952E-2</v>
       </c>
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.2">
@@ -33891,7 +33891,7 @@
       </c>
       <c r="N784" s="2">
         <f t="shared" si="15"/>
-        <v>8.4805841681124372E-2</v>
+        <v>8.4789868040159436E-2</v>
       </c>
     </row>
     <row r="785" spans="1:14" x14ac:dyDescent="0.2">
@@ -33933,7 +33933,7 @@
       </c>
       <c r="N785" s="2">
         <f t="shared" si="15"/>
-        <v>8.3850689051340965E-2</v>
+        <v>8.383490855209498E-2</v>
       </c>
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.2">
@@ -33975,7 +33975,7 @@
       </c>
       <c r="N786" s="2">
         <f t="shared" si="15"/>
-        <v>8.2911346216109641E-2</v>
+        <v>8.2895755783828601E-2</v>
       </c>
     </row>
     <row r="787" spans="1:14" x14ac:dyDescent="0.2">
@@ -34017,7 +34017,7 @@
       </c>
       <c r="N787" s="2">
         <f t="shared" si="15"/>
-        <v>8.1987476703060808E-2</v>
+        <v>8.1972073316521357E-2</v>
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.2">
@@ -34059,7 +34059,7 @@
       </c>
       <c r="N788" s="2">
         <f t="shared" si="15"/>
-        <v>8.1078752577594754E-2</v>
+        <v>8.1063533268352653E-2</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.2">
@@ -34101,7 +34101,7 @@
       </c>
       <c r="N789" s="2">
         <f t="shared" si="15"/>
-        <v>8.0184854197747055E-2</v>
+        <v>8.0169816049377632E-2</v>
       </c>
     </row>
     <row r="790" spans="1:14" x14ac:dyDescent="0.2">
@@ -34143,7 +34143,7 @@
       </c>
       <c r="N790" s="2">
         <f t="shared" si="15"/>
-        <v>7.9305469976661588E-2</v>
+        <v>7.9290610123993618E-2</v>
       </c>
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.2">
@@ -34185,7 +34185,7 @@
       </c>
       <c r="N791" s="2">
         <f t="shared" si="15"/>
-        <v>7.8440296152430547E-2</v>
+        <v>7.8425611780775561E-2</v>
       </c>
     </row>
     <row r="792" spans="1:14" x14ac:dyDescent="0.2">
@@ -34227,7 +34227,7 @@
       </c>
       <c r="N792" s="2">
         <f t="shared" si="15"/>
-        <v>7.7589036565065578E-2</v>
+        <v>7.7574524909443943E-2</v>
       </c>
     </row>
     <row r="793" spans="1:14" x14ac:dyDescent="0.2">
@@ -34269,7 +34269,7 @@
       </c>
       <c r="N793" s="2">
         <f t="shared" si="15"/>
-        <v>7.6751402440373942E-2</v>
+        <v>7.6737060784739061E-2</v>
       </c>
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.2">
@@ -34311,7 +34311,7 @@
       </c>
       <c r="N794" s="2">
         <f t="shared" si="15"/>
-        <v>7.5927112180518716E-2</v>
+        <v>7.5912937856980792E-2</v>
       </c>
     </row>
     <row r="795" spans="1:14" x14ac:dyDescent="0.2">
@@ -34353,7 +34353,7 @@
       </c>
       <c r="N795" s="2">
         <f t="shared" si="15"/>
-        <v>7.5115891161047776E-2</v>
+        <v>7.5101881549098012E-2</v>
       </c>
     </row>
     <row r="796" spans="1:14" x14ac:dyDescent="0.2">
@@ -34395,7 +34395,7 @@
       </c>
       <c r="N796" s="2">
         <f t="shared" si="15"/>
-        <v>7.4317471534186066E-2</v>
+        <v>7.4303624059922774E-2</v>
       </c>
     </row>
     <row r="797" spans="1:14" x14ac:dyDescent="0.2">
@@ -34437,7 +34437,7 @@
       </c>
       <c r="N797" s="2">
         <f t="shared" si="15"/>
-        <v>7.3531592038188445E-2</v>
+        <v>7.3517904173545645E-2</v>
       </c>
     </row>
     <row r="798" spans="1:14" x14ac:dyDescent="0.2">
@@ -34479,7 +34479,7 @@
       </c>
       <c r="N798" s="2">
         <f t="shared" si="15"/>
-        <v>7.2757997812558886E-2</v>
+        <v>7.2744467074538494E-2</v>
       </c>
     </row>
     <row r="799" spans="1:14" x14ac:dyDescent="0.2">
@@ -34521,7 +34521,7 @@
       </c>
       <c r="N799" s="2">
         <f t="shared" si="15"/>
-        <v>7.1996440218947313E-2</v>
+        <v>7.1983064168855693E-2</v>
       </c>
     </row>
     <row r="800" spans="1:14" x14ac:dyDescent="0.2">
@@ -34563,7 +34563,7 @@
       </c>
       <c r="N800" s="2">
         <f t="shared" si="15"/>
-        <v>7.1246676667540851E-2</v>
+        <v>7.123345291023031E-2</v>
       </c>
     </row>
     <row r="801" spans="1:14" x14ac:dyDescent="0.2">
@@ -34605,7 +34605,7 @@
       </c>
       <c r="N801" s="2">
         <f t="shared" si="15"/>
-        <v>7.050847044877244E-2</v>
+        <v>7.0495396631888599E-2</v>
       </c>
     </row>
     <row r="802" spans="1:14" x14ac:dyDescent="0.2">
@@ -34647,7 +34647,7 @@
       </c>
       <c r="N802" s="2">
         <f t="shared" si="15"/>
-        <v>6.9781590570175453E-2</v>
+        <v>6.9768664383410797E-2</v>
       </c>
     </row>
     <row r="803" spans="1:14" x14ac:dyDescent="0.2">
@@ -34689,7 +34689,7 @@
       </c>
       <c r="N803" s="2">
         <f t="shared" si="15"/>
-        <v>6.9065811598218715E-2</v>
+        <v>6.9053030772573062E-2</v>
       </c>
     </row>
     <row r="804" spans="1:14" x14ac:dyDescent="0.2">
@@ -34731,7 +34731,7 @@
       </c>
       <c r="N804" s="2">
         <f t="shared" si="15"/>
-        <v>6.8360913504959903E-2</v>
+        <v>6.8348275812008114E-2</v>
       </c>
     </row>
     <row r="805" spans="1:14" x14ac:dyDescent="0.2">
@@ -34773,7 +34773,7 @@
       </c>
       <c r="N805" s="2">
         <f t="shared" si="15"/>
-        <v>6.76666815193636E-2</v>
+        <v>6.7654184770531076E-2</v>
       </c>
     </row>
     <row r="806" spans="1:14" x14ac:dyDescent="0.2">
@@ -34815,7 +34815,7 @@
       </c>
       <c r="N806" s="2">
         <f t="shared" si="15"/>
-        <v>6.6982905983132501E-2</v>
+        <v>6.6970548028978796E-2</v>
       </c>
     </row>
     <row r="807" spans="1:14" x14ac:dyDescent="0.2">
@@ -34857,7 +34857,7 @@
       </c>
       <c r="N807" s="2">
         <f t="shared" si="15"/>
-        <v>6.6309382210906029E-2</v>
+        <v>6.6297160940416835E-2</v>
       </c>
     </row>
     <row r="808" spans="1:14" x14ac:dyDescent="0.2">
@@ -34899,7 +34899,7 @@
       </c>
       <c r="N808" s="2">
         <f t="shared" si="15"/>
-        <v>6.5645910354686393E-2</v>
+        <v>6.5633823694574336E-2</v>
       </c>
     </row>
     <row r="809" spans="1:14" x14ac:dyDescent="0.2">
@@ -34941,7 +34941,7 @@
       </c>
       <c r="N809" s="2">
         <f t="shared" si="15"/>
-        <v>6.4992295272354506E-2</v>
+        <v>6.4980341186368876E-2</v>
       </c>
     </row>
     <row r="810" spans="1:14" x14ac:dyDescent="0.2">
@@ -34983,7 +34983,7 @@
       </c>
       <c r="N810" s="2">
         <f t="shared" si="15"/>
-        <v>6.4348346400146056E-2</v>
+        <v>6.4336522888391798E-2</v>
       </c>
     </row>
     <row r="811" spans="1:14" x14ac:dyDescent="0.2">
@@ -35025,7 +35025,7 @@
       </c>
       <c r="N811" s="2">
         <f t="shared" si="15"/>
-        <v>6.3713877628958068E-2</v>
+        <v>6.3702182727224055E-2</v>
       </c>
     </row>
     <row r="812" spans="1:14" x14ac:dyDescent="0.2">
@@ -35067,7 +35067,7 @@
       </c>
       <c r="N812" s="2">
         <f t="shared" si="15"/>
-        <v>6.3088707184363949E-2</v>
+        <v>6.3077138963460913E-2</v>
       </c>
     </row>
     <row r="813" spans="1:14" x14ac:dyDescent="0.2">
@@ -35109,7 +35109,7 @@
       </c>
       <c r="N813" s="2">
         <f t="shared" si="15"/>
-        <v>6.247265751021798E-2</v>
+        <v>6.2461214075326017E-2</v>
       </c>
     </row>
     <row r="814" spans="1:14" x14ac:dyDescent="0.2">
@@ -35151,7 +35151,7 @@
       </c>
       <c r="N814" s="2">
         <f t="shared" si="15"/>
-        <v>6.1865555155733006E-2</v>
+        <v>6.1854234645758899E-2</v>
       </c>
     </row>
     <row r="815" spans="1:14" x14ac:dyDescent="0.2">
@@ -35193,7 +35193,7 @@
       </c>
       <c r="N815" s="2">
         <f t="shared" si="15"/>
-        <v>6.1267230665921261E-2</v>
+        <v>6.1256031252865682E-2</v>
       </c>
     </row>
     <row r="816" spans="1:14" x14ac:dyDescent="0.2">
@@ -35235,7 +35235,7 @@
       </c>
       <c r="N816" s="2">
         <f t="shared" si="15"/>
-        <v>6.0677518475289051E-2</v>
+        <v>6.0666438363623593E-2</v>
       </c>
     </row>
     <row r="817" spans="1:14" x14ac:dyDescent="0.2">
@@ -35277,7 +35277,7 @@
       </c>
       <c r="N817" s="2">
         <f t="shared" si="15"/>
-        <v>6.0096256804682537E-2</v>
+        <v>6.0085294230736747E-2</v>
       </c>
     </row>
     <row r="818" spans="1:14" x14ac:dyDescent="0.2">
@@ -35319,7 +35319,7 @@
       </c>
       <c r="N818" s="2">
         <f t="shared" si="15"/>
-        <v>5.9523287561183101E-2</v>
+        <v>5.9512440792541491E-2</v>
       </c>
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.2">
@@ -35361,7 +35361,7 @@
       </c>
       <c r="N819" s="2">
         <f t="shared" si="15"/>
-        <v>5.8958456240955193E-2</v>
+        <v>5.8947723575864149E-2</v>
       </c>
     </row>
     <row r="820" spans="1:14" x14ac:dyDescent="0.2">
@@ -35403,7 +35403,7 @@
       </c>
       <c r="N820" s="2">
         <f t="shared" si="15"/>
-        <v>5.8401611834952287E-2</v>
+        <v>5.839099160173699E-2</v>
       </c>
     </row>
     <row r="821" spans="1:14" x14ac:dyDescent="0.2">
@@ -35445,7 +35445,7 @@
       </c>
       <c r="N821" s="2">
         <f t="shared" si="15"/>
-        <v>5.7852606737390601E-2</v>
+        <v>5.7842097293881914E-2</v>
       </c>
     </row>
     <row r="822" spans="1:14" x14ac:dyDescent="0.2">
@@ -35487,7 +35487,7 @@
       </c>
       <c r="N822" s="2">
         <f t="shared" si="15"/>
-        <v>5.731129665690151E-2</v>
+        <v>5.7300896389872687E-2</v>
       </c>
     </row>
     <row r="823" spans="1:14" x14ac:dyDescent="0.2">
@@ -35529,7 +35529,7 @@
       </c>
       <c r="N823" s="2">
         <f t="shared" si="15"/>
-        <v>5.6777540530279426E-2</v>
+        <v>5.6767247854892698E-2</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.2">
@@ -35571,7 +35571,7 @@
       </c>
       <c r="N824" s="2">
         <f t="shared" si="15"/>
-        <v>5.625120043874008E-2</v>
+        <v>5.6241013798003017E-2</v>
       </c>
     </row>
     <row r="825" spans="1:14" x14ac:dyDescent="0.2">
@@ -35613,7 +35613,7 @@
       </c>
       <c r="N825" s="2">
         <f t="shared" si="15"/>
-        <v>5.5732141526613599E-2</v>
+        <v>5.5722059390845229E-2</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.2">
@@ -35655,7 +35655,7 @@
       </c>
       <c r="N826" s="2">
         <f t="shared" si="15"/>
-        <v>5.5220231922391359E-2</v>
+        <v>5.5210252788697858E-2</v>
       </c>
     </row>
     <row r="827" spans="1:14" x14ac:dyDescent="0.2">
@@ -35697,7 +35697,7 @@
       </c>
       <c r="N827" s="2">
         <f t="shared" si="15"/>
-        <v>5.4715342662056042E-2</v>
+        <v>5.4705465053816064E-2</v>
       </c>
     </row>
     <row r="828" spans="1:14" x14ac:dyDescent="0.2">
@@ -35739,7 +35739,7 @@
       </c>
       <c r="N828" s="2">
         <f t="shared" si="15"/>
-        <v>5.4217347614620492E-2</v>
+        <v>5.4207570080979879E-2</v>
       </c>
     </row>
     <row r="829" spans="1:14" x14ac:dyDescent="0.2">
@@ -35781,7 +35781,7 @@
       </c>
       <c r="N829" s="2">
         <f t="shared" si="15"/>
-        <v>5.3726123409807459E-2</v>
+        <v>5.3716444525183343E-2</v>
       </c>
     </row>
     <row r="830" spans="1:14" x14ac:dyDescent="0.2">
@@ -35823,7 +35823,7 @@
       </c>
       <c r="N830" s="2">
         <f t="shared" si="15"/>
-        <v>5.3241549367802371E-2</v>
+        <v>5.3231967731396615E-2</v>
       </c>
     </row>
     <row r="831" spans="1:14" x14ac:dyDescent="0.2">
@@ -35865,7 +35865,7 @@
       </c>
       <c r="N831" s="2">
         <f t="shared" si="15"/>
-        <v>5.2763507431014725E-2</v>
+        <v>5.2754021666336359E-2</v>
       </c>
     </row>
     <row r="832" spans="1:14" x14ac:dyDescent="0.2">
@@ -35907,7 +35907,7 @@
       </c>
       <c r="N832" s="2">
         <f t="shared" si="15"/>
-        <v>5.2291882097784986E-2</v>
+        <v>5.2282490852181854E-2</v>
       </c>
     </row>
     <row r="833" spans="1:14" x14ac:dyDescent="0.2">
@@ -35949,7 +35949,7 @@
       </c>
       <c r="N833" s="2">
         <f t="shared" si="15"/>
-        <v>5.1826560357976642E-2</v>
+        <v>5.181726230217585E-2</v>
       </c>
     </row>
     <row r="834" spans="1:14" x14ac:dyDescent="0.2">
@@ -35991,7 +35991,7 @@
       </c>
       <c r="N834" s="2">
         <f t="shared" si="15"/>
-        <v>5.1367431630394846E-2</v>
+        <v>5.1358225458052076E-2</v>
       </c>
     </row>
     <row r="835" spans="1:14" x14ac:dyDescent="0.2">
@@ -36033,7 +36033,7 @@
       </c>
       <c r="N835" s="2">
         <f t="shared" si="15"/>
-        <v>5.0914387701974463E-2</v>
+        <v>5.0905272129231995E-2</v>
       </c>
     </row>
     <row r="836" spans="1:14" x14ac:dyDescent="0.2">
@@ -36075,7 +36075,7 @@
       </c>
       <c r="N836" s="2">
         <f t="shared" si="15"/>
-        <v>5.0467322668683277E-2</v>
+        <v>5.045829643373647E-2</v>
       </c>
     </row>
     <row r="837" spans="1:14" x14ac:dyDescent="0.2">
@@ -36117,7 +36117,7 @@
       </c>
       <c r="N837" s="2">
         <f t="shared" si="15"/>
-        <v>5.002613287808718E-2</v>
+        <v>5.0017194740759517E-2</v>
       </c>
     </row>
     <row r="838" spans="1:14" x14ac:dyDescent="0.2">
@@ -36159,7 +36159,7 @@
       </c>
       <c r="N838" s="2">
         <f t="shared" si="15"/>
-        <v>4.959071687352596E-2</v>
+        <v>4.9581865614852304E-2</v>
       </c>
     </row>
     <row r="839" spans="1:14" x14ac:dyDescent="0.2">
@@ -36201,7 +36201,7 @@
       </c>
       <c r="N839" s="2">
         <f t="shared" si="15"/>
-        <v>4.9160975339849936E-2</v>
+        <v>4.9152209761668009E-2</v>
       </c>
     </row>
     <row r="840" spans="1:14" x14ac:dyDescent="0.2">
@@ -36243,7 +36243,7 @@
       </c>
       <c r="N840" s="2">
         <f t="shared" ref="N840:N903" si="16">(B840*B$5+C840*C$5+D840*D$5+E840*E$5+F840*F$5+G840*G$5+H840*H$5+I840*I$5+J840*J$5+K840*K$5+L840*L$5)/SUM(B$5:L$5)</f>
-        <v>4.873681105067048E-2</v>
+        <v>4.8728129975220386E-2</v>
       </c>
     </row>
     <row r="841" spans="1:14" x14ac:dyDescent="0.2">
@@ -36285,7 +36285,7 @@
       </c>
       <c r="N841" s="2">
         <f t="shared" si="16"/>
-        <v>4.8318128817076499E-2</v>
+        <v>4.8309531086608112E-2</v>
       </c>
     </row>
     <row r="842" spans="1:14" x14ac:dyDescent="0.2">
@@ -36327,7 +36327,7 @@
       </c>
       <c r="N842" s="2">
         <f t="shared" si="16"/>
-        <v>4.7904835437773415E-2</v>
+        <v>4.7896319914161663E-2</v>
       </c>
     </row>
     <row r="843" spans="1:14" x14ac:dyDescent="0.2">
@@ -36369,7 +36369,7 @@
       </c>
       <c r="N843" s="2">
         <f t="shared" si="16"/>
-        <v>4.749683965060103E-2</v>
+        <v>4.7488405214968728E-2</v>
       </c>
     </row>
     <row r="844" spans="1:14" x14ac:dyDescent="0.2">
@@ -36411,7 +36411,7 @@
       </c>
       <c r="N844" s="2">
         <f t="shared" si="16"/>
-        <v>4.7094052085387104E-2</v>
+        <v>4.708569763773536E-2</v>
       </c>
     </row>
     <row r="845" spans="1:14" x14ac:dyDescent="0.2">
@@ -36453,7 +36453,7 @@
       </c>
       <c r="N845" s="2">
         <f t="shared" si="16"/>
-        <v>4.6696385218098324E-2</v>
+        <v>4.6688109676944339E-2</v>
       </c>
     </row>
     <row r="846" spans="1:14" x14ac:dyDescent="0.2">
@@ -36495,7 +36495,7 @@
       </c>
       <c r="N846" s="2">
         <f t="shared" si="16"/>
-        <v>4.6303753326246665E-2</v>
+        <v>4.6295555628268772E-2</v>
       </c>
     </row>
     <row r="847" spans="1:14" x14ac:dyDescent="0.2">
@@ -36537,7 +36537,7 @@
       </c>
       <c r="N847" s="2">
         <f t="shared" si="16"/>
-        <v>4.5916072445516203E-2</v>
+        <v>4.590795154520607E-2</v>
       </c>
     </row>
     <row r="848" spans="1:14" x14ac:dyDescent="0.2">
@@ -36579,7 +36579,7 @@
       </c>
       <c r="N848" s="2">
         <f t="shared" si="16"/>
-        <v>4.5533260327570733E-2</v>
+        <v>4.5525215196892573E-2</v>
       </c>
     </row>
     <row r="849" spans="1:14" x14ac:dyDescent="0.2">
@@ -36621,7 +36621,7 @@
       </c>
       <c r="N849" s="2">
         <f t="shared" si="16"/>
-        <v>4.5155236399008744E-2</v>
+        <v>4.5147266027065328E-2</v>
       </c>
     </row>
     <row r="850" spans="1:14" x14ac:dyDescent="0.2">
@@ -36663,7 +36663,7 @@
       </c>
       <c r="N850" s="2">
         <f t="shared" si="16"/>
-        <v>4.47819217214303E-2</v>
+        <v>4.4774025114135821E-2</v>
       </c>
     </row>
     <row r="851" spans="1:14" x14ac:dyDescent="0.2">
@@ -36705,7 +36705,7 @@
       </c>
       <c r="N851" s="2">
         <f t="shared" si="16"/>
-        <v>4.4413238952583076E-2</v>
+        <v>4.4405415132342571E-2</v>
       </c>
     </row>
     <row r="852" spans="1:14" x14ac:dyDescent="0.2">
@@ -36747,7 +36747,7 @@
       </c>
       <c r="N852" s="2">
         <f t="shared" si="16"/>
-        <v>4.4049112308554739E-2</v>
+        <v>4.4041360313950034E-2</v>
       </c>
     </row>
     <row r="853" spans="1:14" x14ac:dyDescent="0.2">
@@ -36789,7 +36789,7 @@
       </c>
       <c r="N853" s="2">
         <f t="shared" si="16"/>
-        <v>4.3689467526981329E-2</v>
+        <v>4.3681786412463321E-2</v>
       </c>
     </row>
     <row r="854" spans="1:14" x14ac:dyDescent="0.2">
@@ -36831,7 +36831,7 @@
       </c>
       <c r="N854" s="2">
         <f t="shared" si="16"/>
-        <v>4.3334231831240709E-2</v>
+        <v>4.332662066682795E-2</v>
       </c>
     </row>
     <row r="855" spans="1:14" x14ac:dyDescent="0.2">
@@ -36873,7 +36873,7 @@
       </c>
       <c r="N855" s="2">
         <f t="shared" si="16"/>
-        <v>4.2983333895602382E-2</v>
+        <v>4.2975791766585753E-2</v>
       </c>
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.2">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="N856" s="2">
         <f t="shared" si="16"/>
-        <v>4.2636703811305139E-2</v>
+        <v>4.2629229817958553E-2</v>
       </c>
     </row>
     <row r="857" spans="1:14" x14ac:dyDescent="0.2">
@@ -36957,7 +36957,7 @@
       </c>
       <c r="N857" s="2">
         <f t="shared" si="16"/>
-        <v>4.2294273053535482E-2</v>
+        <v>4.228686631083247E-2</v>
       </c>
     </row>
     <row r="858" spans="1:14" x14ac:dyDescent="0.2">
@@ -36999,7 +36999,7 @@
       </c>
       <c r="N858" s="2">
         <f t="shared" si="16"/>
-        <v>4.1955974449279752E-2</v>
+        <v>4.1948634086615845E-2</v>
       </c>
     </row>
     <row r="859" spans="1:14" x14ac:dyDescent="0.2">
@@ -37041,7 +37041,7 @@
       </c>
       <c r="N859" s="2">
         <f t="shared" si="16"/>
-        <v>4.1621742146025313E-2</v>
+        <v>4.1614467306946047E-2</v>
       </c>
     </row>
     <row r="860" spans="1:14" x14ac:dyDescent="0.2">
@@ -37083,7 +37083,7 @@
       </c>
       <c r="N860" s="2">
         <f t="shared" si="16"/>
-        <v>4.1291511581285002E-2</v>
+        <v>4.128430142321949E-2</v>
       </c>
     </row>
     <row r="861" spans="1:14" x14ac:dyDescent="0.2">
@@ -37125,7 +37125,7 @@
       </c>
       <c r="N861" s="2">
         <f t="shared" si="16"/>
-        <v>4.096521945292108E-2</v>
+        <v>4.0958073146921056E-2</v>
       </c>
     </row>
     <row r="862" spans="1:14" x14ac:dyDescent="0.2">
@@ -37167,7 +37167,7 @@
       </c>
       <c r="N862" s="2">
         <f t="shared" si="16"/>
-        <v>4.0642803690246039E-2</v>
+        <v>4.0635720420730145E-2</v>
       </c>
     </row>
     <row r="863" spans="1:14" x14ac:dyDescent="0.2">
@@ -37209,7 +37209,7 @@
       </c>
       <c r="N863" s="2">
         <f t="shared" si="16"/>
-        <v>4.0324203425876649E-2</v>
+        <v>4.0317182390380013E-2</v>
       </c>
     </row>
     <row r="864" spans="1:14" x14ac:dyDescent="0.2">
@@ -37251,7 +37251,7 @@
       </c>
       <c r="N864" s="2">
         <f t="shared" si="16"/>
-        <v>4.0009358968320224E-2</v>
+        <v>4.0002399377249136E-2</v>
       </c>
     </row>
     <row r="865" spans="1:14" x14ac:dyDescent="0.2">
@@ -37293,7 +37293,7 @@
       </c>
       <c r="N865" s="2">
         <f t="shared" si="16"/>
-        <v>3.969821177527226E-2</v>
+        <v>3.9691312851663829E-2</v>
       </c>
     </row>
     <row r="866" spans="1:14" x14ac:dyDescent="0.2">
@@ -37335,7 +37335,7 @@
       </c>
       <c r="N866" s="2">
         <f t="shared" si="16"/>
-        <v>3.9390704427603201E-2</v>
+        <v>3.9383865406889929E-2</v>
       </c>
     </row>
     <row r="867" spans="1:14" x14ac:dyDescent="0.2">
@@ -37377,7 +37377,7 @@
       </c>
       <c r="N867" s="2">
         <f t="shared" si="16"/>
-        <v>3.9086780604017116E-2</v>
+        <v>3.908000073379627E-2</v>
       </c>
     </row>
     <row r="868" spans="1:14" x14ac:dyDescent="0.2">
@@ -37419,7 +37419,7 @@
       </c>
       <c r="N868" s="2">
         <f t="shared" si="16"/>
-        <v>3.87863850563607E-2</v>
+        <v>3.8779663596168419E-2</v>
       </c>
     </row>
     <row r="869" spans="1:14" x14ac:dyDescent="0.2">
@@ -37461,7 +37461,7 @@
       </c>
       <c r="N869" s="2">
         <f t="shared" si="16"/>
-        <v>3.8489463585565702E-2</v>
+        <v>3.8482799806655643E-2</v>
       </c>
     </row>
     <row r="870" spans="1:14" x14ac:dyDescent="0.2">
@@ -37503,7 +37503,7 @@
       </c>
       <c r="N870" s="2">
         <f t="shared" si="16"/>
-        <v>3.819596301820545E-2</v>
+        <v>3.8189356203332046E-2</v>
       </c>
     </row>
     <row r="871" spans="1:14" x14ac:dyDescent="0.2">
@@ -37545,7 +37545,7 @@
       </c>
       <c r="N871" s="2">
         <f t="shared" si="16"/>
-        <v>3.790583118364909E-2</v>
+        <v>3.789928062685511E-2</v>
       </c>
     </row>
     <row r="872" spans="1:14" x14ac:dyDescent="0.2">
@@ -37587,7 +37587,7 @@
       </c>
       <c r="N872" s="2">
         <f t="shared" si="16"/>
-        <v>3.7619016891795684E-2</v>
+        <v>3.7612521898204208E-2</v>
       </c>
     </row>
     <row r="873" spans="1:14" x14ac:dyDescent="0.2">
@@ -37629,7 +37629,7 @@
       </c>
       <c r="N873" s="2">
         <f t="shared" si="16"/>
-        <v>3.7335469911372487E-2</v>
+        <v>3.7329029796983028E-2</v>
       </c>
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.2">
@@ -37671,7 +37671,7 @@
       </c>
       <c r="N874" s="2">
         <f t="shared" si="16"/>
-        <v>3.7055140948781144E-2</v>
+        <v>3.7048755040270005E-2</v>
       </c>
     </row>
     <row r="875" spans="1:14" x14ac:dyDescent="0.2">
@@ -37713,7 +37713,7 @@
       </c>
       <c r="N875" s="2">
         <f t="shared" si="16"/>
-        <v>3.6777981627476218E-2</v>
+        <v>3.6771649262000862E-2</v>
       </c>
     </row>
     <row r="876" spans="1:14" x14ac:dyDescent="0.2">
@@ -37755,7 +37755,7 @@
       </c>
       <c r="N876" s="2">
         <f t="shared" si="16"/>
-        <v>3.650394446786169E-2</v>
+        <v>3.6497664992869057E-2</v>
       </c>
     </row>
     <row r="877" spans="1:14" x14ac:dyDescent="0.2">
@@ -37797,7 +37797,7 @@
       </c>
       <c r="N877" s="2">
         <f t="shared" si="16"/>
-        <v>3.6232982867690285E-2</v>
+        <v>3.6226755640729053E-2</v>
       </c>
     </row>
     <row r="878" spans="1:14" x14ac:dyDescent="0.2">
@@ -37839,7 +37839,7 @@
       </c>
       <c r="N878" s="2">
         <f t="shared" si="16"/>
-        <v>3.596505108295224E-2</v>
+        <v>3.5958875471488821E-2</v>
       </c>
     </row>
     <row r="879" spans="1:14" x14ac:dyDescent="0.2">
@@ -37881,7 +37881,7 @@
       </c>
       <c r="N879" s="2">
         <f t="shared" si="16"/>
-        <v>3.570010420923915E-2</v>
+        <v>3.5693979590477473E-2</v>
       </c>
     </row>
     <row r="880" spans="1:14" x14ac:dyDescent="0.2">
@@ -37923,7 +37923,7 @@
       </c>
       <c r="N880" s="2">
         <f t="shared" si="16"/>
-        <v>3.5438098163570554E-2</v>
+        <v>3.5432023924275462E-2</v>
       </c>
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.2">
@@ -37965,7 +37965,7 @@
       </c>
       <c r="N881" s="2">
         <f t="shared" si="16"/>
-        <v>3.5178989666669623E-2</v>
+        <v>3.5172965202993851E-2</v>
       </c>
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.2">
@@ -38007,7 +38007,7 @@
       </c>
       <c r="N882" s="2">
         <f t="shared" si="16"/>
-        <v>3.4922736225676328E-2</v>
+        <v>3.4916760942990954E-2</v>
       </c>
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.2">
@@ -38049,7 +38049,7 @@
       </c>
       <c r="N883" s="2">
         <f t="shared" si="16"/>
-        <v>3.4669296117285413E-2</v>
+        <v>3.4663369430013753E-2</v>
       </c>
     </row>
     <row r="884" spans="1:14" x14ac:dyDescent="0.2">
@@ -38091,7 +38091,7 @@
       </c>
       <c r="N884" s="2">
         <f t="shared" si="16"/>
-        <v>3.441862837129768E-2</v>
+        <v>3.4412749702752495E-2</v>
       </c>
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.2">
@@ -38133,7 +38133,7 @@
       </c>
       <c r="N885" s="2">
         <f t="shared" si="16"/>
-        <v>3.4170692754573823E-2</v>
+        <v>3.4164861536797868E-2</v>
       </c>
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.2">
@@ -38175,7 +38175,7 @@
       </c>
       <c r="N886" s="2">
         <f t="shared" si="16"/>
-        <v>3.3925449755378687E-2</v>
+        <v>3.3919665428988326E-2</v>
       </c>
     </row>
     <row r="887" spans="1:14" x14ac:dyDescent="0.2">
@@ -38217,7 +38217,7 @@
       </c>
       <c r="N887" s="2">
         <f t="shared" si="16"/>
-        <v>3.3682860568106814E-2</v>
+        <v>3.3677122582138952E-2</v>
       </c>
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.2">
@@ -38259,7 +38259,7 @@
       </c>
       <c r="N888" s="2">
         <f t="shared" si="16"/>
-        <v>3.3442887078377052E-2</v>
+        <v>3.3437194890139015E-2</v>
       </c>
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.2">
@@ -38301,7 +38301,7 @@
       </c>
       <c r="N889" s="2">
         <f t="shared" si="16"/>
-        <v>3.3205491848488464E-2</v>
+        <v>3.3199844923410854E-2</v>
       </c>
     </row>
     <row r="890" spans="1:14" x14ac:dyDescent="0.2">
@@ -38343,7 +38343,7 @@
       </c>
       <c r="N890" s="2">
         <f t="shared" si="16"/>
-        <v>3.2970638103225265E-2</v>
+        <v>3.2965035914717888E-2</v>
       </c>
     </row>
     <row r="891" spans="1:14" x14ac:dyDescent="0.2">
@@ -38385,7 +38385,7 @@
       </c>
       <c r="N891" s="2">
         <f t="shared" si="16"/>
-        <v>3.2738289716004051E-2</v>
+        <v>3.273273174531461E-2</v>
       </c>
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.2">
@@ -38427,7 +38427,7 @@
       </c>
       <c r="N892" s="2">
         <f t="shared" si="16"/>
-        <v>3.2508411195351916E-2</v>
+        <v>3.250289693142755E-2</v>
       </c>
     </row>
     <row r="893" spans="1:14" x14ac:dyDescent="0.2">
@@ -38469,7 +38469,7 @@
       </c>
       <c r="N893" s="2">
         <f t="shared" si="16"/>
-        <v>3.2280967671707302E-2</v>
+        <v>3.2275496611058864E-2</v>
       </c>
     </row>
     <row r="894" spans="1:14" x14ac:dyDescent="0.2">
@@ -38511,7 +38511,7 @@
       </c>
       <c r="N894" s="2">
         <f t="shared" si="16"/>
-        <v>3.2055924884536173E-2</v>
+        <v>3.2050496531105269E-2</v>
       </c>
     </row>
     <row r="895" spans="1:14" x14ac:dyDescent="0.2">
@@ -38553,7 +38553,7 @@
       </c>
       <c r="N895" s="2">
         <f t="shared" si="16"/>
-        <v>3.1833249169752678E-2</v>
+        <v>3.1827863034781266E-2</v>
       </c>
     </row>
     <row r="896" spans="1:14" x14ac:dyDescent="0.2">
@@ -38595,7 +38595,7 @@
       </c>
       <c r="N896" s="2">
         <f t="shared" si="16"/>
-        <v>3.1612907447438589E-2</v>
+        <v>3.1607563049341189E-2</v>
       </c>
     </row>
     <row r="897" spans="1:14" x14ac:dyDescent="0.2">
@@ -38637,7 +38637,7 @@
       </c>
       <c r="N897" s="2">
         <f t="shared" si="16"/>
-        <v>3.1394867209852309E-2</v>
+        <v>3.1389564074090742E-2</v>
       </c>
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.2">
@@ -38679,7 +38679,7 @@
       </c>
       <c r="N898" s="2">
         <f t="shared" si="16"/>
-        <v>3.1179096509719728E-2</v>
+        <v>3.1173834168680359E-2</v>
       </c>
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.2">
@@ -38721,7 +38721,7 @@
       </c>
       <c r="N899" s="2">
         <f t="shared" si="16"/>
-        <v>3.0965563948800442E-2</v>
+        <v>3.0960341941673755E-2</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.2">
@@ -38763,7 +38763,7 @@
       </c>
       <c r="N900" s="2">
         <f t="shared" si="16"/>
-        <v>3.0754238666720866E-2</v>
+        <v>3.0749056539383528E-2</v>
       </c>
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.2">
@@ -38805,7 +38805,7 @@
       </c>
       <c r="N901" s="2">
         <f t="shared" si="16"/>
-        <v>3.0545090330068428E-2</v>
+        <v>3.0539947634967552E-2</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.2">
@@ -38847,7 +38847,7 @@
       </c>
       <c r="N902" s="2">
         <f t="shared" si="16"/>
-        <v>3.0338089121738927E-2</v>
+        <v>3.033298541777869E-2</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.2">
@@ -38889,7 +38889,7 @@
       </c>
       <c r="N903" s="2">
         <f t="shared" si="16"/>
-        <v>3.0133205730531593E-2</v>
+        <v>3.0128140582962041E-2</v>
       </c>
     </row>
     <row r="904" spans="1:14" x14ac:dyDescent="0.2">
@@ -38931,7 +38931,7 @@
       </c>
       <c r="N904" s="2">
         <f t="shared" ref="N904:N967" si="17">(B904*B$5+C904*C$5+D904*D$5+E904*E$5+F904*F$5+G904*G$5+H904*H$5+I904*I$5+J904*J$5+K904*K$5+L904*L$5)/SUM(B$5:L$5)</f>
-        <v>2.9930411340984203E-2</v>
+        <v>2.9925384321292235E-2</v>
       </c>
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.2">
@@ -38973,7 +38973,7 @@
       </c>
       <c r="N905" s="2">
         <f t="shared" si="17"/>
-        <v>2.9729677623443123E-2</v>
+        <v>2.9724688309245576E-2</v>
       </c>
     </row>
     <row r="906" spans="1:14" x14ac:dyDescent="0.2">
@@ -39015,7 +39015,7 @@
       </c>
       <c r="N906" s="2">
         <f t="shared" si="17"/>
-        <v>2.9530976724361079E-2</v>
+        <v>2.9526024699299946E-2</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.2">
@@ -39057,7 +39057,7 @@
       </c>
       <c r="N907" s="2">
         <f t="shared" si="17"/>
-        <v>2.9334281256818265E-2</v>
+        <v>2.9329366110457902E-2</v>
       </c>
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.2">
@@ -39099,7 +39099,7 @@
       </c>
       <c r="N908" s="2">
         <f t="shared" si="17"/>
-        <v>2.9139564291259409E-2</v>
+        <v>2.9134685618985783E-2</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.2">
@@ -39141,7 +39141,7 @@
       </c>
       <c r="N909" s="2">
         <f t="shared" si="17"/>
-        <v>2.8946799346442377E-2</v>
+        <v>2.8941956749364211E-2</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.2">
@@ -39183,7 +39183,7 @@
       </c>
       <c r="N910" s="2">
         <f t="shared" si="17"/>
-        <v>2.8755960380592523E-2</v>
+        <v>2.87511534654444E-2</v>
       </c>
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.2">
@@ -39225,7 +39225,7 @@
       </c>
       <c r="N911" s="2">
         <f t="shared" si="17"/>
-        <v>2.8567021782757388E-2</v>
+        <v>2.8562250161804699E-2</v>
       </c>
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.2">
@@ -39267,7 +39267,7 @@
       </c>
       <c r="N912" s="2">
         <f t="shared" si="17"/>
-        <v>2.837995836435726E-2</v>
+        <v>2.8375221655302995E-2</v>
       </c>
     </row>
     <row r="913" spans="1:14" x14ac:dyDescent="0.2">
@@ -39309,7 +39309,7 @@
       </c>
       <c r="N913" s="2">
         <f t="shared" si="17"/>
-        <v>2.8194745350925615E-2</v>
+        <v>2.8190043176818939E-2</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.2">
@@ -39351,7 +39351,7 @@
       </c>
       <c r="N914" s="2">
         <f t="shared" si="17"/>
-        <v>2.8011358374035438E-2</v>
+        <v>2.8006690363182041E-2</v>
       </c>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.2">
@@ -39393,7 +39393,7 @@
       </c>
       <c r="N915" s="2">
         <f t="shared" si="17"/>
-        <v>2.7829773463406839E-2</v>
+        <v>2.7825139249280956E-2</v>
       </c>
     </row>
     <row r="916" spans="1:14" x14ac:dyDescent="0.2">
@@ -39435,7 +39435,7 @@
       </c>
       <c r="N916" s="2">
         <f t="shared" si="17"/>
-        <v>2.7649967039190464E-2</v>
+        <v>2.7645366260348622E-2</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.2">
@@ -39477,7 +39477,7 @@
       </c>
       <c r="N917" s="2">
         <f t="shared" si="17"/>
-        <v>2.7471915904423262E-2</v>
+        <v>2.7467348204419696E-2</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.2">
@@ -39519,7 +39519,7 @@
       </c>
       <c r="N918" s="2">
         <f t="shared" si="17"/>
-        <v>2.7295597237651698E-2</v>
+        <v>2.7291062264955278E-2</v>
       </c>
     </row>
     <row r="919" spans="1:14" x14ac:dyDescent="0.2">
@@ -39561,7 +39561,7 @@
       </c>
       <c r="N919" s="2">
         <f t="shared" si="17"/>
-        <v>2.7120988585718726E-2</v>
+        <v>2.7116485993631569E-2</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.2">
@@ -39603,7 +39603,7 @@
       </c>
       <c r="N920" s="2">
         <f t="shared" si="17"/>
-        <v>2.6948067856709702E-2</v>
+        <v>2.694359730328727E-2</v>
       </c>
     </row>
     <row r="921" spans="1:14" x14ac:dyDescent="0.2">
@@ -39645,7 +39645,7 @@
       </c>
       <c r="N921" s="2">
         <f t="shared" si="17"/>
-        <v>2.6776813313054388E-2</v>
+        <v>2.6772374461027124E-2</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.2">
@@ -39687,7 +39687,7 @@
       </c>
       <c r="N922" s="2">
         <f t="shared" si="17"/>
-        <v>2.6607203564779618E-2</v>
+        <v>2.6602796081476053E-2</v>
       </c>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.2">
@@ -39729,7 +39729,7 @@
       </c>
       <c r="N923" s="2">
         <f t="shared" si="17"/>
-        <v>2.6439217562910844E-2</v>
+        <v>2.6434841120182129E-2</v>
       </c>
     </row>
     <row r="924" spans="1:14" x14ac:dyDescent="0.2">
@@ -39771,7 +39771,7 @@
       </c>
       <c r="N924" s="2">
         <f t="shared" si="17"/>
-        <v>2.6272834593016988E-2</v>
+        <v>2.6268488867162914E-2</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.2">
@@ -39813,7 +39813,7 @@
       </c>
       <c r="N925" s="2">
         <f t="shared" si="17"/>
-        <v>2.6108034268896522E-2</v>
+        <v>2.6103718940592852E-2</v>
       </c>
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.2">
@@ -39855,7 +39855,7 @@
       </c>
       <c r="N926" s="2">
         <f t="shared" si="17"/>
-        <v>2.5944796526400509E-2</v>
+        <v>2.5940511280627722E-2</v>
       </c>
     </row>
     <row r="927" spans="1:14" x14ac:dyDescent="0.2">
@@ -39897,7 +39897,7 @@
       </c>
       <c r="N927" s="2">
         <f t="shared" si="17"/>
-        <v>2.5783101617389403E-2</v>
+        <v>2.5778846143362757E-2</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.2">
@@ -39939,7 +39939,7 @@
       </c>
       <c r="N928" s="2">
         <f t="shared" si="17"/>
-        <v>2.5622930103820721E-2</v>
+        <v>2.5618704094921611E-2</v>
       </c>
     </row>
     <row r="929" spans="1:14" x14ac:dyDescent="0.2">
@@ -39981,7 +39981,7 @@
       </c>
       <c r="N929" s="2">
         <f t="shared" si="17"/>
-        <v>2.5464262851963841E-2</v>
+        <v>2.5460066005672459E-2</v>
       </c>
     </row>
     <row r="930" spans="1:14" x14ac:dyDescent="0.2">
@@ -40023,7 +40023,7 @@
       </c>
       <c r="N930" s="2">
         <f t="shared" si="17"/>
-        <v>2.5307081026739221E-2</v>
+        <v>2.5302913044568442E-2</v>
       </c>
     </row>
     <row r="931" spans="1:14" x14ac:dyDescent="0.2">
@@ -40065,7 +40065,7 @@
       </c>
       <c r="N931" s="2">
         <f t="shared" si="17"/>
-        <v>2.5151366086178961E-2</v>
+        <v>2.5147226673609486E-2</v>
       </c>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.2">
@@ -40107,7 +40107,7 @@
       </c>
       <c r="N932" s="2">
         <f t="shared" si="17"/>
-        <v>2.4997099776005633E-2</v>
+        <v>2.4992988642422297E-2</v>
       </c>
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.2">
@@ -40149,7 +40149,7 @@
       </c>
       <c r="N933" s="2">
         <f t="shared" si="17"/>
-        <v>2.484426412432696E-2</v>
+        <v>2.4840180982956241E-2</v>
       </c>
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.2">
@@ -40191,7 +40191,7 @@
       </c>
       <c r="N934" s="2">
         <f t="shared" si="17"/>
-        <v>2.4692841436442597E-2</v>
+        <v>2.4688786004291276E-2</v>
       </c>
     </row>
     <row r="935" spans="1:14" x14ac:dyDescent="0.2">
@@ -40233,7 +40233,7 @@
       </c>
       <c r="N935" s="2">
         <f t="shared" si="17"/>
-        <v>2.454281428976169E-2</v>
+        <v>2.4538786287556621E-2</v>
       </c>
     </row>
     <row r="936" spans="1:14" x14ac:dyDescent="0.2">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="N936" s="2">
         <f t="shared" si="17"/>
-        <v>2.4394165528827488E-2</v>
+        <v>2.4390164680956509E-2</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.2">
@@ -40317,7 +40317,7 @@
       </c>
       <c r="N937" s="2">
         <f t="shared" si="17"/>
-        <v>2.4246878260446823E-2</v>
+        <v>2.4242904294900711E-2</v>
       </c>
     </row>
     <row r="938" spans="1:14" x14ac:dyDescent="0.2">
@@ -40359,7 +40359,7 @@
       </c>
       <c r="N938" s="2">
         <f t="shared" si="17"/>
-        <v>2.4100935848922093E-2</v>
+        <v>2.4096988497237605E-2</v>
       </c>
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.2">
@@ -40401,7 +40401,7 @@
       </c>
       <c r="N939" s="2">
         <f t="shared" si="17"/>
-        <v>2.3956321911383145E-2</v>
+        <v>2.3952400908587093E-2</v>
       </c>
     </row>
     <row r="940" spans="1:14" x14ac:dyDescent="0.2">
@@ -40443,7 +40443,7 @@
       </c>
       <c r="N940" s="2">
         <f t="shared" si="17"/>
-        <v>2.381302031321661E-2</v>
+        <v>2.3809125397770938E-2</v>
       </c>
     </row>
     <row r="941" spans="1:14" x14ac:dyDescent="0.2">
@@ -40485,7 +40485,7 @@
       </c>
       <c r="N941" s="2">
         <f t="shared" si="17"/>
-        <v>2.3671015163590929E-2</v>
+        <v>2.3667146077338833E-2</v>
       </c>
     </row>
     <row r="942" spans="1:14" x14ac:dyDescent="0.2">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="N942" s="2">
         <f t="shared" si="17"/>
-        <v>2.3530290811073894E-2</v>
+        <v>2.3526447299186844E-2</v>
       </c>
     </row>
     <row r="943" spans="1:14" x14ac:dyDescent="0.2">
@@ -40569,7 +40569,7 @@
       </c>
       <c r="N943" s="2">
         <f t="shared" si="17"/>
-        <v>2.33908318393415E-2</v>
+        <v>2.3387013650267303E-2</v>
       </c>
     </row>
     <row r="944" spans="1:14" x14ac:dyDescent="0.2">
@@ -40611,7 +40611,7 @@
       </c>
       <c r="N944" s="2">
         <f t="shared" si="17"/>
-        <v>2.3252623062975437E-2</v>
+        <v>2.324882994838717E-2</v>
       </c>
     </row>
     <row r="945" spans="1:14" x14ac:dyDescent="0.2">
@@ -40653,7 +40653,7 @@
       </c>
       <c r="N945" s="2">
         <f t="shared" si="17"/>
-        <v>2.3115649523346868E-2</v>
+        <v>2.3111881238092789E-2</v>
       </c>
     </row>
     <row r="946" spans="1:14" x14ac:dyDescent="0.2">
@@ -40695,7 +40695,7 @@
       </c>
       <c r="N946" s="2">
         <f t="shared" si="17"/>
-        <v>2.2979896484585489E-2</v>
+        <v>2.2976152786639795E-2</v>
       </c>
     </row>
     <row r="947" spans="1:14" x14ac:dyDescent="0.2">
@@ -40737,7 +40737,7 @@
       </c>
       <c r="N947" s="2">
         <f t="shared" si="17"/>
-        <v>2.2845349429631106E-2</v>
+        <v>2.2841630080045604E-2</v>
       </c>
     </row>
     <row r="948" spans="1:14" x14ac:dyDescent="0.2">
@@ -40779,7 +40779,7 @@
       </c>
       <c r="N948" s="2">
         <f t="shared" si="17"/>
-        <v>2.2711994056365429E-2</v>
+        <v>2.2708298819222067E-2</v>
       </c>
     </row>
     <row r="949" spans="1:14" x14ac:dyDescent="0.2">
@@ -40821,7 +40821,7 @@
       </c>
       <c r="N949" s="2">
         <f t="shared" si="17"/>
-        <v>2.2579816273823567E-2</v>
+        <v>2.2576144916187806E-2</v>
       </c>
     </row>
     <row r="950" spans="1:14" x14ac:dyDescent="0.2">
@@ -40863,7 +40863,7 @@
       </c>
       <c r="N950" s="2">
         <f t="shared" si="17"/>
-        <v>2.2448802198482141E-2</v>
+        <v>2.2445154490357187E-2</v>
       </c>
     </row>
     <row r="951" spans="1:14" x14ac:dyDescent="0.2">
@@ -40905,7 +40905,7 @@
       </c>
       <c r="N951" s="2">
         <f t="shared" si="17"/>
-        <v>2.2318938150622962E-2</v>
+        <v>2.2315313864904759E-2</v>
       </c>
     </row>
     <row r="952" spans="1:14" x14ac:dyDescent="0.2">
@@ -40947,7 +40947,7 @@
       </c>
       <c r="N952" s="2">
         <f t="shared" si="17"/>
-        <v>2.2190210650770162E-2</v>
+        <v>2.218660956320323E-2</v>
       </c>
     </row>
     <row r="953" spans="1:14" x14ac:dyDescent="0.2">
@@ -40989,7 +40989,7 @@
       </c>
       <c r="N953" s="2">
         <f t="shared" si="17"/>
-        <v>2.2062606416199216E-2</v>
+        <v>2.2059028305333243E-2</v>
       </c>
     </row>
     <row r="954" spans="1:14" x14ac:dyDescent="0.2">
@@ -41031,7 +41031,7 @@
       </c>
       <c r="N954" s="2">
         <f t="shared" si="17"/>
-        <v>2.1936112357516517E-2</v>
+        <v>2.193255700466374E-2</v>
       </c>
     </row>
     <row r="955" spans="1:14" x14ac:dyDescent="0.2">
@@ -41073,7 +41073,7 @@
       </c>
       <c r="N955" s="2">
         <f t="shared" si="17"/>
-        <v>2.1810715575307265E-2</v>
+        <v>2.1807182764500579E-2</v>
       </c>
     </row>
     <row r="956" spans="1:14" x14ac:dyDescent="0.2">
@@ -41115,7 +41115,7 @@
       </c>
       <c r="N956" s="2">
         <f t="shared" si="17"/>
-        <v>2.1686403356850695E-2</v>
+        <v>2.1682892874802521E-2</v>
       </c>
     </row>
     <row r="957" spans="1:14" x14ac:dyDescent="0.2">
@@ -41157,7 +41157,7 @@
       </c>
       <c r="N957" s="2">
         <f t="shared" si="17"/>
-        <v>2.1563163172900964E-2</v>
+        <v>2.1559674808962835E-2</v>
       </c>
     </row>
     <row r="958" spans="1:14" x14ac:dyDescent="0.2">
@@ -41199,7 +41199,7 @@
       </c>
       <c r="N958" s="2">
         <f t="shared" si="17"/>
-        <v>2.1440982674532129E-2</v>
+        <v>2.1437516220654942E-2</v>
       </c>
     </row>
     <row r="959" spans="1:14" x14ac:dyDescent="0.2">
@@ -41241,7 +41241,7 @@
       </c>
       <c r="N959" s="2">
         <f t="shared" si="17"/>
-        <v>2.1319849690045471E-2</v>
+        <v>2.1316404940740514E-2</v>
       </c>
     </row>
     <row r="960" spans="1:14" x14ac:dyDescent="0.2">
@@ -41283,7 +41283,7 @@
       </c>
       <c r="N960" s="2">
         <f t="shared" si="17"/>
-        <v>2.1199752221938727E-2</v>
+        <v>2.1196328974239311E-2</v>
       </c>
     </row>
     <row r="961" spans="1:14" x14ac:dyDescent="0.2">
@@ -41325,7 +41325,7 @@
       </c>
       <c r="N961" s="2">
         <f t="shared" si="17"/>
-        <v>2.1080678443934794E-2</v>
+        <v>2.1077276497358587E-2</v>
       </c>
     </row>
     <row r="962" spans="1:14" x14ac:dyDescent="0.2">
@@ -41367,7 +41367,7 @@
       </c>
       <c r="N962" s="2">
         <f t="shared" si="17"/>
-        <v>2.0962616698068929E-2</v>
+        <v>2.0959235854580951E-2</v>
       </c>
     </row>
     <row r="963" spans="1:14" x14ac:dyDescent="0.2">
@@ -41409,7 +41409,7 @@
       </c>
       <c r="N963" s="2">
         <f t="shared" si="17"/>
-        <v>2.0845555491833683E-2</v>
+        <v>2.0842195555809916E-2</v>
       </c>
     </row>
     <row r="964" spans="1:14" x14ac:dyDescent="0.2">
@@ -41451,7 +41451,7 @@
       </c>
       <c r="N964" s="2">
         <f t="shared" si="17"/>
-        <v>2.0729483495379255E-2</v>
+        <v>2.0726144273570894E-2</v>
       </c>
     </row>
     <row r="965" spans="1:14" x14ac:dyDescent="0.2">
@@ -41493,7 +41493,7 @@
       </c>
       <c r="N965" s="2">
         <f t="shared" si="17"/>
-        <v>2.0614389538769078E-2</v>
+        <v>2.0611070840267417E-2</v>
       </c>
     </row>
     <row r="966" spans="1:14" x14ac:dyDescent="0.2">
@@ -41535,7 +41535,7 @@
       </c>
       <c r="N966" s="2">
         <f t="shared" si="17"/>
-        <v>2.0500262609288677E-2</v>
+        <v>2.0496964245490554E-2</v>
       </c>
     </row>
     <row r="967" spans="1:14" x14ac:dyDescent="0.2">
@@ -41577,7 +41577,7 @@
       </c>
       <c r="N967" s="2">
         <f t="shared" si="17"/>
-        <v>2.0387091848806809E-2</v>
+        <v>2.038381363338071E-2</v>
       </c>
     </row>
     <row r="968" spans="1:14" x14ac:dyDescent="0.2">
@@ -41619,7 +41619,7 @@
       </c>
       <c r="N968" s="2">
         <f t="shared" ref="N968:N1006" si="18">(B968*B$5+C968*C$5+D968*D$5+E968*E$5+F968*F$5+G968*G$5+H968*H$5+I968*I$5+J968*J$5+K968*K$5+L968*L$5)/SUM(B$5:L$5)</f>
-        <v>2.0274866551188157E-2</v>
+        <v>2.0271608300040829E-2</v>
       </c>
     </row>
     <row r="969" spans="1:14" x14ac:dyDescent="0.2">
@@ -41661,7 +41661,7 @@
       </c>
       <c r="N969" s="2">
         <f t="shared" si="18"/>
-        <v>2.0163576159755885E-2</v>
+        <v>2.016033769099957E-2</v>
       </c>
     </row>
     <row r="970" spans="1:14" x14ac:dyDescent="0.2">
@@ -41703,7 +41703,7 @@
       </c>
       <c r="N970" s="2">
         <f t="shared" si="18"/>
-        <v>2.0053210264803067E-2</v>
+        <v>2.0049991398723269E-2</v>
       </c>
     </row>
     <row r="971" spans="1:14" x14ac:dyDescent="0.2">
@@ -41745,7 +41745,7 @@
       </c>
       <c r="N971" s="2">
         <f t="shared" si="18"/>
-        <v>1.9943758601152269E-2</v>
+        <v>1.9940559160176095E-2</v>
       </c>
     </row>
     <row r="972" spans="1:14" x14ac:dyDescent="0.2">
@@ -41787,7 +41787,7 @@
       </c>
       <c r="N972" s="2">
         <f t="shared" si="18"/>
-        <v>1.9835211045761966E-2</v>
+        <v>1.9832030854426981E-2</v>
       </c>
     </row>
     <row r="973" spans="1:14" x14ac:dyDescent="0.2">
@@ -41829,7 +41829,7 @@
       </c>
       <c r="N973" s="2">
         <f t="shared" si="18"/>
-        <v>1.9727557615378536E-2</v>
+        <v>1.9724396500302138E-2</v>
       </c>
     </row>
     <row r="974" spans="1:14" x14ac:dyDescent="0.2">
@@ -41871,7 +41871,7 @@
       </c>
       <c r="N974" s="2">
         <f t="shared" si="18"/>
-        <v>1.9620788464233669E-2</v>
+        <v>1.9617646254083024E-2</v>
       </c>
     </row>
     <row r="975" spans="1:14" x14ac:dyDescent="0.2">
@@ -41913,7 +41913,7 @@
       </c>
       <c r="N975" s="2">
         <f t="shared" si="18"/>
-        <v>1.9514893881785001E-2</v>
+        <v>1.9511770407247438E-2</v>
       </c>
     </row>
     <row r="976" spans="1:14" x14ac:dyDescent="0.2">
@@ -41955,7 +41955,7 @@
       </c>
       <c r="N976" s="2">
         <f t="shared" si="18"/>
-        <v>1.9409864290500477E-2</v>
+        <v>1.9406759384254416E-2</v>
       </c>
     </row>
     <row r="977" spans="1:14" x14ac:dyDescent="0.2">
@@ -41997,7 +41997,7 @@
       </c>
       <c r="N977" s="2">
         <f t="shared" si="18"/>
-        <v>1.9305690243683681E-2</v>
+        <v>1.930260374037002E-2</v>
       </c>
     </row>
     <row r="978" spans="1:14" x14ac:dyDescent="0.2">
@@ -42039,7 +42039,7 @@
       </c>
       <c r="N978" s="2">
         <f t="shared" si="18"/>
-        <v>1.920236242334155E-2</v>
+        <v>1.9199294159535561E-2</v>
       </c>
     </row>
     <row r="979" spans="1:14" x14ac:dyDescent="0.2">
@@ -42081,7 +42081,7 @@
       </c>
       <c r="N979" s="2">
         <f t="shared" si="18"/>
-        <v>1.9099871638091185E-2</v>
+        <v>1.9096821452274853E-2</v>
       </c>
     </row>
     <row r="980" spans="1:14" x14ac:dyDescent="0.2">
@@ -42123,7 +42123,7 @@
       </c>
       <c r="N980" s="2">
         <f t="shared" si="18"/>
-        <v>1.8998208821106911E-2</v>
+        <v>1.8995176553641756E-2</v>
       </c>
     </row>
     <row r="981" spans="1:14" x14ac:dyDescent="0.2">
@@ -42165,7 +42165,7 @@
       </c>
       <c r="N981" s="2">
         <f t="shared" si="18"/>
-        <v>1.8897365028105316E-2</v>
+        <v>1.8894350521205652E-2</v>
       </c>
     </row>
     <row r="982" spans="1:14" x14ac:dyDescent="0.2">
@@ -42207,7 +42207,7 @@
       </c>
       <c r="N982" s="2">
         <f t="shared" si="18"/>
-        <v>1.879733143536819E-2</v>
+        <v>1.8794334533074841E-2</v>
       </c>
     </row>
     <row r="983" spans="1:14" x14ac:dyDescent="0.2">
@@ -42249,7 +42249,7 @@
       </c>
       <c r="N983" s="2">
         <f t="shared" si="18"/>
-        <v>1.8698099337802539E-2</v>
+        <v>1.8695119885956964E-2</v>
       </c>
     </row>
     <row r="984" spans="1:14" x14ac:dyDescent="0.2">
@@ -42291,7 +42291,7 @@
       </c>
       <c r="N984" s="2">
         <f t="shared" si="18"/>
-        <v>1.8599660147036703E-2</v>
+        <v>1.8596697993255602E-2</v>
       </c>
     </row>
     <row r="985" spans="1:14" x14ac:dyDescent="0.2">
@@ -42333,7 +42333,7 @@
       </c>
       <c r="N985" s="2">
         <f t="shared" si="18"/>
-        <v>1.8502005389551358E-2</v>
+        <v>1.8499060383201645E-2</v>
       </c>
     </row>
     <row r="986" spans="1:14" x14ac:dyDescent="0.2">
@@ -42375,7 +42375,7 @@
       </c>
       <c r="N986" s="2">
         <f t="shared" si="18"/>
-        <v>1.8405126704846092E-2</v>
+        <v>1.8402198697020283E-2</v>
       </c>
     </row>
     <row r="987" spans="1:14" x14ac:dyDescent="0.2">
@@ -42417,7 +42417,7 @@
       </c>
       <c r="N987" s="2">
         <f t="shared" si="18"/>
-        <v>1.8309015843639084E-2</v>
+        <v>1.830610468713114E-2</v>
       </c>
     </row>
     <row r="988" spans="1:14" x14ac:dyDescent="0.2">
@@ -42459,7 +42459,7 @@
       </c>
       <c r="N988" s="2">
         <f t="shared" si="18"/>
-        <v>1.8213664666100294E-2</v>
+        <v>1.8210770215381793E-2</v>
       </c>
     </row>
     <row r="989" spans="1:14" x14ac:dyDescent="0.2">
@@ -42501,7 +42501,7 @@
       </c>
       <c r="N989" s="2">
         <f t="shared" si="18"/>
-        <v>1.8119065140117192E-2</v>
+        <v>1.8116187251313951E-2</v>
       </c>
     </row>
     <row r="990" spans="1:14" x14ac:dyDescent="0.2">
@@ -42543,7 +42543,7 @@
       </c>
       <c r="N990" s="2">
         <f t="shared" si="18"/>
-        <v>1.8025209339592178E-2</v>
+        <v>1.8022347870461197E-2</v>
       </c>
     </row>
     <row r="991" spans="1:14" x14ac:dyDescent="0.2">
@@ -42585,7 +42585,7 @@
       </c>
       <c r="N991" s="2">
         <f t="shared" si="18"/>
-        <v>1.7932089442771474E-2</v>
+        <v>1.7929244252678323E-2</v>
       </c>
     </row>
     <row r="992" spans="1:14" x14ac:dyDescent="0.2">
@@ -42627,7 +42627,7 @@
       </c>
       <c r="N992" s="2">
         <f t="shared" si="18"/>
-        <v>1.7839697730604075E-2</v>
+        <v>1.7836868680500575E-2</v>
       </c>
     </row>
     <row r="993" spans="1:14" x14ac:dyDescent="0.2">
@@ -42669,7 +42669,7 @@
       </c>
       <c r="N993" s="2">
         <f t="shared" si="18"/>
-        <v>1.7748026585130996E-2</v>
+        <v>1.7745213537533326E-2</v>
       </c>
     </row>
     <row r="994" spans="1:14" x14ac:dyDescent="0.2">
@@ -42711,7 +42711,7 @@
       </c>
       <c r="N994" s="2">
         <f t="shared" si="18"/>
-        <v>1.7657068487903459E-2</v>
+        <v>1.7654271306870577E-2</v>
       </c>
     </row>
     <row r="995" spans="1:14" x14ac:dyDescent="0.2">
@@ -42753,7 +42753,7 @@
       </c>
       <c r="N995" s="2">
         <f t="shared" si="18"/>
-        <v>1.7566816018430079E-2</v>
+        <v>1.7564034569542506E-2</v>
       </c>
     </row>
     <row r="996" spans="1:14" x14ac:dyDescent="0.2">
@@ -42795,7 +42795,7 @@
       </c>
       <c r="N996" s="2">
         <f t="shared" si="18"/>
-        <v>1.7477261852652127E-2</v>
+        <v>1.7474496002991075E-2</v>
       </c>
     </row>
     <row r="997" spans="1:14" x14ac:dyDescent="0.2">
@@ -42837,7 +42837,7 @@
       </c>
       <c r="N997" s="2">
         <f t="shared" si="18"/>
-        <v>1.738839876144585E-2</v>
+        <v>1.7385648379572682E-2</v>
       </c>
     </row>
     <row r="998" spans="1:14" x14ac:dyDescent="0.2">
@@ -42879,7 +42879,7 @@
       </c>
       <c r="N998" s="2">
         <f t="shared" si="18"/>
-        <v>1.7300219609152057E-2</v>
+        <v>1.7297484565088072E-2</v>
       </c>
     </row>
     <row r="999" spans="1:14" x14ac:dyDescent="0.2">
@@ -42921,7 +42921,7 @@
       </c>
       <c r="N999" s="2">
         <f t="shared" si="18"/>
-        <v>1.7212717352132412E-2</v>
+        <v>1.7209997517338954E-2</v>
       </c>
     </row>
     <row r="1000" spans="1:14" x14ac:dyDescent="0.2">
@@ -42963,7 +42963,7 @@
       </c>
       <c r="N1000" s="2">
         <f t="shared" si="18"/>
-        <v>1.7125885037350786E-2</v>
+        <v>1.7123180284709678E-2</v>
       </c>
     </row>
     <row r="1001" spans="1:14" x14ac:dyDescent="0.2">
@@ -43005,7 +43005,7 @@
       </c>
       <c r="N1001" s="2">
         <f t="shared" si="18"/>
-        <v>1.7039715800980963E-2</v>
+        <v>1.7037026004775253E-2</v>
       </c>
     </row>
     <row r="1002" spans="1:14" x14ac:dyDescent="0.2">
@@ -43047,7 +43047,7 @@
       </c>
       <c r="N1002" s="2">
         <f t="shared" si="18"/>
-        <v>1.6954202867038148E-2</v>
+        <v>1.6951527902933146E-2</v>
       </c>
     </row>
     <row r="1003" spans="1:14" x14ac:dyDescent="0.2">
@@ -43089,7 +43089,7 @@
       </c>
       <c r="N1003" s="2">
         <f t="shared" si="18"/>
-        <v>1.686933954603537E-2</v>
+        <v>1.6866679291059998E-2</v>
       </c>
     </row>
     <row r="1004" spans="1:14" x14ac:dyDescent="0.2">
@@ -43131,7 +43131,7 @@
       </c>
       <c r="N1004" s="2">
         <f t="shared" si="18"/>
-        <v>1.6785119233663836E-2</v>
+        <v>1.6782473566192283E-2</v>
       </c>
     </row>
     <row r="1005" spans="1:14" x14ac:dyDescent="0.2">
@@ -43173,7 +43173,7 @@
       </c>
       <c r="N1005" s="2">
         <f t="shared" si="18"/>
-        <v>1.6701535409496097E-2</v>
+        <v>1.6698904209229738E-2</v>
       </c>
     </row>
     <row r="1006" spans="1:14" x14ac:dyDescent="0.2">
@@ -43215,7 +43215,7 @@
       </c>
       <c r="N1006" s="2">
         <f t="shared" si="18"/>
-        <v>1.6618581635712733E-2</v>
+        <v>1.6615964783662351E-2</v>
       </c>
     </row>
     <row r="1007" spans="1:14" x14ac:dyDescent="0.2">
